--- a/format-specifications/ansi-x12/4010/810/Pagero-ANSI-X12-4010-810-invoice-description-outbound.xlsx
+++ b/format-specifications/ansi-x12/4010/810/Pagero-ANSI-X12-4010-810-invoice-description-outbound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\format\paysol-transformation\templates\X12\invoice\v 4010\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\format\integration-resources\format-specifications\ansi-x12\4010\810\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72332ADE-233F-42F0-9982-1789F971CC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA1026-73E8-4D95-92AE-595B01A222DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="27150" windowHeight="21165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="574">
   <si>
     <t>Responsible</t>
   </si>
@@ -1736,6 +1736,49 @@
   </si>
   <si>
     <t xml:space="preserve"> 'IA' as fixed value</t>
+  </si>
+  <si>
+    <t>N9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     N901</t>
+  </si>
+  <si>
+    <t>Reference Identification Qualifier</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L1 Letters or Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     N902</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GEN</t>
+  </si>
+  <si>
+    <t>-"GEN" to identify that the type of note to follow in MSG01 is a General Note.
+. "SHP" to identify Inco Terms listed in the FOB group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     MSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          MSG01</t>
+  </si>
+  <si>
+    <t>Free-Form Message Text</t>
+  </si>
+  <si>
+    <t>1/264</t>
+  </si>
+  <si>
+    <t>N9*L1*GEN~</t>
+  </si>
+  <si>
+    <t>MSG*Free text data information~</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2079,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2056,55 +2099,54 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2114,12 +2156,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2129,35 +2165,35 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2165,9 +2201,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2188,7 +2221,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2207,93 +2240,66 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2302,20 +2308,12 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2323,10 +2321,105 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -2335,184 +2428,54 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2958,7 +2921,7 @@
       <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="20" t="s">
         <v>209</v>
       </c>
       <c r="D3" s="21"/>
@@ -3006,90 +2969,90 @@
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="122"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="103" t="s">
         <v>494</v>
       </c>
-      <c r="C10" s="127"/>
-      <c r="D10" s="128"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="105"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="108"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="108"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="131"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="108"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="131"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="108"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="134"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
@@ -3101,18 +3064,18 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
@@ -3130,7 +3093,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
-      <c r="B24" s="32"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="2"/>
@@ -3236,4535 +3199,4644 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H255"/>
+  <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="34" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="60.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="34" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="60.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="53.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="43" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="38.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="44" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="29" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="28" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="28" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="29" t="s">
+      <c r="F7" s="34"/>
+      <c r="G7" s="28" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="28" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="28" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.5">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="28" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="70" t="s">
         <v>329</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="28" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="70" t="s">
         <v>319</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="28" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="70" t="s">
         <v>330</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="70" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="25.5">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="70" t="s">
         <v>321</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="142" t="s">
+      <c r="B20" s="127" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="144"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="129"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="36"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="51"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="33">
+      <c r="B23" s="32">
         <v>479</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="28" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="33">
+      <c r="B24" s="32">
         <v>142</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="36" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="33">
+      <c r="B25" s="32">
         <v>124</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="28" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="33">
+      <c r="B26" s="32">
         <v>29</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="33">
+      <c r="B27" s="32">
         <v>30</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="35" t="s">
+      <c r="F27" s="34" t="s">
         <v>329</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="28" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="33">
+      <c r="B28" s="32">
         <v>28</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="F28" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="32">
         <v>455</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="28" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="33">
+      <c r="B30" s="32">
         <v>480</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="28" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="113" t="s">
         <v>336</v>
       </c>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="147"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="115"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="29"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="28"/>
     </row>
     <row r="33" spans="1:7" ht="25.5">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53" t="s">
+      <c r="B33" s="49"/>
+      <c r="C33" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="51"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="48"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="32">
         <v>143</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="35" t="s">
+      <c r="E34" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="28" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="33">
+      <c r="B35" s="32">
         <v>329</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="35" t="s">
+      <c r="E35" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="35" t="s">
+      <c r="F35" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="G35" s="29" t="s">
+      <c r="G35" s="28" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="145" t="s">
+      <c r="B36" s="113" t="s">
         <v>340</v>
       </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="147"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="114"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="115"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="29"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="29"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7" ht="25.5">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="51"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="48"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="32">
         <v>373</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="G39" s="43"/>
+      <c r="G39" s="40"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="33">
+      <c r="B40" s="32">
         <v>76</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="35" t="s">
+      <c r="F40" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="G40" s="43"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="B41" s="33">
+      <c r="B41" s="32">
         <v>373</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F41" s="35" t="s">
+      <c r="F41" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="G41" s="29"/>
+      <c r="G41" s="28"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="B42" s="33">
+      <c r="B42" s="32">
         <v>324</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="35" t="s">
+      <c r="E42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="35" t="s">
+      <c r="F42" s="34" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B43" s="33">
+      <c r="B43" s="32">
         <v>328</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="E43" s="35" t="s">
+      <c r="E43" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="29" t="s">
+      <c r="F43" s="34"/>
+      <c r="G43" s="28" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B44" s="33">
+      <c r="B44" s="32">
         <v>327</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="34" t="s">
         <v>348</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="29" t="s">
+      <c r="F44" s="34"/>
+      <c r="G44" s="28" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B45" s="33">
+      <c r="B45" s="32">
         <v>640</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D45" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="E45" s="35" t="s">
+      <c r="E45" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="G45" s="30" t="s">
+      <c r="G45" s="29" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>391</v>
       </c>
-      <c r="B46" s="33">
+      <c r="B46" s="32">
         <v>353</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D46" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F46" s="35" t="s">
+      <c r="F46" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="G46" s="29" t="s">
+      <c r="G46" s="28" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="32">
         <v>306</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="112"/>
-      <c r="G47" s="29" t="s">
+      <c r="F47" s="94"/>
+      <c r="G47" s="28" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="B48" s="33">
+      <c r="B48" s="32">
         <v>74</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="F48" s="35" t="s">
+      <c r="F48" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="G48" s="89" t="s">
+      <c r="G48" s="78" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="145" t="s">
+      <c r="B49" s="113" t="s">
         <v>351</v>
       </c>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="147"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="115"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="29"/>
-      <c r="B50" s="145" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="113" t="s">
         <v>399</v>
       </c>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="147"/>
+      <c r="C50" s="114"/>
+      <c r="D50" s="114"/>
+      <c r="E50" s="114"/>
+      <c r="F50" s="114"/>
+      <c r="G50" s="115"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="29"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="116"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="76"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="72" t="s">
+      <c r="A52" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="74" t="s">
+      <c r="B52" s="49"/>
+      <c r="C52" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="72"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="72"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="48"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="77" t="s">
         <v>402</v>
       </c>
-      <c r="B53" s="90">
+      <c r="B53" s="79">
         <v>98</v>
       </c>
-      <c r="C53" s="90" t="s">
+      <c r="C53" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="88" t="s">
+      <c r="D53" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="90" t="s">
+      <c r="E53" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="70" t="s">
+      <c r="F53" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="G53" s="91" t="s">
+      <c r="G53" s="80" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="88" t="s">
+      <c r="A54" s="77" t="s">
         <v>404</v>
       </c>
-      <c r="B54" s="90">
+      <c r="B54" s="79">
         <v>100</v>
       </c>
-      <c r="C54" s="90" t="s">
+      <c r="C54" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="88" t="s">
+      <c r="D54" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="E54" s="92" t="s">
+      <c r="E54" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="70" t="s">
+      <c r="F54" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="G54" s="88" t="s">
+      <c r="G54" s="77" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="88" t="s">
+      <c r="A55" s="77" t="s">
         <v>495</v>
       </c>
-      <c r="B55" s="101">
+      <c r="B55" s="87">
         <v>280</v>
       </c>
-      <c r="C55" s="102" t="s">
+      <c r="C55" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="103" t="s">
+      <c r="D55" s="89" t="s">
         <v>498</v>
       </c>
-      <c r="E55" s="104" t="s">
+      <c r="E55" s="90" t="s">
         <v>499</v>
       </c>
-      <c r="F55" s="105"/>
-      <c r="G55" s="106" t="s">
+      <c r="F55" s="91"/>
+      <c r="G55" s="92" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="88" t="s">
+      <c r="A56" s="77" t="s">
         <v>496</v>
       </c>
-      <c r="B56" s="101">
+      <c r="B56" s="87">
         <v>98</v>
       </c>
-      <c r="C56" s="102" t="s">
+      <c r="C56" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="103" t="s">
+      <c r="D56" s="89" t="s">
         <v>501</v>
       </c>
-      <c r="E56" s="104" t="s">
+      <c r="E56" s="90" t="s">
         <v>117</v>
       </c>
-      <c r="F56" s="105"/>
-      <c r="G56" s="106"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="92"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="77" t="s">
         <v>497</v>
       </c>
-      <c r="B57" s="101">
+      <c r="B57" s="87">
         <v>100</v>
       </c>
-      <c r="C57" s="90" t="s">
+      <c r="C57" s="79" t="s">
         <v>115</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="D57" s="77" t="s">
         <v>405</v>
       </c>
-      <c r="E57" s="92" t="s">
+      <c r="E57" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="F57" s="70" t="s">
+      <c r="F57" s="34" t="s">
         <v>502</v>
       </c>
-      <c r="G57" s="106" t="s">
+      <c r="G57" s="92" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="88" t="s">
+      <c r="A58" s="77" t="s">
         <v>505</v>
       </c>
-      <c r="B58" s="101">
+      <c r="B58" s="87">
         <v>669</v>
       </c>
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="88" t="s">
         <v>115</v>
       </c>
       <c r="D58" t="s">
         <v>506</v>
       </c>
-      <c r="E58" s="92" t="s">
+      <c r="E58" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="F58" s="105"/>
-      <c r="G58" s="106"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="92"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="77" t="s">
         <v>507</v>
       </c>
-      <c r="B59" s="101">
+      <c r="B59" s="87">
         <v>374</v>
       </c>
-      <c r="C59" s="90" t="s">
+      <c r="C59" s="79" t="s">
         <v>115</v>
       </c>
       <c r="D59" t="s">
         <v>244</v>
       </c>
-      <c r="E59" s="92" t="s">
+      <c r="E59" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="F59" s="107" t="s">
+      <c r="F59" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="G59" s="93" t="s">
+      <c r="G59" s="28" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="88" t="s">
+      <c r="A60" s="77" t="s">
         <v>508</v>
       </c>
-      <c r="B60" s="101">
+      <c r="B60" s="87">
         <v>337</v>
       </c>
-      <c r="C60" s="90" t="s">
+      <c r="C60" s="79" t="s">
         <v>115</v>
       </c>
       <c r="D60" t="s">
         <v>509</v>
       </c>
-      <c r="E60" s="70" t="s">
+      <c r="E60" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F60" s="107" t="s">
+      <c r="F60" s="58" t="s">
         <v>510</v>
       </c>
-      <c r="G60" s="93" t="s">
+      <c r="G60" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A61" s="108" t="s">
+      <c r="A61" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B61" s="154" t="s">
+      <c r="B61" s="122" t="s">
         <v>553</v>
       </c>
-      <c r="C61" s="155"/>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="117" t="s">
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="96" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A62" s="108" t="s">
+      <c r="A62" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="B62" s="153" t="s">
+      <c r="B62" s="121" t="s">
         <v>511</v>
       </c>
-      <c r="C62" s="146"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="147"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="115"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="88"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="71"/>
-      <c r="G63" s="88"/>
+      <c r="A63" s="77"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="77"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="63"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="59"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="B65" s="55">
+      <c r="B65" s="52">
         <v>128</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D65" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="E65" s="55" t="s">
+      <c r="E65" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="F65" s="55" t="s">
+      <c r="F65" s="52" t="s">
         <v>558</v>
       </c>
-      <c r="G65" s="66" t="s">
+      <c r="G65" s="62" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="B66" s="55">
+      <c r="B66" s="52">
         <v>127</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="D66" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="F66" s="55">
+      <c r="F66" s="52">
         <v>11</v>
       </c>
-      <c r="G66" s="66" t="s">
+      <c r="G66" s="62" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B67" s="145" t="s">
+      <c r="B67" s="113" t="s">
         <v>355</v>
       </c>
-      <c r="C67" s="146"/>
-      <c r="D67" s="146"/>
-      <c r="E67" s="146"/>
-      <c r="F67" s="146"/>
-      <c r="G67" s="147"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="115"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="54"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="66"/>
+      <c r="A68" s="51"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="62"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="B69" s="64"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-      <c r="G69" s="63"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="59"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="B70" s="55">
+      <c r="B70" s="52">
         <v>128</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="D70" s="54" t="s">
+      <c r="D70" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="E70" s="55" t="s">
+      <c r="E70" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="F70" s="55" t="s">
+      <c r="F70" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="G70" s="66" t="s">
+      <c r="G70" s="62" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="54" t="s">
+      <c r="A71" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="B71" s="55">
+      <c r="B71" s="52">
         <v>127</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="54" t="s">
+      <c r="D71" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="E71" s="55" t="s">
+      <c r="E71" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="F71" s="55">
+      <c r="F71" s="52">
         <v>111111111</v>
       </c>
-      <c r="G71" s="66" t="s">
+      <c r="G71" s="62" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B72" s="145" t="s">
+      <c r="B72" s="113" t="s">
         <v>357</v>
       </c>
-      <c r="C72" s="146"/>
-      <c r="D72" s="146"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="146"/>
-      <c r="G72" s="147"/>
+      <c r="C72" s="114"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="114"/>
+      <c r="F72" s="114"/>
+      <c r="G72" s="115"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="54"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="55"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="66"/>
+      <c r="A73" s="51"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="62"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="63" t="s">
+      <c r="A74" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="B74" s="64"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="63"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="59"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="B75" s="55">
+      <c r="B75" s="52">
         <v>128</v>
       </c>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="D75" s="54" t="s">
+      <c r="D75" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="E75" s="55" t="s">
+      <c r="E75" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="F75" s="55" t="s">
+      <c r="F75" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="G75" s="66" t="s">
+      <c r="G75" s="62" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="B76" s="55">
+      <c r="B76" s="52">
         <v>127</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="54" t="s">
+      <c r="D76" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="E76" s="55" t="s">
+      <c r="E76" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="F76" s="55" t="s">
+      <c r="F76" s="52" t="s">
         <v>360</v>
       </c>
-      <c r="G76" s="66" t="s">
+      <c r="G76" s="62" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="41" customFormat="1">
-      <c r="A77" s="36" t="s">
+    <row r="77" spans="1:7">
+      <c r="A77" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B77" s="145" t="s">
+      <c r="B77" s="113" t="s">
         <v>359</v>
       </c>
-      <c r="C77" s="146"/>
-      <c r="D77" s="146"/>
-      <c r="E77" s="146"/>
-      <c r="F77" s="146"/>
-      <c r="G77" s="147"/>
-    </row>
-    <row r="78" spans="1:7" s="41" customFormat="1">
-      <c r="A78" s="42"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="42"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="42"/>
+      <c r="C77" s="114"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="115"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="40"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="40"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="63" t="s">
+      <c r="A79" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="B79" s="64"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="63"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="59"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="B80" s="55">
+      <c r="B80" s="52">
         <v>128</v>
       </c>
-      <c r="C80" s="55" t="s">
+      <c r="C80" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="D80" s="54" t="s">
+      <c r="D80" s="51" t="s">
         <v>436</v>
       </c>
-      <c r="E80" s="55" t="s">
+      <c r="E80" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="F80" s="55" t="s">
+      <c r="F80" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="G80" s="66" t="s">
+      <c r="G80" s="62" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="B81" s="55">
+      <c r="B81" s="52">
         <v>127</v>
       </c>
-      <c r="C81" s="55" t="s">
+      <c r="C81" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D81" s="54" t="s">
+      <c r="D81" s="51" t="s">
         <v>353</v>
       </c>
-      <c r="E81" s="55" t="s">
+      <c r="E81" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="F81" s="55" t="s">
+      <c r="F81" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="G81" s="66" t="s">
+      <c r="G81" s="62" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="41" customFormat="1">
-      <c r="A82" s="36" t="s">
+    <row r="82" spans="1:7">
+      <c r="A82" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B82" s="145" t="s">
+      <c r="B82" s="113" t="s">
         <v>432</v>
       </c>
-      <c r="C82" s="146"/>
-      <c r="D82" s="146"/>
-      <c r="E82" s="146"/>
-      <c r="F82" s="146"/>
-      <c r="G82" s="147"/>
-    </row>
-    <row r="83" spans="1:7" s="41" customFormat="1">
-      <c r="A83" s="36"/>
-      <c r="B83" s="85"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="86"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="86"/>
-      <c r="G83" s="87"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="115"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="35"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="75"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="76"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="72" t="s">
+      <c r="A84" s="48" t="s">
         <v>406</v>
       </c>
-      <c r="B84" s="73"/>
-      <c r="C84" s="74" t="s">
+      <c r="B84" s="49"/>
+      <c r="C84" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="72"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="72" t="s">
+      <c r="D84" s="48"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="48" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="25.5">
-      <c r="A85" s="93" t="s">
+      <c r="A85" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="B85" s="69">
+      <c r="B85" s="32">
         <v>366</v>
       </c>
-      <c r="C85" s="94" t="s">
+      <c r="C85" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="93" t="s">
+      <c r="D85" s="28" t="s">
         <v>408</v>
       </c>
-      <c r="E85" s="70" t="s">
+      <c r="E85" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F85" s="70" t="s">
+      <c r="F85" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="G85" s="95" t="s">
+      <c r="G85" s="82" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="93" t="s">
+      <c r="A86" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="B86" s="69">
+      <c r="B86" s="32">
         <v>93</v>
       </c>
-      <c r="C86" s="94" t="s">
+      <c r="C86" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="93" t="s">
+      <c r="D86" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E86" s="70" t="s">
+      <c r="E86" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F86" s="70" t="s">
+      <c r="F86" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="G86" s="93"/>
+      <c r="G86" s="28"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="93" t="s">
+      <c r="A87" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="B87" s="69">
+      <c r="B87" s="32">
         <v>365</v>
       </c>
-      <c r="C87" s="94" t="s">
+      <c r="C87" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D87" s="93" t="s">
+      <c r="D87" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="E87" s="70" t="s">
+      <c r="E87" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F87" s="44" t="s">
+      <c r="F87" s="41" t="s">
         <v>472</v>
       </c>
-      <c r="G87" s="95" t="s">
+      <c r="G87" s="82" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="93" t="s">
+      <c r="A88" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="B88" s="69">
+      <c r="B88" s="32">
         <v>364</v>
       </c>
-      <c r="C88" s="94" t="s">
+      <c r="C88" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="93" t="s">
+      <c r="D88" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="E88" s="70" t="s">
+      <c r="E88" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F88" s="70" t="s">
+      <c r="F88" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="G88" s="93"/>
+      <c r="G88" s="28"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="93" t="s">
+      <c r="A89" s="28" t="s">
         <v>416</v>
       </c>
-      <c r="B89" s="69">
+      <c r="B89" s="32">
         <v>365</v>
       </c>
-      <c r="C89" s="94" t="s">
+      <c r="C89" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D89" s="93" t="s">
+      <c r="D89" s="28" t="s">
         <v>417</v>
       </c>
-      <c r="E89" s="70" t="s">
+      <c r="E89" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F89" s="44" t="s">
+      <c r="F89" s="41" t="s">
         <v>473</v>
       </c>
-      <c r="G89" s="95" t="s">
+      <c r="G89" s="82" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="93" t="s">
+      <c r="A90" s="28" t="s">
         <v>419</v>
       </c>
-      <c r="B90" s="69">
+      <c r="B90" s="32">
         <v>364</v>
       </c>
-      <c r="C90" s="94" t="s">
+      <c r="C90" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="93" t="s">
+      <c r="D90" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="E90" s="70" t="s">
+      <c r="E90" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F90" s="70" t="s">
+      <c r="F90" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="G90" s="93"/>
+      <c r="G90" s="28"/>
     </row>
     <row r="91" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A91" s="36" t="s">
+      <c r="A91" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B91" s="145" t="s">
+      <c r="B91" s="113" t="s">
         <v>421</v>
       </c>
-      <c r="C91" s="148"/>
-      <c r="D91" s="148"/>
-      <c r="E91" s="148"/>
-      <c r="F91" s="148"/>
-      <c r="G91" s="149"/>
+      <c r="C91" s="116"/>
+      <c r="D91" s="116"/>
+      <c r="E91" s="116"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="117"/>
     </row>
     <row r="92" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A92" s="93"/>
-      <c r="B92" s="145" t="s">
+      <c r="A92" s="28"/>
+      <c r="B92" s="113" t="s">
         <v>422</v>
       </c>
-      <c r="C92" s="148"/>
-      <c r="D92" s="148"/>
-      <c r="E92" s="148"/>
-      <c r="F92" s="148"/>
-      <c r="G92" s="149"/>
+      <c r="C92" s="116"/>
+      <c r="D92" s="116"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="117"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="93"/>
-      <c r="B93" s="69"/>
-      <c r="C93" s="94"/>
-      <c r="D93" s="93"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="71"/>
-      <c r="G93" s="93"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="28"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="51" t="s">
+      <c r="A94" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B94" s="52"/>
-      <c r="C94" s="53" t="s">
+      <c r="B94" s="49"/>
+      <c r="C94" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="51" t="s">
+      <c r="D94" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="51"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="48"/>
     </row>
     <row r="95" spans="1:7" ht="38.25">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="33">
+      <c r="B95" s="32">
         <v>98</v>
       </c>
-      <c r="C95" s="34" t="s">
+      <c r="C95" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D95" s="29" t="s">
+      <c r="D95" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E95" s="35" t="s">
+      <c r="E95" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F95" s="35" t="s">
+      <c r="F95" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="G95" s="29" t="s">
+      <c r="G95" s="28" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="B96" s="33">
+      <c r="B96" s="32">
         <v>93</v>
       </c>
-      <c r="C96" s="34" t="s">
+      <c r="C96" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D96" s="29" t="s">
+      <c r="D96" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E96" s="35" t="s">
+      <c r="E96" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F96" s="35" t="s">
+      <c r="F96" s="34" t="s">
         <v>369</v>
       </c>
-      <c r="G96" s="29"/>
+      <c r="G96" s="28"/>
     </row>
     <row r="97" spans="1:7" ht="38.25">
-      <c r="A97" s="29" t="s">
+      <c r="A97" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="33">
+      <c r="B97" s="32">
         <v>66</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D97" s="29" t="s">
+      <c r="D97" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E97" s="35" t="s">
+      <c r="E97" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F97" s="35" t="s">
+      <c r="F97" s="34" t="s">
         <v>370</v>
       </c>
-      <c r="G97" s="29" t="s">
+      <c r="G97" s="28" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B98" s="80">
+      <c r="B98" s="70">
         <v>67</v>
       </c>
-      <c r="C98" s="80" t="s">
+      <c r="C98" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D98" s="29" t="s">
+      <c r="D98" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E98" s="44" t="s">
+      <c r="E98" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="F98" s="68" t="s">
+      <c r="F98" s="63" t="s">
         <v>371</v>
       </c>
-      <c r="G98" s="43" t="s">
+      <c r="G98" s="40" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="52"/>
-      <c r="C99" s="53" t="s">
+      <c r="B99" s="49"/>
+      <c r="C99" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D99" s="51"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="51"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="50"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="48"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="29" t="s">
+      <c r="A100" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B100" s="33">
+      <c r="B100" s="32">
         <v>93</v>
       </c>
-      <c r="C100" s="34" t="s">
+      <c r="C100" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="29" t="s">
+      <c r="D100" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E100" s="35" t="s">
+      <c r="E100" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="F100" s="35" t="s">
+      <c r="F100" s="34" t="s">
         <v>375</v>
       </c>
-      <c r="G100" s="29" t="s">
+      <c r="G100" s="28" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="51" t="s">
+      <c r="A101" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="B101" s="52"/>
-      <c r="C101" s="53" t="s">
+      <c r="B101" s="49"/>
+      <c r="C101" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D101" s="51"/>
-      <c r="E101" s="53"/>
-      <c r="F101" s="53"/>
-      <c r="G101" s="51"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="48"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="B102" s="44">
+      <c r="B102" s="41">
         <v>166</v>
       </c>
-      <c r="C102" s="44" t="s">
+      <c r="C102" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D102" s="43" t="s">
+      <c r="D102" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="E102" s="44" t="s">
+      <c r="E102" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="F102" s="44" t="s">
+      <c r="F102" s="41" t="s">
         <v>476</v>
       </c>
-      <c r="G102" s="43" t="s">
+      <c r="G102" s="40" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="43" t="s">
+      <c r="A103" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="44">
+      <c r="B103" s="41">
         <v>166</v>
       </c>
-      <c r="C103" s="44" t="s">
+      <c r="C103" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D103" s="43" t="s">
+      <c r="D103" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="E103" s="44" t="s">
+      <c r="E103" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="F103" s="44"/>
-      <c r="G103" s="29" t="s">
+      <c r="F103" s="41"/>
+      <c r="G103" s="28" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="51" t="s">
+      <c r="A104" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="B104" s="52"/>
-      <c r="C104" s="53" t="s">
+      <c r="B104" s="49"/>
+      <c r="C104" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D104" s="51"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="51"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="50"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="48"/>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B105" s="33">
+      <c r="B105" s="32">
         <v>19</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C105" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D105" s="29" t="s">
+      <c r="D105" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E105" s="35" t="s">
+      <c r="E105" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F105" s="35" t="s">
+      <c r="F105" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="G105" s="29"/>
+      <c r="G105" s="28"/>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="29" t="s">
+      <c r="A106" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B106" s="33">
+      <c r="B106" s="32">
         <v>156</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D106" s="29" t="s">
+      <c r="D106" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E106" s="35" t="s">
+      <c r="E106" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F106" s="35" t="s">
+      <c r="F106" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="G106" s="29" t="s">
+      <c r="G106" s="28" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B107" s="33">
+      <c r="B107" s="32">
         <v>116</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D107" s="29" t="s">
+      <c r="D107" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E107" s="35" t="s">
+      <c r="E107" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F107" s="35" t="s">
+      <c r="F107" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="G107" s="29"/>
+      <c r="G107" s="28"/>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="29" t="s">
+      <c r="A108" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B108" s="33">
+      <c r="B108" s="32">
         <v>116</v>
       </c>
-      <c r="C108" s="34" t="s">
+      <c r="C108" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D108" s="29" t="s">
+      <c r="D108" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E108" s="35" t="s">
+      <c r="E108" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F108" s="35" t="s">
+      <c r="F108" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="G108" s="29"/>
+      <c r="G108" s="28"/>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="29"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="34"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="29"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="34"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="28"/>
     </row>
     <row r="110" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A110" s="36" t="s">
+      <c r="A110" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B110" s="150" t="s">
+      <c r="B110" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="C110" s="151"/>
-      <c r="D110" s="151"/>
-      <c r="E110" s="151"/>
-      <c r="F110" s="151"/>
-      <c r="G110" s="152"/>
+      <c r="C110" s="119"/>
+      <c r="D110" s="119"/>
+      <c r="E110" s="119"/>
+      <c r="F110" s="119"/>
+      <c r="G110" s="120"/>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="43"/>
-      <c r="B111" s="150" t="s">
+      <c r="A111" s="40"/>
+      <c r="B111" s="118" t="s">
         <v>376</v>
       </c>
-      <c r="C111" s="151"/>
-      <c r="D111" s="151"/>
-      <c r="E111" s="151"/>
-      <c r="F111" s="151"/>
-      <c r="G111" s="152"/>
+      <c r="C111" s="119"/>
+      <c r="D111" s="119"/>
+      <c r="E111" s="119"/>
+      <c r="F111" s="119"/>
+      <c r="G111" s="120"/>
     </row>
     <row r="112" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A112" s="43"/>
-      <c r="B112" s="150" t="s">
+      <c r="A112" s="40"/>
+      <c r="B112" s="118" t="s">
         <v>377</v>
       </c>
-      <c r="C112" s="151"/>
-      <c r="D112" s="151"/>
-      <c r="E112" s="151"/>
-      <c r="F112" s="151"/>
-      <c r="G112" s="152"/>
+      <c r="C112" s="119"/>
+      <c r="D112" s="119"/>
+      <c r="E112" s="119"/>
+      <c r="F112" s="119"/>
+      <c r="G112" s="120"/>
     </row>
     <row r="113" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A113" s="43"/>
-      <c r="B113" s="150" t="s">
+      <c r="A113" s="40"/>
+      <c r="B113" s="118" t="s">
         <v>482</v>
       </c>
-      <c r="C113" s="151"/>
-      <c r="D113" s="151"/>
-      <c r="E113" s="151"/>
-      <c r="F113" s="151"/>
-      <c r="G113" s="152"/>
+      <c r="C113" s="119"/>
+      <c r="D113" s="119"/>
+      <c r="E113" s="119"/>
+      <c r="F113" s="119"/>
+      <c r="G113" s="120"/>
     </row>
     <row r="114" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A114" s="43"/>
-      <c r="B114" s="150" t="s">
+      <c r="A114" s="40"/>
+      <c r="B114" s="118" t="s">
         <v>366</v>
       </c>
-      <c r="C114" s="151"/>
-      <c r="D114" s="151"/>
-      <c r="E114" s="151"/>
-      <c r="F114" s="151"/>
-      <c r="G114" s="152"/>
+      <c r="C114" s="119"/>
+      <c r="D114" s="119"/>
+      <c r="E114" s="119"/>
+      <c r="F114" s="119"/>
+      <c r="G114" s="120"/>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="43"/>
-      <c r="B115" s="150" t="s">
+      <c r="A115" s="40"/>
+      <c r="B115" s="118" t="s">
         <v>376</v>
       </c>
-      <c r="C115" s="151"/>
-      <c r="D115" s="151"/>
-      <c r="E115" s="151"/>
-      <c r="F115" s="151"/>
-      <c r="G115" s="152"/>
+      <c r="C115" s="119"/>
+      <c r="D115" s="119"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="119"/>
+      <c r="G115" s="120"/>
     </row>
     <row r="116" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A116" s="43"/>
-      <c r="B116" s="150" t="s">
+      <c r="A116" s="40"/>
+      <c r="B116" s="118" t="s">
         <v>378</v>
       </c>
-      <c r="C116" s="151"/>
-      <c r="D116" s="151"/>
-      <c r="E116" s="151"/>
-      <c r="F116" s="151"/>
-      <c r="G116" s="152"/>
+      <c r="C116" s="119"/>
+      <c r="D116" s="119"/>
+      <c r="E116" s="119"/>
+      <c r="F116" s="119"/>
+      <c r="G116" s="120"/>
     </row>
     <row r="117" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A117" s="43"/>
-      <c r="B117" s="150" t="s">
+      <c r="A117" s="40"/>
+      <c r="B117" s="118" t="s">
         <v>483</v>
       </c>
-      <c r="C117" s="151"/>
-      <c r="D117" s="151"/>
-      <c r="E117" s="151"/>
-      <c r="F117" s="151"/>
-      <c r="G117" s="152"/>
+      <c r="C117" s="119"/>
+      <c r="D117" s="119"/>
+      <c r="E117" s="119"/>
+      <c r="F117" s="119"/>
+      <c r="G117" s="120"/>
     </row>
     <row r="118" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A118" s="43"/>
-      <c r="B118" s="150" t="s">
+      <c r="A118" s="40"/>
+      <c r="B118" s="118" t="s">
         <v>367</v>
       </c>
-      <c r="C118" s="151"/>
-      <c r="D118" s="151"/>
-      <c r="E118" s="151"/>
-      <c r="F118" s="151"/>
-      <c r="G118" s="152"/>
+      <c r="C118" s="119"/>
+      <c r="D118" s="119"/>
+      <c r="E118" s="119"/>
+      <c r="F118" s="119"/>
+      <c r="G118" s="120"/>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="29"/>
-      <c r="B119" s="145" t="s">
+      <c r="A119" s="28"/>
+      <c r="B119" s="113" t="s">
         <v>376</v>
       </c>
-      <c r="C119" s="148"/>
-      <c r="D119" s="148"/>
-      <c r="E119" s="148"/>
-      <c r="F119" s="148"/>
-      <c r="G119" s="149"/>
+      <c r="C119" s="116"/>
+      <c r="D119" s="116"/>
+      <c r="E119" s="116"/>
+      <c r="F119" s="116"/>
+      <c r="G119" s="117"/>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="29"/>
-      <c r="B120" s="145" t="s">
+      <c r="A120" s="28"/>
+      <c r="B120" s="113" t="s">
         <v>379</v>
       </c>
-      <c r="C120" s="148"/>
-      <c r="D120" s="148"/>
-      <c r="E120" s="148"/>
-      <c r="F120" s="148"/>
-      <c r="G120" s="149"/>
+      <c r="C120" s="116"/>
+      <c r="D120" s="116"/>
+      <c r="E120" s="116"/>
+      <c r="F120" s="116"/>
+      <c r="G120" s="117"/>
     </row>
     <row r="121" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A121" s="29"/>
-      <c r="B121" s="145" t="s">
+      <c r="A121" s="28"/>
+      <c r="B121" s="113" t="s">
         <v>484</v>
       </c>
-      <c r="C121" s="148"/>
-      <c r="D121" s="148"/>
-      <c r="E121" s="148"/>
-      <c r="F121" s="148"/>
-      <c r="G121" s="149"/>
+      <c r="C121" s="116"/>
+      <c r="D121" s="116"/>
+      <c r="E121" s="116"/>
+      <c r="F121" s="116"/>
+      <c r="G121" s="117"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="29"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="34"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="35"/>
-      <c r="F122" s="35"/>
-      <c r="G122" s="29"/>
+      <c r="A122" s="28"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="28"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="28"/>
     </row>
     <row r="123" spans="1:7" ht="25.5">
-      <c r="A123" s="51" t="s">
+      <c r="A123" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="B123" s="51"/>
-      <c r="C123" s="53" t="s">
+      <c r="B123" s="48"/>
+      <c r="C123" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="51"/>
-      <c r="E123" s="51"/>
-      <c r="F123" s="51"/>
-      <c r="G123" s="51"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="B124" s="33">
+      <c r="B124" s="32">
         <v>336</v>
       </c>
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="29" t="s">
+      <c r="D124" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="E124" s="35" t="s">
+      <c r="E124" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F124" s="35" t="s">
+      <c r="F124" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="G124" s="29" t="s">
+      <c r="G124" s="28" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="29" t="s">
+      <c r="A125" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="B125" s="33">
+      <c r="B125" s="32">
         <v>333</v>
       </c>
-      <c r="C125" s="34" t="s">
+      <c r="C125" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D125" s="29" t="s">
+      <c r="D125" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="E125" s="35" t="s">
+      <c r="E125" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F125" s="35"/>
-      <c r="G125" s="29"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="28"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="B126" s="33">
+      <c r="B126" s="32">
         <v>338</v>
       </c>
-      <c r="C126" s="34" t="s">
+      <c r="C126" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D126" s="29" t="s">
+      <c r="D126" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="E126" s="35" t="s">
+      <c r="E126" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F126" s="35"/>
-      <c r="G126" s="29"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="28"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B127" s="33">
+      <c r="B127" s="32">
         <v>370</v>
       </c>
-      <c r="C127" s="34" t="s">
+      <c r="C127" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D127" s="29" t="s">
+      <c r="D127" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="E127" s="35" t="s">
+      <c r="E127" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F127" s="62" t="s">
+      <c r="F127" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="G127" s="29" t="s">
+      <c r="G127" s="28" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="29" t="s">
+      <c r="A128" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="B128" s="33">
+      <c r="B128" s="32">
         <v>351</v>
       </c>
-      <c r="C128" s="34" t="s">
+      <c r="C128" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D128" s="29" t="s">
+      <c r="D128" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="E128" s="35" t="s">
+      <c r="E128" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="F128" s="35" t="s">
+      <c r="F128" s="34" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="29" t="s">
+      <c r="A129" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="B129" s="33">
+      <c r="B129" s="32">
         <v>446</v>
       </c>
-      <c r="C129" s="34" t="s">
+      <c r="C129" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D129" s="29" t="s">
+      <c r="D129" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="E129" s="35" t="s">
+      <c r="E129" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F129" s="62" t="s">
+      <c r="F129" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="G129" s="29" t="s">
+      <c r="G129" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="29" t="s">
+      <c r="A130" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="B130" s="33">
+      <c r="B130" s="32">
         <v>384</v>
       </c>
-      <c r="C130" s="34" t="s">
+      <c r="C130" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D130" s="29" t="s">
+      <c r="D130" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="E130" s="35" t="s">
+      <c r="E130" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="F130" s="35" t="s">
+      <c r="F130" s="34" t="s">
         <v>381</v>
       </c>
-      <c r="G130" s="29" t="s">
+      <c r="G130" s="28" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="29" t="s">
+      <c r="A131" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B131" s="33">
+      <c r="B131" s="32">
         <v>362</v>
       </c>
-      <c r="C131" s="34" t="s">
+      <c r="C131" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D131" s="29" t="s">
+      <c r="D131" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="E131" s="35" t="s">
+      <c r="E131" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="F131" s="35"/>
-      <c r="G131" s="29"/>
+      <c r="F131" s="34"/>
+      <c r="G131" s="28"/>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="29" t="s">
+      <c r="A132" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="B132" s="33">
+      <c r="B132" s="32">
         <v>388</v>
       </c>
-      <c r="C132" s="34" t="s">
+      <c r="C132" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D132" s="29" t="s">
+      <c r="D132" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="E132" s="35" t="s">
+      <c r="E132" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F132" s="35"/>
-      <c r="G132" s="29" t="s">
+      <c r="F132" s="34"/>
+      <c r="G132" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="29" t="s">
+      <c r="A133" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="B133" s="33">
+      <c r="B133" s="32">
         <v>389</v>
       </c>
-      <c r="C133" s="34" t="s">
+      <c r="C133" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D133" s="29" t="s">
+      <c r="D133" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="E133" s="35" t="s">
+      <c r="E133" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="F133" s="35"/>
-      <c r="G133" s="29"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="28"/>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="29" t="s">
+      <c r="A134" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="B134" s="33">
+      <c r="B134" s="32">
         <v>342</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="C134" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D134" s="29" t="s">
+      <c r="D134" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="E134" s="35" t="s">
+      <c r="E134" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="F134" s="35"/>
-      <c r="G134" s="29"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="28"/>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="29" t="s">
+      <c r="A135" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="B135" s="33">
+      <c r="B135" s="32">
         <v>352</v>
       </c>
-      <c r="C135" s="34" t="s">
+      <c r="C135" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D135" s="29" t="s">
+      <c r="D135" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E135" s="35" t="s">
+      <c r="E135" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F135" s="35" t="s">
+      <c r="F135" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="G135" s="29" t="s">
+      <c r="G135" s="28" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="36" t="s">
+      <c r="A136" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B136" s="145" t="s">
+      <c r="B136" s="113" t="s">
         <v>380</v>
       </c>
-      <c r="C136" s="148"/>
-      <c r="D136" s="148"/>
-      <c r="E136" s="148"/>
-      <c r="F136" s="148"/>
-      <c r="G136" s="149"/>
+      <c r="C136" s="116"/>
+      <c r="D136" s="116"/>
+      <c r="E136" s="116"/>
+      <c r="F136" s="116"/>
+      <c r="G136" s="117"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="29"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="29"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="28"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="29"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="29"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="29"/>
+      <c r="A138" s="28"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="28"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="28"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="51" t="s">
+      <c r="A139" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B139" s="51"/>
-      <c r="C139" s="53" t="s">
+      <c r="B139" s="48"/>
+      <c r="C139" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D139" s="51"/>
-      <c r="E139" s="51"/>
-      <c r="F139" s="51"/>
-      <c r="G139" s="51"/>
+      <c r="D139" s="48"/>
+      <c r="E139" s="48"/>
+      <c r="F139" s="48"/>
+      <c r="G139" s="48"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="29" t="s">
+      <c r="A140" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="B140" s="33">
+      <c r="B140" s="32">
         <v>374</v>
       </c>
-      <c r="C140" s="34" t="s">
+      <c r="C140" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D140" s="29" t="s">
+      <c r="D140" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E140" s="35" t="s">
+      <c r="E140" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F140" s="35" t="s">
+      <c r="F140" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="G140" s="29" t="s">
+      <c r="G140" s="28" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="29" t="s">
+      <c r="A141" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B141" s="33">
+      <c r="B141" s="32">
         <v>373</v>
       </c>
-      <c r="C141" s="34" t="s">
+      <c r="C141" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D141" s="29" t="s">
+      <c r="D141" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E141" s="35" t="s">
+      <c r="E141" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F141" s="35" t="s">
+      <c r="F141" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="G141" s="29" t="s">
+      <c r="G141" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="36" t="s">
+      <c r="A142" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B142" s="145" t="s">
+      <c r="B142" s="113" t="s">
         <v>386</v>
       </c>
-      <c r="C142" s="148"/>
-      <c r="D142" s="148"/>
-      <c r="E142" s="148"/>
-      <c r="F142" s="148"/>
-      <c r="G142" s="149"/>
+      <c r="C142" s="116"/>
+      <c r="D142" s="116"/>
+      <c r="E142" s="116"/>
+      <c r="F142" s="116"/>
+      <c r="G142" s="117"/>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="29"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="34"/>
-      <c r="D143" s="29"/>
-      <c r="E143" s="35"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="29"/>
+      <c r="A143" s="28"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="28"/>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="28"/>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="51" t="s">
+      <c r="A144" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B144" s="51"/>
-      <c r="C144" s="53" t="s">
+      <c r="B144" s="48"/>
+      <c r="C144" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D144" s="51"/>
-      <c r="E144" s="51"/>
-      <c r="F144" s="51"/>
-      <c r="G144" s="51"/>
-    </row>
-    <row r="145" spans="1:7" ht="25.5">
-      <c r="A145" s="29" t="s">
+      <c r="D144" s="48"/>
+      <c r="E144" s="48"/>
+      <c r="F144" s="48"/>
+      <c r="G144" s="48"/>
+    </row>
+    <row r="145" spans="1:8" ht="25.5">
+      <c r="A145" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="B145" s="33">
+      <c r="B145" s="32">
         <v>374</v>
       </c>
-      <c r="C145" s="34" t="s">
+      <c r="C145" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D145" s="29" t="s">
+      <c r="D145" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E145" s="35" t="s">
+      <c r="E145" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F145" s="35" t="s">
+      <c r="F145" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="G145" s="29" t="s">
+      <c r="G145" s="28" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="29" t="s">
+    <row r="146" spans="1:8">
+      <c r="A146" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B146" s="33">
+      <c r="B146" s="32">
         <v>373</v>
       </c>
-      <c r="C146" s="34" t="s">
+      <c r="C146" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D146" s="29" t="s">
+      <c r="D146" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E146" s="35" t="s">
+      <c r="E146" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F146" s="35" t="s">
+      <c r="F146" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="G146" s="29" t="s">
+      <c r="G146" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="36" t="s">
+    <row r="147" spans="1:8">
+      <c r="A147" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B147" s="145" t="s">
+      <c r="B147" s="113" t="s">
         <v>389</v>
       </c>
-      <c r="C147" s="148"/>
-      <c r="D147" s="148"/>
-      <c r="E147" s="148"/>
-      <c r="F147" s="148"/>
-      <c r="G147" s="149"/>
-    </row>
-    <row r="148" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A148" s="29"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="35"/>
-      <c r="F148" s="35"/>
-      <c r="G148" s="29"/>
-    </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="51" t="s">
+      <c r="C147" s="116"/>
+      <c r="D147" s="116"/>
+      <c r="E147" s="116"/>
+      <c r="F147" s="116"/>
+      <c r="G147" s="117"/>
+    </row>
+    <row r="148" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A148" s="28"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="33"/>
+      <c r="D148" s="28"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="28"/>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="B149" s="51"/>
-      <c r="C149" s="53" t="s">
+      <c r="B149" s="48"/>
+      <c r="C149" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D149" s="51"/>
-      <c r="E149" s="51"/>
-      <c r="F149" s="51"/>
-      <c r="G149" s="51"/>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="29" t="s">
+      <c r="D149" s="48"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="48"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="B150" s="33">
+      <c r="B150" s="32">
         <v>374</v>
       </c>
-      <c r="C150" s="34" t="s">
+      <c r="C150" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D150" s="29" t="s">
+      <c r="D150" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E150" s="35" t="s">
+      <c r="E150" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F150" s="35" t="s">
+      <c r="F150" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="G150" s="29" t="s">
+      <c r="G150" s="28" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="29" t="s">
+    <row r="151" spans="1:8">
+      <c r="A151" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B151" s="33">
+      <c r="B151" s="32">
         <v>373</v>
       </c>
-      <c r="C151" s="34" t="s">
+      <c r="C151" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D151" s="29" t="s">
+      <c r="D151" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E151" s="35" t="s">
+      <c r="E151" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F151" s="35" t="s">
+      <c r="F151" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="G151" s="29" t="s">
+      <c r="G151" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="36" t="s">
+    <row r="152" spans="1:8">
+      <c r="A152" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B152" s="145" t="s">
+      <c r="B152" s="113" t="s">
         <v>389</v>
       </c>
-      <c r="C152" s="148"/>
-      <c r="D152" s="148"/>
-      <c r="E152" s="148"/>
-      <c r="F152" s="148"/>
-      <c r="G152" s="149"/>
-    </row>
-    <row r="153" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A153" s="29"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="29"/>
-      <c r="E153" s="35"/>
-      <c r="F153" s="35"/>
-      <c r="G153" s="29"/>
-    </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="47" t="s">
+      <c r="C152" s="116"/>
+      <c r="D152" s="116"/>
+      <c r="E152" s="116"/>
+      <c r="F152" s="116"/>
+      <c r="G152" s="117"/>
+    </row>
+    <row r="153" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A153" s="28"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="28"/>
+      <c r="E153" s="34"/>
+      <c r="F153" s="34"/>
+      <c r="G153" s="28"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="130" t="s">
+        <v>560</v>
+      </c>
+      <c r="B154" s="49"/>
+      <c r="C154" s="49"/>
+      <c r="D154" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="E154" s="49"/>
+      <c r="F154" s="49"/>
+      <c r="G154" s="49"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="B155" s="32">
+        <v>128</v>
+      </c>
+      <c r="C155" s="33"/>
+      <c r="D155" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="E155" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F155" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="G155" s="82" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="38.25">
+      <c r="A156" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B156" s="32">
+        <v>127</v>
+      </c>
+      <c r="C156" s="33"/>
+      <c r="D156" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="E156" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F156" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="G156" s="131" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="35" t="s">
+        <v>568</v>
+      </c>
+      <c r="B157" s="32"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="34"/>
+      <c r="F157" s="64"/>
+      <c r="G157" s="82"/>
+    </row>
+    <row r="158" spans="1:8" ht="25.5">
+      <c r="A158" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="B158" s="32">
+        <v>933</v>
+      </c>
+      <c r="C158" s="33"/>
+      <c r="D158" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="E158" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="F158" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="G158" s="82"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="132" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" s="113" t="s">
+        <v>572</v>
+      </c>
+      <c r="C159" s="114"/>
+      <c r="D159" s="114"/>
+      <c r="E159" s="114"/>
+      <c r="F159" s="114"/>
+      <c r="G159" s="115"/>
+      <c r="H159" s="93"/>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160" s="28"/>
+      <c r="B160" s="113" t="s">
+        <v>573</v>
+      </c>
+      <c r="C160" s="114"/>
+      <c r="D160" s="114"/>
+      <c r="E160" s="114"/>
+      <c r="F160" s="114"/>
+      <c r="G160" s="115"/>
+      <c r="H160" s="93"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="28"/>
+      <c r="B161" s="32"/>
+      <c r="C161" s="33"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="34"/>
+      <c r="F161" s="64"/>
+      <c r="G161" s="82"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B154" s="48"/>
-      <c r="C154" s="49"/>
-      <c r="D154" s="47"/>
-      <c r="E154" s="50"/>
-      <c r="F154" s="50"/>
-      <c r="G154" s="47"/>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="51" t="s">
+      <c r="B162" s="45"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="44"/>
+      <c r="E162" s="47"/>
+      <c r="F162" s="47"/>
+      <c r="G162" s="44"/>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="B155" s="53"/>
-      <c r="C155" s="53" t="s">
+      <c r="B163" s="50"/>
+      <c r="C163" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D155" s="51"/>
-      <c r="E155" s="53"/>
-      <c r="F155" s="53"/>
-      <c r="G155" s="51"/>
-    </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="31" t="s">
+      <c r="D163" s="48"/>
+      <c r="E163" s="50"/>
+      <c r="F163" s="50"/>
+      <c r="G163" s="48"/>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="B156" s="33">
+      <c r="B164" s="32">
         <v>350</v>
       </c>
-      <c r="C156" s="35" t="s">
+      <c r="C164" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D156" s="31" t="s">
+      <c r="D164" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="E156" s="35" t="s">
+      <c r="E164" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="F156" s="35" t="s">
+      <c r="F164" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="G156" s="31"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="31" t="s">
+      <c r="G164" s="30"/>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="B157" s="44">
+      <c r="B165" s="41">
         <v>358</v>
       </c>
-      <c r="C157" s="44" t="s">
+      <c r="C165" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D157" s="43" t="s">
+      <c r="D165" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="E157" s="45" t="s">
+      <c r="E165" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="F157" s="45" t="s">
+      <c r="F165" s="42" t="s">
         <v>430</v>
       </c>
-      <c r="G157" s="43" t="s">
+      <c r="G165" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="31" t="s">
+    <row r="166" spans="1:7">
+      <c r="A166" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="B158" s="58">
+      <c r="B166" s="54">
         <v>355</v>
       </c>
-      <c r="C158" s="59" t="s">
+      <c r="C166" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D158" s="60" t="s">
+      <c r="D166" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="E158" s="59" t="s">
+      <c r="E166" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F158" s="59" t="s">
+      <c r="F166" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="G158" s="60" t="s">
+      <c r="G166" s="56" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="31" t="s">
+    <row r="167" spans="1:7">
+      <c r="A167" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="B159" s="55">
+      <c r="B167" s="52">
         <v>212</v>
       </c>
-      <c r="C159" s="55" t="s">
+      <c r="C167" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D159" s="54" t="s">
+      <c r="D167" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="E159" s="55" t="s">
+      <c r="E167" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="F159" s="55" t="s">
+      <c r="F167" s="52" t="s">
         <v>466</v>
       </c>
-      <c r="G159" s="54" t="s">
+      <c r="G167" s="51" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="31" t="s">
+    <row r="168" spans="1:7">
+      <c r="A168" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B160" s="33">
+      <c r="B168" s="32">
         <v>639</v>
       </c>
-      <c r="C160" s="35" t="s">
+      <c r="C168" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D160" s="31" t="s">
+      <c r="D168" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E160" s="35" t="s">
+      <c r="E168" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F160" s="35"/>
-      <c r="G160" s="31" t="s">
+      <c r="F168" s="34"/>
+      <c r="G168" s="30" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="31" t="s">
+    <row r="169" spans="1:7">
+      <c r="A169" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B161" s="44">
+      <c r="B169" s="41">
         <v>235</v>
       </c>
-      <c r="C161" s="44" t="s">
+      <c r="C169" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D161" s="43" t="s">
+      <c r="D169" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E161" s="44" t="s">
+      <c r="E169" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F161" s="84"/>
-      <c r="G161" s="57" t="s">
+      <c r="G169" s="53" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="31" t="s">
+    <row r="170" spans="1:7">
+      <c r="A170" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="B162" s="44">
+      <c r="B170" s="41">
         <v>234</v>
       </c>
-      <c r="C162" s="44" t="s">
+      <c r="C170" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D162" s="43" t="s">
+      <c r="D170" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="E162" s="44" t="s">
+      <c r="E170" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F162" s="44">
+      <c r="F170" s="41">
         <v>6008189</v>
       </c>
-      <c r="G162" s="43" t="s">
+      <c r="G170" s="40" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="31" t="s">
+    <row r="171" spans="1:7">
+      <c r="A171" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="B163" s="44">
+      <c r="B171" s="41">
         <v>235</v>
       </c>
-      <c r="C163" s="44" t="s">
+      <c r="C171" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D163" s="43" t="s">
+      <c r="D171" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E163" s="44" t="s">
+      <c r="E171" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F163" s="84"/>
-      <c r="G163" s="57" t="s">
+      <c r="G171" s="53" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="31" t="s">
+    <row r="172" spans="1:7">
+      <c r="A172" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B164" s="44">
+      <c r="B172" s="41">
         <v>234</v>
       </c>
-      <c r="C164" s="44" t="s">
+      <c r="C172" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D164" s="43" t="s">
+      <c r="D172" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="E164" s="44" t="s">
+      <c r="E172" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F164" s="44">
+      <c r="F172" s="41">
         <v>85899</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="31" t="s">
+    <row r="173" spans="1:7">
+      <c r="A173" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="B165" s="44">
+      <c r="B173" s="41">
         <v>235</v>
       </c>
-      <c r="C165" s="44" t="s">
+      <c r="C173" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D165" s="43" t="s">
+      <c r="D173" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E165" s="44" t="s">
+      <c r="E173" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F165" s="84"/>
-      <c r="G165" s="57" t="s">
+      <c r="G173" s="53" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="31" t="s">
+    <row r="174" spans="1:7">
+      <c r="A174" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="B166" s="44">
+      <c r="B174" s="41">
         <v>234</v>
       </c>
-      <c r="C166" s="44" t="s">
+      <c r="C174" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D166" s="43" t="s">
+      <c r="D174" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="E166" s="44" t="s">
+      <c r="E174" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="F166" s="44">
+      <c r="F174" s="41">
         <v>12234</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="96" t="s">
+    <row r="175" spans="1:7">
+      <c r="A175" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B167" s="139" t="s">
+      <c r="B175" s="124" t="s">
         <v>467</v>
       </c>
-      <c r="C167" s="140"/>
-      <c r="D167" s="140"/>
-      <c r="E167" s="140"/>
-      <c r="F167" s="140"/>
-      <c r="G167" s="141"/>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="31"/>
-      <c r="B168" s="44"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="43"/>
-      <c r="E168" s="44"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="43"/>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" s="72" t="s">
+      <c r="C175" s="125"/>
+      <c r="D175" s="125"/>
+      <c r="E175" s="125"/>
+      <c r="F175" s="125"/>
+      <c r="G175" s="126"/>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="30"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="41"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="41"/>
+      <c r="F176" s="41"/>
+      <c r="G176" s="40"/>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="B169" s="72"/>
-      <c r="C169" s="74" t="s">
+      <c r="B177" s="48"/>
+      <c r="C177" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D169" s="72"/>
-      <c r="E169" s="72"/>
-      <c r="F169" s="72"/>
-      <c r="G169" s="72"/>
-    </row>
-    <row r="170" spans="1:7" s="97" customFormat="1" ht="89.25">
-      <c r="A170" s="71" t="s">
+      <c r="D177" s="48"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="48"/>
+    </row>
+    <row r="178" spans="1:7" s="84" customFormat="1" ht="89.25">
+      <c r="A178" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="B170" s="69" t="s">
+      <c r="B178" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="C170" s="70" t="s">
+      <c r="C178" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D170" s="71" t="s">
+      <c r="D178" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="E170" s="71" t="s">
+      <c r="E178" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="F170" s="70" t="s">
+      <c r="F178" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="G170" s="71" t="s">
+      <c r="G178" s="64" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="97" customFormat="1">
-      <c r="A171" s="71" t="s">
+    <row r="179" spans="1:7" s="84" customFormat="1">
+      <c r="A179" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="B171" s="69" t="s">
+      <c r="B179" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="C171" s="70" t="s">
+      <c r="C179" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D171" s="71" t="s">
+      <c r="D179" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="E171" s="71" t="s">
+      <c r="E179" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="F171" s="70" t="s">
+      <c r="F179" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="G171" s="71" t="s">
+      <c r="G179" s="64" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="97" customFormat="1">
-      <c r="A172" s="71" t="s">
+    <row r="180" spans="1:7" s="84" customFormat="1">
+      <c r="A180" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="B172" s="69" t="s">
+      <c r="B180" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="C172" s="70" t="s">
+      <c r="C180" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D172" s="71" t="s">
+      <c r="D180" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="E172" s="71" t="s">
+      <c r="E180" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="F172" s="70" t="s">
+      <c r="F180" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="G172" s="71" t="s">
+      <c r="G180" s="64" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="97" customFormat="1">
-      <c r="A173" s="71" t="s">
+    <row r="181" spans="1:7" s="84" customFormat="1">
+      <c r="A181" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="B173" s="69" t="s">
+      <c r="B181" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="C173" s="70" t="s">
+      <c r="C181" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D173" s="71" t="s">
+      <c r="D181" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="E173" s="71" t="s">
+      <c r="E181" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="F173" s="70"/>
-    </row>
-    <row r="174" spans="1:7" s="97" customFormat="1">
-      <c r="A174" s="71" t="s">
+      <c r="F181" s="34"/>
+    </row>
+    <row r="182" spans="1:7" s="84" customFormat="1">
+      <c r="A182" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="B174" s="69" t="s">
+      <c r="B182" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="C174" s="70" t="s">
+      <c r="C182" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D174" s="71" t="s">
+      <c r="D182" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="E174" s="71" t="s">
+      <c r="E182" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="F174" s="70"/>
-      <c r="G174" s="71"/>
-    </row>
-    <row r="175" spans="1:7" s="97" customFormat="1">
-      <c r="A175" s="71" t="s">
+      <c r="F182" s="34"/>
+      <c r="G182" s="64"/>
+    </row>
+    <row r="183" spans="1:7" s="84" customFormat="1">
+      <c r="A183" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="B175" s="69" t="s">
+      <c r="B183" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="C175" s="70" t="s">
+      <c r="C183" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D175" s="71" t="s">
+      <c r="D183" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="E175" s="71" t="s">
+      <c r="E183" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F175" s="70"/>
-      <c r="G175" s="71"/>
-    </row>
-    <row r="176" spans="1:7" s="97" customFormat="1">
-      <c r="A176" s="71" t="s">
+      <c r="F183" s="34"/>
+      <c r="G183" s="64"/>
+    </row>
+    <row r="184" spans="1:7" s="84" customFormat="1">
+      <c r="A184" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="B176" s="69">
+      <c r="B184" s="32">
         <v>662</v>
       </c>
-      <c r="C176" s="70" t="s">
+      <c r="C184" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D176" s="71" t="s">
+      <c r="D184" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="E176" s="71" t="s">
+      <c r="E184" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F176" s="70"/>
-      <c r="G176" s="71"/>
-    </row>
-    <row r="177" spans="1:7" s="97" customFormat="1">
-      <c r="A177" s="71" t="s">
+      <c r="F184" s="34"/>
+      <c r="G184" s="64"/>
+    </row>
+    <row r="185" spans="1:7" s="84" customFormat="1">
+      <c r="A185" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="B177" s="69">
+      <c r="B185" s="32">
         <v>828</v>
       </c>
-      <c r="C177" s="70" t="s">
+      <c r="C185" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D177" s="71" t="s">
+      <c r="D185" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="E177" s="71" t="s">
+      <c r="E185" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="F177" s="70" t="s">
+      <c r="F185" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="G177" s="71" t="s">
+      <c r="G185" s="64" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="97" customFormat="1">
-      <c r="A178" s="96" t="s">
+    <row r="186" spans="1:7" s="84" customFormat="1">
+      <c r="A186" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B178" s="136" t="s">
+      <c r="B186" s="113" t="s">
         <v>455</v>
       </c>
-      <c r="C178" s="137"/>
-      <c r="D178" s="137"/>
-      <c r="E178" s="137"/>
-      <c r="F178" s="137"/>
-      <c r="G178" s="138"/>
-    </row>
-    <row r="179" spans="1:7" s="97" customFormat="1">
-      <c r="A179" s="71"/>
-      <c r="B179" s="69"/>
-      <c r="C179" s="71"/>
-      <c r="D179" s="71"/>
-      <c r="E179" s="71"/>
-      <c r="F179" s="71"/>
-      <c r="G179" s="71"/>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="72" t="s">
+      <c r="C186" s="116"/>
+      <c r="D186" s="116"/>
+      <c r="E186" s="116"/>
+      <c r="F186" s="116"/>
+      <c r="G186" s="117"/>
+    </row>
+    <row r="187" spans="1:7" s="84" customFormat="1">
+      <c r="A187" s="64"/>
+      <c r="B187" s="32"/>
+      <c r="C187" s="64"/>
+      <c r="D187" s="64"/>
+      <c r="E187" s="64"/>
+      <c r="F187" s="64"/>
+      <c r="G187" s="64"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="B180" s="72"/>
-      <c r="C180" s="74" t="s">
+      <c r="B188" s="48"/>
+      <c r="C188" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D180" s="72"/>
-      <c r="E180" s="72"/>
-      <c r="F180" s="72"/>
-      <c r="G180" s="72"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="67" t="s">
+      <c r="D188" s="48"/>
+      <c r="E188" s="48"/>
+      <c r="F188" s="48"/>
+      <c r="G188" s="48"/>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="B181" s="44">
+      <c r="B189" s="41">
         <v>687</v>
       </c>
-      <c r="C181" s="44" t="s">
+      <c r="C189" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D181" s="43" t="s">
+      <c r="D189" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="E181" s="45" t="s">
+      <c r="E189" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F181" s="61"/>
-      <c r="G181" s="43"/>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="67" t="s">
+      <c r="F189" s="57"/>
+      <c r="G189" s="40"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="B182" s="44">
+      <c r="B190" s="41">
         <v>236</v>
       </c>
-      <c r="C182" s="44" t="s">
+      <c r="C190" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D182" s="43" t="s">
+      <c r="D190" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="E182" s="68" t="s">
+      <c r="E190" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F182" s="61"/>
-      <c r="G182" s="43"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="67" t="s">
+      <c r="F190" s="57"/>
+      <c r="G190" s="40"/>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="B183" s="44">
+      <c r="B191" s="41">
         <v>212</v>
       </c>
-      <c r="C183" s="44" t="s">
+      <c r="C191" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D183" s="43" t="s">
+      <c r="D191" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="E183" s="45" t="s">
+      <c r="E191" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F183" s="61"/>
-      <c r="G183" s="43"/>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="67" t="s">
+      <c r="F191" s="57"/>
+      <c r="G191" s="40"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="B184" s="44">
+      <c r="B192" s="41">
         <v>380</v>
       </c>
-      <c r="C184" s="44" t="s">
+      <c r="C192" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D184" s="43" t="s">
+      <c r="D192" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="E184" s="45" t="s">
+      <c r="E192" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="F184" s="61"/>
-      <c r="G184" s="43"/>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="67" t="s">
+      <c r="F192" s="57"/>
+      <c r="G192" s="40"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="B185" s="44">
+      <c r="B193" s="41">
         <v>355</v>
       </c>
-      <c r="C185" s="44" t="s">
+      <c r="C193" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D185" s="43" t="s">
+      <c r="D193" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="E185" s="68" t="s">
+      <c r="E193" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="F185" s="61"/>
-      <c r="G185" s="43"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="67" t="s">
+      <c r="F193" s="57"/>
+      <c r="G193" s="40"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="30" t="s">
         <v>441</v>
       </c>
-      <c r="B186" s="44">
+      <c r="B194" s="41">
         <v>648</v>
       </c>
-      <c r="C186" s="44" t="s">
+      <c r="C194" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D186" s="43" t="s">
+      <c r="D194" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="E186" s="68" t="s">
+      <c r="E194" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="F186" s="61"/>
-      <c r="G186" s="43"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="67" t="s">
+      <c r="F194" s="57"/>
+      <c r="G194" s="40"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="B187" s="44">
+      <c r="B195" s="41">
         <v>649</v>
       </c>
-      <c r="C187" s="44" t="s">
+      <c r="C195" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="D187" s="43" t="s">
+      <c r="D195" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="E187" s="45" t="s">
+      <c r="E195" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="F187" s="61"/>
-      <c r="G187" s="43"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="67" t="s">
+      <c r="F195" s="57"/>
+      <c r="G195" s="40"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="30" t="s">
         <v>445</v>
       </c>
-      <c r="B188" s="44">
+      <c r="B196" s="41">
         <v>782</v>
       </c>
-      <c r="C188" s="44" t="s">
+      <c r="C196" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D188" s="43" t="s">
+      <c r="D196" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="E188" s="68" t="s">
+      <c r="E196" s="63" t="s">
         <v>302</v>
       </c>
-      <c r="F188" s="44" t="s">
+      <c r="F196" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="G188" s="43" t="s">
+      <c r="G196" s="40" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="96" t="s">
+    <row r="197" spans="1:7">
+      <c r="A197" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B189" s="139" t="s">
+      <c r="B197" s="124" t="s">
         <v>465</v>
       </c>
-      <c r="C189" s="140"/>
-      <c r="D189" s="140"/>
-      <c r="E189" s="140"/>
-      <c r="F189" s="140"/>
-      <c r="G189" s="141"/>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="31"/>
-      <c r="B190" s="44"/>
-      <c r="C190" s="44"/>
-      <c r="D190" s="43"/>
-      <c r="E190" s="44"/>
-      <c r="F190" s="44"/>
-      <c r="G190" s="43"/>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="51" t="s">
+      <c r="C197" s="125"/>
+      <c r="D197" s="125"/>
+      <c r="E197" s="125"/>
+      <c r="F197" s="125"/>
+      <c r="G197" s="126"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="30"/>
+      <c r="B198" s="41"/>
+      <c r="C198" s="41"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="41"/>
+      <c r="F198" s="41"/>
+      <c r="G198" s="40"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="B191" s="52"/>
-      <c r="C191" s="74" t="s">
+      <c r="B199" s="49"/>
+      <c r="C199" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D191" s="51"/>
-      <c r="E191" s="53"/>
-      <c r="F191" s="53"/>
-      <c r="G191" s="51"/>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="31" t="s">
+      <c r="D199" s="48"/>
+      <c r="E199" s="50"/>
+      <c r="F199" s="50"/>
+      <c r="G199" s="48"/>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B192" s="33">
+      <c r="B200" s="32">
         <v>349</v>
       </c>
-      <c r="C192" s="38" t="s">
+      <c r="C200" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D192" s="31" t="s">
+      <c r="D200" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="E192" s="35" t="s">
+      <c r="E200" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F192" s="35" t="s">
+      <c r="F200" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="G192" s="31" t="s">
+      <c r="G200" s="30" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="31" t="s">
+    <row r="201" spans="1:7">
+      <c r="A201" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="B193" s="33">
+      <c r="B201" s="32">
         <v>750</v>
       </c>
-      <c r="C193" s="38" t="s">
+      <c r="C201" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D193" s="31" t="s">
+      <c r="D201" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E193" s="35" t="s">
+      <c r="E201" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="F193" s="35"/>
-      <c r="G193" s="31" t="s">
+      <c r="F201" s="34"/>
+      <c r="G201" s="30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="31" t="s">
+    <row r="202" spans="1:7">
+      <c r="A202" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B194" s="33">
+      <c r="B202" s="32">
         <v>559</v>
       </c>
-      <c r="C194" s="38" t="s">
+      <c r="C202" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D194" s="31" t="s">
+      <c r="D202" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="E194" s="35" t="s">
+      <c r="E202" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="F194" s="35"/>
-      <c r="G194" s="31" t="s">
+      <c r="F202" s="34"/>
+      <c r="G202" s="30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="31" t="s">
+    <row r="203" spans="1:7">
+      <c r="A203" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B195" s="33">
+      <c r="B203" s="32">
         <v>751</v>
       </c>
-      <c r="C195" s="38" t="s">
+      <c r="C203" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D195" s="31" t="s">
+      <c r="D203" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="E195" s="35" t="s">
+      <c r="E203" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F195" s="35"/>
-      <c r="G195" s="31" t="s">
+      <c r="F203" s="34"/>
+      <c r="G203" s="30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="31" t="s">
+    <row r="204" spans="1:7">
+      <c r="A204" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B196" s="33">
+      <c r="B204" s="32">
         <v>352</v>
       </c>
-      <c r="C196" s="38" t="s">
+      <c r="C204" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D196" s="31" t="s">
+      <c r="D204" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E196" s="35" t="s">
+      <c r="E204" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F196" s="35" t="s">
+      <c r="F204" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="G196" s="31" t="s">
+      <c r="G204" s="30" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A197" s="96" t="s">
+    <row r="205" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A205" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B197" s="139" t="s">
+      <c r="B205" s="124" t="s">
         <v>447</v>
       </c>
-      <c r="C197" s="140"/>
-      <c r="D197" s="140"/>
-      <c r="E197" s="140"/>
-      <c r="F197" s="140"/>
-      <c r="G197" s="141"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="31"/>
-      <c r="B198" s="33"/>
-      <c r="C198" s="38"/>
-      <c r="D198" s="31"/>
-      <c r="E198" s="35"/>
-      <c r="F198" s="35"/>
-      <c r="G198" s="31"/>
-    </row>
-    <row r="199" spans="1:7" ht="38.25">
-      <c r="A199" s="72" t="s">
+      <c r="C205" s="125"/>
+      <c r="D205" s="125"/>
+      <c r="E205" s="125"/>
+      <c r="F205" s="125"/>
+      <c r="G205" s="126"/>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="30"/>
+      <c r="B206" s="32"/>
+      <c r="C206" s="37"/>
+      <c r="D206" s="30"/>
+      <c r="E206" s="34"/>
+      <c r="F206" s="34"/>
+      <c r="G206" s="30"/>
+    </row>
+    <row r="207" spans="1:7" ht="38.25">
+      <c r="A207" s="48" t="s">
         <v>512</v>
       </c>
-      <c r="B199" s="73"/>
-      <c r="C199" s="74" t="s">
+      <c r="B207" s="49"/>
+      <c r="C207" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D199" s="72"/>
-      <c r="E199" s="74"/>
-      <c r="F199" s="75"/>
-      <c r="G199" s="72" t="s">
+      <c r="D207" s="48"/>
+      <c r="E207" s="50"/>
+      <c r="F207" s="65"/>
+      <c r="G207" s="48" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A200" s="67" t="s">
+    <row r="208" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A208" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="B200" s="69">
+      <c r="B208" s="32">
         <v>248</v>
       </c>
-      <c r="C200" s="109" t="s">
+      <c r="C208" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D200" s="67" t="s">
+      <c r="D208" s="30" t="s">
         <v>515</v>
       </c>
-      <c r="E200" s="70" t="s">
+      <c r="E208" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F200" s="70" t="s">
+      <c r="F208" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="G200" s="67" t="s">
+      <c r="G208" s="30" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A201" s="67" t="s">
+    <row r="209" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A209" s="30" t="s">
         <v>517</v>
       </c>
-      <c r="B201" s="69">
+      <c r="B209" s="32">
         <v>1300</v>
       </c>
-      <c r="C201" s="109" t="s">
+      <c r="C209" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="67" t="s">
+      <c r="D209" s="30" t="s">
         <v>518</v>
       </c>
-      <c r="E201" s="70" t="s">
+      <c r="E209" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F201" s="70" t="s">
+      <c r="F209" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="G201" s="67" t="s">
+      <c r="G209" s="30" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A202" s="67" t="s">
+    <row r="210" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A210" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="B202" s="69">
+      <c r="B210" s="32">
         <v>610</v>
       </c>
-      <c r="C202" s="109" t="s">
+      <c r="C210" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D202" s="67" t="s">
+      <c r="D210" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="E202" s="70" t="s">
+      <c r="E210" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F202" s="44">
+      <c r="F210" s="41">
         <v>0</v>
       </c>
-      <c r="G202" s="67"/>
-    </row>
-    <row r="203" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A203" s="67" t="s">
+      <c r="G210" s="30"/>
+    </row>
+    <row r="211" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A211" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="B203" s="69">
+      <c r="B211" s="32">
         <v>352</v>
       </c>
-      <c r="C203" s="109" t="s">
+      <c r="C211" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D203" s="67" t="s">
+      <c r="D211" s="30" t="s">
         <v>522</v>
       </c>
-      <c r="E203" s="70" t="s">
+      <c r="E211" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F203" s="44" t="s">
+      <c r="F211" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="G203" s="67"/>
-    </row>
-    <row r="204" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A204" s="110" t="s">
+      <c r="G211" s="30"/>
+    </row>
+    <row r="212" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A212" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B204" s="136" t="s">
+      <c r="B212" s="113" t="s">
         <v>526</v>
       </c>
-      <c r="C204" s="137"/>
-      <c r="D204" s="137"/>
-      <c r="E204" s="137"/>
-      <c r="F204" s="137"/>
-      <c r="G204" s="138"/>
-    </row>
-    <row r="205" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A205" s="110"/>
-      <c r="B205" s="98"/>
-      <c r="C205" s="99"/>
-      <c r="D205" s="99"/>
-      <c r="E205" s="99"/>
-      <c r="F205" s="99"/>
-      <c r="G205" s="100"/>
-    </row>
-    <row r="206" spans="1:7">
-      <c r="A206" s="47" t="s">
+      <c r="C212" s="116"/>
+      <c r="D212" s="116"/>
+      <c r="E212" s="116"/>
+      <c r="F212" s="116"/>
+      <c r="G212" s="117"/>
+    </row>
+    <row r="213" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A213" s="83"/>
+      <c r="B213" s="74"/>
+      <c r="C213" s="85"/>
+      <c r="D213" s="85"/>
+      <c r="E213" s="85"/>
+      <c r="F213" s="85"/>
+      <c r="G213" s="86"/>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B206" s="48"/>
-      <c r="C206" s="49"/>
-      <c r="D206" s="47"/>
-      <c r="E206" s="50"/>
-      <c r="F206" s="50"/>
-      <c r="G206" s="47"/>
-    </row>
-    <row r="207" spans="1:7" ht="25.5">
-      <c r="A207" s="51" t="s">
+      <c r="B214" s="45"/>
+      <c r="C214" s="46"/>
+      <c r="D214" s="44"/>
+      <c r="E214" s="47"/>
+      <c r="F214" s="47"/>
+      <c r="G214" s="44"/>
+    </row>
+    <row r="215" spans="1:7" ht="25.5">
+      <c r="A215" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="B207" s="52"/>
-      <c r="C207" s="53" t="s">
+      <c r="B215" s="49"/>
+      <c r="C215" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D207" s="51"/>
-      <c r="E207" s="53"/>
-      <c r="F207" s="53"/>
-      <c r="G207" s="51" t="s">
+      <c r="D215" s="48"/>
+      <c r="E215" s="50"/>
+      <c r="F215" s="50"/>
+      <c r="G215" s="48" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="25.5">
-      <c r="A208" s="31" t="s">
+    <row r="216" spans="1:7" ht="25.5">
+      <c r="A216" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="B208" s="33">
+      <c r="B216" s="32">
         <v>610</v>
       </c>
-      <c r="C208" s="38" t="s">
+      <c r="C216" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D208" s="31" t="s">
+      <c r="D216" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="E208" s="35" t="s">
+      <c r="E216" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F208" s="35" t="s">
+      <c r="F216" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="G208" s="31" t="s">
+      <c r="G216" s="30" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="96" t="s">
+    <row r="217" spans="1:7">
+      <c r="A217" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B209" s="139" t="s">
+      <c r="B217" s="124" t="s">
         <v>489</v>
       </c>
-      <c r="C209" s="140"/>
-      <c r="D209" s="140"/>
-      <c r="E209" s="140"/>
-      <c r="F209" s="140"/>
-      <c r="G209" s="141"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="78"/>
-      <c r="B210" s="76"/>
-      <c r="C210" s="77"/>
-      <c r="D210" s="78"/>
-      <c r="E210" s="79"/>
-      <c r="F210" s="79"/>
-      <c r="G210" s="78"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="51" t="s">
+      <c r="C217" s="125"/>
+      <c r="D217" s="125"/>
+      <c r="E217" s="125"/>
+      <c r="F217" s="125"/>
+      <c r="G217" s="126"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="68"/>
+      <c r="B218" s="66"/>
+      <c r="C218" s="67"/>
+      <c r="D218" s="68"/>
+      <c r="E218" s="69"/>
+      <c r="F218" s="69"/>
+      <c r="G218" s="68"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="48" t="s">
         <v>456</v>
       </c>
-      <c r="B211" s="51"/>
-      <c r="C211" s="53" t="s">
+      <c r="B219" s="48"/>
+      <c r="C219" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D211" s="51"/>
-      <c r="E211" s="51"/>
-      <c r="F211" s="51"/>
-      <c r="G211" s="51"/>
-    </row>
-    <row r="212" spans="1:7" s="97" customFormat="1" ht="89.25">
-      <c r="A212" s="71" t="s">
+      <c r="D219" s="48"/>
+      <c r="E219" s="48"/>
+      <c r="F219" s="48"/>
+      <c r="G219" s="48"/>
+    </row>
+    <row r="220" spans="1:7" s="84" customFormat="1" ht="89.25">
+      <c r="A220" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="B212" s="69" t="s">
+      <c r="B220" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="C212" s="70" t="s">
+      <c r="C220" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D212" s="71" t="s">
+      <c r="D220" s="64" t="s">
         <v>295</v>
       </c>
-      <c r="E212" s="71" t="s">
+      <c r="E220" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="F212" s="70" t="s">
+      <c r="F220" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="G212" s="71" t="s">
+      <c r="G220" s="64" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="97" customFormat="1">
-      <c r="A213" s="71" t="s">
+    <row r="221" spans="1:7" s="84" customFormat="1">
+      <c r="A221" s="64" t="s">
         <v>290</v>
       </c>
-      <c r="B213" s="69" t="s">
+      <c r="B221" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="C213" s="70" t="s">
+      <c r="C221" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D213" s="71" t="s">
+      <c r="D221" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="E213" s="71" t="s">
+      <c r="E221" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="F213" s="70" t="s">
+      <c r="F221" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="G213" s="71" t="s">
+      <c r="G221" s="64" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="97" customFormat="1">
-      <c r="A214" s="71" t="s">
+    <row r="222" spans="1:7" s="84" customFormat="1">
+      <c r="A222" s="64" t="s">
         <v>291</v>
       </c>
-      <c r="B214" s="69" t="s">
+      <c r="B222" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="C214" s="70" t="s">
+      <c r="C222" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D214" s="71" t="s">
+      <c r="D222" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="E214" s="71" t="s">
+      <c r="E222" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="F214" s="70" t="s">
+      <c r="F222" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="G214" s="71" t="s">
+      <c r="G222" s="64" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="97" customFormat="1">
-      <c r="A215" s="71" t="s">
+    <row r="223" spans="1:7" s="84" customFormat="1">
+      <c r="A223" s="64" t="s">
         <v>292</v>
       </c>
-      <c r="B215" s="69" t="s">
+      <c r="B223" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="C215" s="70" t="s">
+      <c r="C223" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D215" s="71" t="s">
+      <c r="D223" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="E215" s="71" t="s">
+      <c r="E223" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="F215" s="70"/>
-    </row>
-    <row r="216" spans="1:7" s="97" customFormat="1">
-      <c r="A216" s="71" t="s">
+      <c r="F223" s="34"/>
+    </row>
+    <row r="224" spans="1:7" s="84" customFormat="1">
+      <c r="A224" s="64" t="s">
         <v>293</v>
       </c>
-      <c r="B216" s="69" t="s">
+      <c r="B224" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="C216" s="70" t="s">
+      <c r="C224" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D216" s="71" t="s">
+      <c r="D224" s="64" t="s">
         <v>305</v>
       </c>
-      <c r="E216" s="71" t="s">
+      <c r="E224" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="F216" s="70"/>
-      <c r="G216" s="71"/>
-    </row>
-    <row r="217" spans="1:7" s="97" customFormat="1">
-      <c r="A217" s="71" t="s">
+      <c r="F224" s="34"/>
+      <c r="G224" s="64"/>
+    </row>
+    <row r="225" spans="1:7" s="84" customFormat="1">
+      <c r="A225" s="64" t="s">
         <v>294</v>
       </c>
-      <c r="B217" s="69" t="s">
+      <c r="B225" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="C217" s="70" t="s">
+      <c r="C225" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D217" s="71" t="s">
+      <c r="D225" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="E217" s="71" t="s">
+      <c r="E225" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F217" s="70"/>
-      <c r="G217" s="71"/>
-    </row>
-    <row r="218" spans="1:7" s="97" customFormat="1">
-      <c r="A218" s="71" t="s">
+      <c r="F225" s="34"/>
+      <c r="G225" s="64"/>
+    </row>
+    <row r="226" spans="1:7" s="84" customFormat="1">
+      <c r="A226" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="B218" s="69">
+      <c r="B226" s="32">
         <v>662</v>
       </c>
-      <c r="C218" s="70" t="s">
+      <c r="C226" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D218" s="71" t="s">
+      <c r="D226" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="E218" s="71" t="s">
+      <c r="E226" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F218" s="70"/>
-      <c r="G218" s="71"/>
-    </row>
-    <row r="219" spans="1:7" s="97" customFormat="1">
-      <c r="A219" s="71" t="s">
+      <c r="F226" s="34"/>
+      <c r="G226" s="64"/>
+    </row>
+    <row r="227" spans="1:7" s="84" customFormat="1">
+      <c r="A227" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="B219" s="69">
+      <c r="B227" s="32">
         <v>828</v>
       </c>
-      <c r="C219" s="70" t="s">
+      <c r="C227" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D219" s="71" t="s">
+      <c r="D227" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="E219" s="71" t="s">
+      <c r="E227" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="F219" s="70" t="s">
+      <c r="F227" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="G219" s="71" t="s">
+      <c r="G227" s="64" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="97" customFormat="1">
-      <c r="A220" s="96" t="s">
+    <row r="228" spans="1:7" s="84" customFormat="1">
+      <c r="A228" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B220" s="136" t="s">
+      <c r="B228" s="113" t="s">
         <v>455</v>
       </c>
-      <c r="C220" s="137"/>
-      <c r="D220" s="137"/>
-      <c r="E220" s="137"/>
-      <c r="F220" s="137"/>
-      <c r="G220" s="138"/>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="31"/>
-      <c r="B221" s="33"/>
-      <c r="C221" s="38"/>
-      <c r="D221" s="31"/>
-      <c r="E221" s="35"/>
-      <c r="F221" s="35"/>
-      <c r="G221" s="31"/>
-    </row>
-    <row r="222" spans="1:7">
-      <c r="A222" s="51" t="s">
+      <c r="C228" s="116"/>
+      <c r="D228" s="116"/>
+      <c r="E228" s="116"/>
+      <c r="F228" s="116"/>
+      <c r="G228" s="117"/>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" s="30"/>
+      <c r="B229" s="32"/>
+      <c r="C229" s="37"/>
+      <c r="D229" s="30"/>
+      <c r="E229" s="34"/>
+      <c r="F229" s="34"/>
+      <c r="G229" s="30"/>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="48" t="s">
         <v>529</v>
       </c>
-      <c r="B222" s="51"/>
-      <c r="C222" s="51"/>
-      <c r="D222" s="51"/>
-      <c r="E222" s="51"/>
-      <c r="F222" s="51"/>
-      <c r="G222" s="51"/>
-    </row>
-    <row r="223" spans="1:7" ht="38.25">
-      <c r="A223" s="67" t="s">
+      <c r="B230" s="48"/>
+      <c r="C230" s="48"/>
+      <c r="D230" s="48"/>
+      <c r="E230" s="48"/>
+      <c r="F230" s="48"/>
+      <c r="G230" s="48"/>
+    </row>
+    <row r="231" spans="1:7" ht="38.25">
+      <c r="A231" s="30" t="s">
         <v>530</v>
       </c>
-      <c r="B223" s="69">
+      <c r="B231" s="32">
         <v>91</v>
       </c>
-      <c r="C223" s="109" t="s">
+      <c r="C231" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D223" s="67" t="s">
+      <c r="D231" s="30" t="s">
         <v>531</v>
       </c>
-      <c r="E223" s="107" t="s">
+      <c r="E231" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="F223" s="70" t="s">
+      <c r="F231" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G223" s="113" t="s">
+      <c r="G231" s="95" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="67" t="s">
+    <row r="232" spans="1:7">
+      <c r="A232" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="B224" s="39">
+      <c r="B232" s="38">
         <v>206</v>
       </c>
-      <c r="C224" s="109" t="s">
+      <c r="C232" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D224" s="67" t="s">
+      <c r="D232" s="30" t="s">
         <v>533</v>
       </c>
-      <c r="E224" s="107" t="s">
+      <c r="E232" s="58" t="s">
         <v>534</v>
       </c>
-      <c r="F224" s="70"/>
-      <c r="G224" s="67"/>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="67" t="s">
+      <c r="F232" s="34"/>
+      <c r="G232" s="30"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="30" t="s">
         <v>535</v>
       </c>
-      <c r="B225" s="69">
+      <c r="B233" s="32">
         <v>207</v>
       </c>
-      <c r="C225" s="109" t="s">
+      <c r="C233" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D225" s="67" t="s">
+      <c r="D233" s="30" t="s">
         <v>536</v>
       </c>
-      <c r="E225" s="107" t="s">
+      <c r="E233" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="F225" s="70"/>
-      <c r="G225" s="67"/>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="67" t="s">
+      <c r="F233" s="34"/>
+      <c r="G233" s="30"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="B226" s="69">
+      <c r="B234" s="32">
         <v>140</v>
       </c>
-      <c r="C226" s="109" t="s">
+      <c r="C234" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D226" s="67" t="s">
+      <c r="D234" s="30" t="s">
         <v>538</v>
       </c>
-      <c r="E226" s="107" t="s">
+      <c r="E234" s="58" t="s">
         <v>539</v>
       </c>
-      <c r="F226" s="70"/>
-      <c r="G226" s="67"/>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" s="67" t="s">
+      <c r="F234" s="34"/>
+      <c r="G234" s="30"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="30" t="s">
         <v>540</v>
       </c>
-      <c r="B227" s="69">
+      <c r="B235" s="32">
         <v>387</v>
       </c>
-      <c r="C227" s="109" t="s">
+      <c r="C235" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D227" s="67" t="s">
+      <c r="D235" s="30" t="s">
         <v>541</v>
       </c>
-      <c r="E227" s="107" t="s">
+      <c r="E235" s="58" t="s">
         <v>542</v>
       </c>
-      <c r="F227" s="70" t="s">
+      <c r="F235" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="G227" s="67" t="s">
+      <c r="G235" s="30" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="96" t="s">
+    <row r="236" spans="1:7">
+      <c r="A236" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B228" s="136" t="s">
+      <c r="B236" s="113" t="s">
         <v>544</v>
       </c>
-      <c r="C228" s="137"/>
-      <c r="D228" s="137"/>
-      <c r="E228" s="137"/>
-      <c r="F228" s="137"/>
-      <c r="G228" s="138"/>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" s="67"/>
-      <c r="B229" s="69"/>
-      <c r="C229" s="109"/>
-      <c r="D229" s="67"/>
-      <c r="E229" s="107"/>
-      <c r="F229" s="71"/>
-      <c r="G229" s="67"/>
-    </row>
-    <row r="230" spans="1:8" ht="38.25">
-      <c r="A230" s="72" t="s">
+      <c r="C236" s="116"/>
+      <c r="D236" s="116"/>
+      <c r="E236" s="116"/>
+      <c r="F236" s="116"/>
+      <c r="G236" s="117"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="30"/>
+      <c r="B237" s="32"/>
+      <c r="C237" s="37"/>
+      <c r="D237" s="30"/>
+      <c r="E237" s="58"/>
+      <c r="F237" s="64"/>
+      <c r="G237" s="30"/>
+    </row>
+    <row r="238" spans="1:7" ht="38.25">
+      <c r="A238" s="48" t="s">
         <v>512</v>
       </c>
-      <c r="B230" s="73"/>
-      <c r="C230" s="74" t="s">
+      <c r="B238" s="49"/>
+      <c r="C238" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D230" s="72"/>
-      <c r="E230" s="74"/>
-      <c r="F230" s="75"/>
-      <c r="G230" s="72" t="s">
+      <c r="D238" s="48"/>
+      <c r="E238" s="50"/>
+      <c r="F238" s="65"/>
+      <c r="G238" s="48" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A231" s="67" t="s">
+    <row r="239" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A239" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="B231" s="69">
+      <c r="B239" s="32">
         <v>248</v>
       </c>
-      <c r="C231" s="109" t="s">
+      <c r="C239" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D231" s="67" t="s">
+      <c r="D239" s="30" t="s">
         <v>515</v>
       </c>
-      <c r="E231" s="70" t="s">
+      <c r="E239" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F231" s="70" t="s">
+      <c r="F239" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="G231" s="67" t="s">
+      <c r="G239" s="30" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A232" s="67" t="s">
+    <row r="240" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A240" s="30" t="s">
         <v>517</v>
       </c>
-      <c r="B232" s="69">
+      <c r="B240" s="32">
         <v>1300</v>
       </c>
-      <c r="C232" s="109" t="s">
+      <c r="C240" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D232" s="67" t="s">
+      <c r="D240" s="30" t="s">
         <v>518</v>
       </c>
-      <c r="E232" s="70" t="s">
+      <c r="E240" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F232" s="70" t="s">
+      <c r="F240" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="G232" s="67" t="s">
+      <c r="G240" s="30" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A233" s="67" t="s">
+    <row r="241" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A241" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="B233" s="69">
+      <c r="B241" s="32">
         <v>610</v>
       </c>
-      <c r="C233" s="109" t="s">
+      <c r="C241" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D233" s="67" t="s">
+      <c r="D241" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="E233" s="70" t="s">
+      <c r="E241" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F233" s="44">
+      <c r="F241" s="41">
         <v>1000</v>
       </c>
-      <c r="G233" s="67"/>
-    </row>
-    <row r="234" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A234" s="67" t="s">
+      <c r="G241" s="30"/>
+    </row>
+    <row r="242" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A242" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="B234" s="69">
+      <c r="B242" s="32">
         <v>352</v>
       </c>
-      <c r="C234" s="109" t="s">
+      <c r="C242" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D234" s="67" t="s">
+      <c r="D242" s="30" t="s">
         <v>522</v>
       </c>
-      <c r="E234" s="70" t="s">
+      <c r="E242" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F234" s="44" t="s">
+      <c r="F242" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="G234" s="67"/>
-    </row>
-    <row r="235" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A235" s="110" t="s">
+      <c r="G242" s="30"/>
+    </row>
+    <row r="243" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A243" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B235" s="136" t="s">
+      <c r="B243" s="113" t="s">
         <v>524</v>
       </c>
-      <c r="C235" s="137"/>
-      <c r="D235" s="137"/>
-      <c r="E235" s="137"/>
-      <c r="F235" s="137"/>
-      <c r="G235" s="138"/>
-    </row>
-    <row r="236" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A236" s="110"/>
-      <c r="B236" s="98"/>
-      <c r="C236" s="99"/>
-      <c r="D236" s="99"/>
-      <c r="E236" s="99"/>
-      <c r="F236" s="99"/>
-      <c r="G236" s="100"/>
-      <c r="H236" s="111"/>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" s="51" t="s">
+      <c r="C243" s="116"/>
+      <c r="D243" s="116"/>
+      <c r="E243" s="116"/>
+      <c r="F243" s="116"/>
+      <c r="G243" s="117"/>
+    </row>
+    <row r="244" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A244" s="83"/>
+      <c r="B244" s="74"/>
+      <c r="C244" s="85"/>
+      <c r="D244" s="85"/>
+      <c r="E244" s="85"/>
+      <c r="F244" s="85"/>
+      <c r="G244" s="86"/>
+      <c r="H244" s="93"/>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="B237" s="51"/>
-      <c r="C237" s="51"/>
-      <c r="D237" s="51"/>
-      <c r="E237" s="51"/>
-      <c r="F237" s="51"/>
-      <c r="G237" s="51"/>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="31" t="s">
+      <c r="B245" s="48"/>
+      <c r="C245" s="48"/>
+      <c r="D245" s="48"/>
+      <c r="E245" s="48"/>
+      <c r="F245" s="48"/>
+      <c r="G245" s="48"/>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="B238" s="33">
+      <c r="B246" s="32">
         <v>354</v>
       </c>
-      <c r="C238" s="38" t="s">
+      <c r="C246" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D238" s="31" t="s">
+      <c r="D246" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E238" s="62" t="s">
+      <c r="E246" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="F238" s="62" t="s">
+      <c r="F246" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="G238" s="31" t="s">
+      <c r="G246" s="30" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="96" t="s">
+    <row r="247" spans="1:8">
+      <c r="A247" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B239" s="136" t="s">
+      <c r="B247" s="113" t="s">
         <v>457</v>
       </c>
-      <c r="C239" s="137"/>
-      <c r="D239" s="137"/>
-      <c r="E239" s="137"/>
-      <c r="F239" s="137"/>
-      <c r="G239" s="138"/>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="31"/>
-      <c r="B240" s="33"/>
-      <c r="C240" s="38"/>
-      <c r="D240" s="31"/>
-      <c r="E240" s="62"/>
-      <c r="F240" s="62"/>
-      <c r="G240" s="31"/>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="31"/>
-      <c r="B241" s="33"/>
-      <c r="C241" s="38"/>
-      <c r="D241" s="31"/>
-      <c r="E241" s="35"/>
-      <c r="F241" s="35"/>
-      <c r="G241" s="31"/>
-    </row>
-    <row r="242" spans="1:7" ht="25.5">
-      <c r="A242" s="51" t="s">
+      <c r="C247" s="116"/>
+      <c r="D247" s="116"/>
+      <c r="E247" s="116"/>
+      <c r="F247" s="116"/>
+      <c r="G247" s="117"/>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="30"/>
+      <c r="B248" s="32"/>
+      <c r="C248" s="37"/>
+      <c r="D248" s="30"/>
+      <c r="E248" s="58"/>
+      <c r="F248" s="58"/>
+      <c r="G248" s="30"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="30"/>
+      <c r="B249" s="32"/>
+      <c r="C249" s="37"/>
+      <c r="D249" s="30"/>
+      <c r="E249" s="34"/>
+      <c r="F249" s="34"/>
+      <c r="G249" s="30"/>
+    </row>
+    <row r="250" spans="1:8" ht="25.5">
+      <c r="A250" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="B242" s="52"/>
-      <c r="C242" s="53" t="s">
+      <c r="B250" s="49"/>
+      <c r="C250" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D242" s="51" t="s">
+      <c r="D250" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="E242" s="53"/>
-      <c r="F242" s="53"/>
-      <c r="G242" s="51"/>
-    </row>
-    <row r="243" spans="1:7" ht="25.5">
-      <c r="A243" s="31" t="s">
+      <c r="E250" s="50"/>
+      <c r="F250" s="50"/>
+      <c r="G250" s="48"/>
+    </row>
+    <row r="251" spans="1:8" ht="25.5">
+      <c r="A251" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B243" s="33">
+      <c r="B251" s="32">
         <v>96</v>
       </c>
-      <c r="C243" s="38" t="s">
+      <c r="C251" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D243" s="31" t="s">
+      <c r="D251" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="E243" s="35" t="s">
+      <c r="E251" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="F243" s="35"/>
-      <c r="G243" s="31"/>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="31" t="s">
+      <c r="F251" s="34"/>
+      <c r="G251" s="30"/>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B244" s="33">
+      <c r="B252" s="32">
         <v>329</v>
       </c>
-      <c r="C244" s="38" t="s">
+      <c r="C252" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D244" s="31" t="s">
+      <c r="D252" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E244" s="35" t="s">
+      <c r="E252" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F244" s="35" t="s">
+      <c r="F252" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="G244" s="29" t="s">
+      <c r="G252" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
-      <c r="A245" s="96" t="s">
+    <row r="253" spans="1:8">
+      <c r="A253" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B245" s="136" t="s">
+      <c r="B253" s="113" t="s">
         <v>485</v>
       </c>
-      <c r="C245" s="137"/>
-      <c r="D245" s="137"/>
-      <c r="E245" s="137"/>
-      <c r="F245" s="137"/>
-      <c r="G245" s="138"/>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="31"/>
-      <c r="B246" s="33"/>
-      <c r="C246" s="38"/>
-      <c r="D246" s="31"/>
-      <c r="E246" s="35"/>
-      <c r="F246" s="35"/>
-      <c r="G246" s="29"/>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="51" t="s">
+      <c r="C253" s="116"/>
+      <c r="D253" s="116"/>
+      <c r="E253" s="116"/>
+      <c r="F253" s="116"/>
+      <c r="G253" s="117"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="30"/>
+      <c r="B254" s="32"/>
+      <c r="C254" s="37"/>
+      <c r="D254" s="30"/>
+      <c r="E254" s="34"/>
+      <c r="F254" s="34"/>
+      <c r="G254" s="28"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="B247" s="52"/>
-      <c r="C247" s="53" t="s">
+      <c r="B255" s="49"/>
+      <c r="C255" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D247" s="51"/>
-      <c r="E247" s="53"/>
-      <c r="F247" s="53"/>
-      <c r="G247" s="51"/>
-    </row>
-    <row r="248" spans="1:7" ht="25.5">
-      <c r="A248" s="31" t="s">
+      <c r="D255" s="48"/>
+      <c r="E255" s="50"/>
+      <c r="F255" s="50"/>
+      <c r="G255" s="48"/>
+    </row>
+    <row r="256" spans="1:8" ht="25.5">
+      <c r="A256" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="B248" s="33">
+      <c r="B256" s="32">
         <v>97</v>
       </c>
-      <c r="C248" s="38" t="s">
+      <c r="C256" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D248" s="31" t="s">
+      <c r="D256" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="E248" s="35" t="s">
+      <c r="E256" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F248" s="35" t="s">
+      <c r="F256" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="G248" s="31" t="s">
+      <c r="G256" s="30" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
-      <c r="A249" s="31" t="s">
+    <row r="257" spans="1:7">
+      <c r="A257" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B249" s="33">
+      <c r="B257" s="32">
         <v>28</v>
       </c>
-      <c r="C249" s="38" t="s">
+      <c r="C257" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D249" s="31" t="s">
+      <c r="D257" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="E249" s="35" t="s">
+      <c r="E257" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F249" s="35" t="s">
+      <c r="F257" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="G249" s="29" t="s">
+      <c r="G257" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="96" t="s">
+    <row r="258" spans="1:7">
+      <c r="A258" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B250" s="136" t="s">
+      <c r="B258" s="113" t="s">
         <v>458</v>
       </c>
-      <c r="C250" s="137"/>
-      <c r="D250" s="137"/>
-      <c r="E250" s="137"/>
-      <c r="F250" s="137"/>
-      <c r="G250" s="138"/>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251" s="31"/>
-      <c r="B251" s="33"/>
-      <c r="C251" s="38"/>
-      <c r="D251" s="31"/>
-      <c r="E251" s="35"/>
-      <c r="F251" s="35"/>
-      <c r="G251" s="29"/>
-    </row>
-    <row r="252" spans="1:7" ht="25.5">
-      <c r="A252" s="51" t="s">
+      <c r="C258" s="116"/>
+      <c r="D258" s="116"/>
+      <c r="E258" s="116"/>
+      <c r="F258" s="116"/>
+      <c r="G258" s="117"/>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="30"/>
+      <c r="B259" s="32"/>
+      <c r="C259" s="37"/>
+      <c r="D259" s="30"/>
+      <c r="E259" s="34"/>
+      <c r="F259" s="34"/>
+      <c r="G259" s="28"/>
+    </row>
+    <row r="260" spans="1:7" ht="25.5">
+      <c r="A260" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="B252" s="52"/>
-      <c r="C252" s="53" t="s">
+      <c r="B260" s="49"/>
+      <c r="C260" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D252" s="51" t="s">
+      <c r="D260" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="E252" s="53"/>
-      <c r="F252" s="53"/>
-      <c r="G252" s="51"/>
-    </row>
-    <row r="253" spans="1:7" ht="25.5">
-      <c r="A253" s="31" t="s">
+      <c r="E260" s="50"/>
+      <c r="F260" s="50"/>
+      <c r="G260" s="48"/>
+    </row>
+    <row r="261" spans="1:7" ht="25.5">
+      <c r="A261" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B253" s="33">
+      <c r="B261" s="32">
         <v>479</v>
       </c>
-      <c r="C253" s="38" t="s">
+      <c r="C261" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D253" s="31" t="s">
+      <c r="D261" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="E253" s="35" t="s">
+      <c r="E261" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="F253" s="35" t="s">
+      <c r="F261" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="G253" s="31" t="s">
+      <c r="G261" s="30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="31" t="s">
+    <row r="262" spans="1:7">
+      <c r="A262" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B254" s="33">
+      <c r="B262" s="32">
         <v>142</v>
       </c>
-      <c r="C254" s="38" t="s">
+      <c r="C262" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D254" s="31" t="s">
+      <c r="D262" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E254" s="35" t="s">
+      <c r="E262" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F254" s="35" t="s">
+      <c r="F262" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="G254" s="29" t="s">
+      <c r="G262" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="96" t="s">
+    <row r="263" spans="1:7">
+      <c r="A263" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B255" s="136" t="s">
+      <c r="B263" s="113" t="s">
         <v>460</v>
       </c>
-      <c r="C255" s="137"/>
-      <c r="D255" s="137"/>
-      <c r="E255" s="137"/>
-      <c r="F255" s="137"/>
-      <c r="G255" s="138"/>
+      <c r="C263" s="116"/>
+      <c r="D263" s="116"/>
+      <c r="E263" s="116"/>
+      <c r="F263" s="116"/>
+      <c r="G263" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B167:G167"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="B220:G220"/>
-    <mergeCell ref="B209:G209"/>
+  <mergeCells count="44">
+    <mergeCell ref="B247:G247"/>
+    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B258:G258"/>
+    <mergeCell ref="B263:G263"/>
+    <mergeCell ref="B197:G197"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="B243:G243"/>
+    <mergeCell ref="B212:G212"/>
+    <mergeCell ref="B236:G236"/>
+    <mergeCell ref="B186:G186"/>
+    <mergeCell ref="B228:G228"/>
+    <mergeCell ref="B217:G217"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B36:G36"/>
@@ -7778,15 +7850,25 @@
     <mergeCell ref="B72:G72"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B239:G239"/>
-    <mergeCell ref="B245:G245"/>
-    <mergeCell ref="B250:G250"/>
-    <mergeCell ref="B255:G255"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B197:G197"/>
-    <mergeCell ref="B235:G235"/>
-    <mergeCell ref="B204:G204"/>
-    <mergeCell ref="B228:G228"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B61:F61"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7809,192 +7891,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="30" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="30" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="30" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="30" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="30" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="30" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="30" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="30" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="30" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="30" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="30" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="30" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="30" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="30" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="30" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="30" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="30" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="30" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="30" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="30" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="30" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="30" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="30" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="30" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="30" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="30" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="30" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="30" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="30" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="30" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="30" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="30" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="30" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="30" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="30" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="30" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8006,9 +8088,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863AA3AA-0C86-446A-8835-1EED4E0DBB22}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
@@ -8018,245 +8100,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="B1" s="67"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="B2" s="67"/>
+      <c r="B2" s="30"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="B3" s="67"/>
+      <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="30" t="s">
         <v>555</v>
       </c>
-      <c r="B5" s="67"/>
+      <c r="B5" s="30"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="B7" s="67"/>
+      <c r="B7" s="30"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B8" s="67"/>
+      <c r="B8" s="30"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="B9" s="67"/>
+      <c r="B9" s="30"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="67"/>
+      <c r="B10" s="30"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="B11" s="67"/>
+      <c r="B11" s="30"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="B12" s="67"/>
+      <c r="B12" s="30"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="30"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="B14" s="67"/>
+      <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="30"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="B17" s="67"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="B18" s="67"/>
+      <c r="B18" s="30"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="B19" s="67"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="30" t="s">
         <v>549</v>
       </c>
-      <c r="B20" s="67"/>
+      <c r="B20" s="30"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="B21" s="67"/>
+      <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="B22" s="67"/>
+      <c r="B22" s="30"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="B23" s="67"/>
+      <c r="B23" s="30"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="B24" s="67"/>
+      <c r="B24" s="30"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="B25" s="67"/>
+      <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="30" t="s">
         <v>467</v>
       </c>
-      <c r="B26" s="67"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="30" t="s">
         <v>455</v>
       </c>
-      <c r="B27" s="67"/>
+      <c r="B27" s="30"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="B28" s="67"/>
+      <c r="B28" s="30"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="B29" s="67"/>
+      <c r="B29" s="30"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="30" t="s">
         <v>526</v>
       </c>
-      <c r="B30" s="67"/>
+      <c r="B30" s="30"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="B31" s="67"/>
+      <c r="B31" s="30"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="B32" s="67"/>
+      <c r="B32" s="30"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="B33" s="67"/>
+      <c r="B33" s="30"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="B34" s="67"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="30" t="s">
         <v>457</v>
       </c>
-      <c r="B35" s="67"/>
+      <c r="B35" s="30"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="30" t="s">
         <v>485</v>
       </c>
-      <c r="B36" s="67"/>
+      <c r="B36" s="30"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="B37" s="67"/>
+      <c r="B37" s="30"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="B38" s="67"/>
+      <c r="B38" s="30"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="B40" s="118"/>
+      <c r="B40" s="84"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="B41" s="118"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="B42" s="119"/>
+      <c r="B41" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8398,6 +8477,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF3AC9B3629813499A0ACD8A875243EF" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="922d0740f907dd86cb660748b16b5452">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2611df27-1940-46be-a00f-4132d3fec05a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbb66662760600521b39f06a97f3e4fa" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8586,39 +8683,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE8E031-5F32-4C4F-89D7-DA1D52DF419D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A1C1A-9E5E-4F54-8085-06E04E5030EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="2611df27-1940-46be-a00f-4132d3fec05a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8642,9 +8710,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A1C1A-9E5E-4F54-8085-06E04E5030EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE8E031-5F32-4C4F-89D7-DA1D52DF419D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="2611df27-1940-46be-a00f-4132d3fec05a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/format-specifications/ansi-x12/4010/810/Pagero-ANSI-X12-4010-810-invoice-description-outbound.xlsx
+++ b/format-specifications/ansi-x12/4010/810/Pagero-ANSI-X12-4010-810-invoice-description-outbound.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\format\integration-resources\format-specifications\ansi-x12\4010\810\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA1026-73E8-4D95-92AE-595B01A222DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EA0FBE-8B7B-413B-92D1-16A733BC1B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="27150" windowHeight="21165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="574">
   <si>
     <t>Responsible</t>
   </si>
@@ -1912,7 +1912,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2065,6 +2065,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2079,7 +2103,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2362,6 +2386,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2414,12 +2450,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -2428,24 +2458,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2465,15 +2477,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2969,90 +3005,90 @@
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="106" t="s">
         <v>494</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="114"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
@@ -3064,18 +3100,18 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
@@ -3201,9 +3237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G156" sqref="G156"/>
+      <selection pane="bottomLeft" activeCell="A154" sqref="A154:XFD160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3637,14 +3673,14 @@
       <c r="A20" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="122" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="129"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="124"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="35"/>
@@ -3856,14 +3892,14 @@
       <c r="A31" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="116" t="s">
         <v>336</v>
       </c>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="115"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="126"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="28"/>
@@ -3939,14 +3975,14 @@
       <c r="A36" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="116" t="s">
         <v>340</v>
       </c>
-      <c r="C36" s="114"/>
-      <c r="D36" s="114"/>
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="115"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="126"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="28"/>
@@ -4191,25 +4227,25 @@
       <c r="A49" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="116" t="s">
         <v>351</v>
       </c>
-      <c r="C49" s="114"/>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="115"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="126"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="28"/>
-      <c r="B50" s="113" t="s">
+      <c r="B50" s="116" t="s">
         <v>399</v>
       </c>
-      <c r="C50" s="114"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="115"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="126"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="28"/>
@@ -4411,13 +4447,13 @@
       <c r="A61" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B61" s="122" t="s">
+      <c r="B61" s="131" t="s">
         <v>553</v>
       </c>
-      <c r="C61" s="123"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="123"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
       <c r="G61" s="96" t="s">
         <v>554</v>
       </c>
@@ -4426,14 +4462,14 @@
       <c r="A62" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="B62" s="121" t="s">
+      <c r="B62" s="130" t="s">
         <v>511</v>
       </c>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="115"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="126"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="77"/>
@@ -4505,14 +4541,14 @@
       <c r="A67" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B67" s="113" t="s">
+      <c r="B67" s="116" t="s">
         <v>355</v>
       </c>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="115"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="126"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="51"/>
@@ -4584,14 +4620,14 @@
       <c r="A72" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B72" s="113" t="s">
+      <c r="B72" s="116" t="s">
         <v>357</v>
       </c>
-      <c r="C72" s="114"/>
-      <c r="D72" s="114"/>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="115"/>
+      <c r="C72" s="125"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="125"/>
+      <c r="G72" s="126"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="51"/>
@@ -4663,14 +4699,14 @@
       <c r="A77" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B77" s="113" t="s">
+      <c r="B77" s="116" t="s">
         <v>359</v>
       </c>
-      <c r="C77" s="114"/>
-      <c r="D77" s="114"/>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114"/>
-      <c r="G77" s="115"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="126"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="40"/>
@@ -4742,14 +4778,14 @@
       <c r="A82" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B82" s="113" t="s">
+      <c r="B82" s="116" t="s">
         <v>432</v>
       </c>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="115"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="126"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="35"/>
@@ -4911,25 +4947,25 @@
       <c r="A91" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B91" s="113" t="s">
+      <c r="B91" s="116" t="s">
         <v>421</v>
       </c>
-      <c r="C91" s="116"/>
-      <c r="D91" s="116"/>
-      <c r="E91" s="116"/>
-      <c r="F91" s="116"/>
-      <c r="G91" s="117"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="117"/>
+      <c r="G91" s="118"/>
     </row>
     <row r="92" spans="1:7" ht="12.75" customHeight="1">
       <c r="A92" s="28"/>
-      <c r="B92" s="113" t="s">
+      <c r="B92" s="116" t="s">
         <v>422</v>
       </c>
-      <c r="C92" s="116"/>
-      <c r="D92" s="116"/>
-      <c r="E92" s="116"/>
-      <c r="F92" s="116"/>
-      <c r="G92" s="117"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="117"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="117"/>
+      <c r="G92" s="118"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="28"/>
@@ -5250,135 +5286,135 @@
       <c r="A110" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B110" s="118" t="s">
+      <c r="B110" s="127" t="s">
         <v>365</v>
       </c>
-      <c r="C110" s="119"/>
-      <c r="D110" s="119"/>
-      <c r="E110" s="119"/>
-      <c r="F110" s="119"/>
-      <c r="G110" s="120"/>
+      <c r="C110" s="128"/>
+      <c r="D110" s="128"/>
+      <c r="E110" s="128"/>
+      <c r="F110" s="128"/>
+      <c r="G110" s="129"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="40"/>
-      <c r="B111" s="118" t="s">
+      <c r="B111" s="127" t="s">
         <v>376</v>
       </c>
-      <c r="C111" s="119"/>
-      <c r="D111" s="119"/>
-      <c r="E111" s="119"/>
-      <c r="F111" s="119"/>
-      <c r="G111" s="120"/>
+      <c r="C111" s="128"/>
+      <c r="D111" s="128"/>
+      <c r="E111" s="128"/>
+      <c r="F111" s="128"/>
+      <c r="G111" s="129"/>
     </row>
     <row r="112" spans="1:7" ht="12.75" customHeight="1">
       <c r="A112" s="40"/>
-      <c r="B112" s="118" t="s">
+      <c r="B112" s="127" t="s">
         <v>377</v>
       </c>
-      <c r="C112" s="119"/>
-      <c r="D112" s="119"/>
-      <c r="E112" s="119"/>
-      <c r="F112" s="119"/>
-      <c r="G112" s="120"/>
+      <c r="C112" s="128"/>
+      <c r="D112" s="128"/>
+      <c r="E112" s="128"/>
+      <c r="F112" s="128"/>
+      <c r="G112" s="129"/>
     </row>
     <row r="113" spans="1:7" ht="12.75" customHeight="1">
       <c r="A113" s="40"/>
-      <c r="B113" s="118" t="s">
+      <c r="B113" s="127" t="s">
         <v>482</v>
       </c>
-      <c r="C113" s="119"/>
-      <c r="D113" s="119"/>
-      <c r="E113" s="119"/>
-      <c r="F113" s="119"/>
-      <c r="G113" s="120"/>
+      <c r="C113" s="128"/>
+      <c r="D113" s="128"/>
+      <c r="E113" s="128"/>
+      <c r="F113" s="128"/>
+      <c r="G113" s="129"/>
     </row>
     <row r="114" spans="1:7" ht="12.75" customHeight="1">
       <c r="A114" s="40"/>
-      <c r="B114" s="118" t="s">
+      <c r="B114" s="127" t="s">
         <v>366</v>
       </c>
-      <c r="C114" s="119"/>
-      <c r="D114" s="119"/>
-      <c r="E114" s="119"/>
-      <c r="F114" s="119"/>
-      <c r="G114" s="120"/>
+      <c r="C114" s="128"/>
+      <c r="D114" s="128"/>
+      <c r="E114" s="128"/>
+      <c r="F114" s="128"/>
+      <c r="G114" s="129"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="40"/>
-      <c r="B115" s="118" t="s">
+      <c r="B115" s="127" t="s">
         <v>376</v>
       </c>
-      <c r="C115" s="119"/>
-      <c r="D115" s="119"/>
-      <c r="E115" s="119"/>
-      <c r="F115" s="119"/>
-      <c r="G115" s="120"/>
+      <c r="C115" s="128"/>
+      <c r="D115" s="128"/>
+      <c r="E115" s="128"/>
+      <c r="F115" s="128"/>
+      <c r="G115" s="129"/>
     </row>
     <row r="116" spans="1:7" ht="12.75" customHeight="1">
       <c r="A116" s="40"/>
-      <c r="B116" s="118" t="s">
+      <c r="B116" s="127" t="s">
         <v>378</v>
       </c>
-      <c r="C116" s="119"/>
-      <c r="D116" s="119"/>
-      <c r="E116" s="119"/>
-      <c r="F116" s="119"/>
-      <c r="G116" s="120"/>
+      <c r="C116" s="128"/>
+      <c r="D116" s="128"/>
+      <c r="E116" s="128"/>
+      <c r="F116" s="128"/>
+      <c r="G116" s="129"/>
     </row>
     <row r="117" spans="1:7" ht="12.75" customHeight="1">
       <c r="A117" s="40"/>
-      <c r="B117" s="118" t="s">
+      <c r="B117" s="127" t="s">
         <v>483</v>
       </c>
-      <c r="C117" s="119"/>
-      <c r="D117" s="119"/>
-      <c r="E117" s="119"/>
-      <c r="F117" s="119"/>
-      <c r="G117" s="120"/>
+      <c r="C117" s="128"/>
+      <c r="D117" s="128"/>
+      <c r="E117" s="128"/>
+      <c r="F117" s="128"/>
+      <c r="G117" s="129"/>
     </row>
     <row r="118" spans="1:7" ht="12.75" customHeight="1">
       <c r="A118" s="40"/>
-      <c r="B118" s="118" t="s">
+      <c r="B118" s="127" t="s">
         <v>367</v>
       </c>
-      <c r="C118" s="119"/>
-      <c r="D118" s="119"/>
-      <c r="E118" s="119"/>
-      <c r="F118" s="119"/>
-      <c r="G118" s="120"/>
+      <c r="C118" s="128"/>
+      <c r="D118" s="128"/>
+      <c r="E118" s="128"/>
+      <c r="F118" s="128"/>
+      <c r="G118" s="129"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="28"/>
-      <c r="B119" s="113" t="s">
+      <c r="B119" s="116" t="s">
         <v>376</v>
       </c>
-      <c r="C119" s="116"/>
-      <c r="D119" s="116"/>
-      <c r="E119" s="116"/>
-      <c r="F119" s="116"/>
-      <c r="G119" s="117"/>
+      <c r="C119" s="117"/>
+      <c r="D119" s="117"/>
+      <c r="E119" s="117"/>
+      <c r="F119" s="117"/>
+      <c r="G119" s="118"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="28"/>
-      <c r="B120" s="113" t="s">
+      <c r="B120" s="116" t="s">
         <v>379</v>
       </c>
-      <c r="C120" s="116"/>
-      <c r="D120" s="116"/>
-      <c r="E120" s="116"/>
-      <c r="F120" s="116"/>
-      <c r="G120" s="117"/>
+      <c r="C120" s="117"/>
+      <c r="D120" s="117"/>
+      <c r="E120" s="117"/>
+      <c r="F120" s="117"/>
+      <c r="G120" s="118"/>
     </row>
     <row r="121" spans="1:7" ht="12.75" customHeight="1">
       <c r="A121" s="28"/>
-      <c r="B121" s="113" t="s">
+      <c r="B121" s="116" t="s">
         <v>484</v>
       </c>
-      <c r="C121" s="116"/>
-      <c r="D121" s="116"/>
-      <c r="E121" s="116"/>
-      <c r="F121" s="116"/>
-      <c r="G121" s="117"/>
+      <c r="C121" s="117"/>
+      <c r="D121" s="117"/>
+      <c r="E121" s="117"/>
+      <c r="F121" s="117"/>
+      <c r="G121" s="118"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="28"/>
@@ -5657,14 +5693,14 @@
       <c r="A136" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B136" s="113" t="s">
+      <c r="B136" s="116" t="s">
         <v>380</v>
       </c>
-      <c r="C136" s="116"/>
-      <c r="D136" s="116"/>
-      <c r="E136" s="116"/>
-      <c r="F136" s="116"/>
-      <c r="G136" s="117"/>
+      <c r="C136" s="117"/>
+      <c r="D136" s="117"/>
+      <c r="E136" s="117"/>
+      <c r="F136" s="117"/>
+      <c r="G136" s="118"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="28"/>
@@ -5747,14 +5783,14 @@
       <c r="A142" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B142" s="113" t="s">
+      <c r="B142" s="116" t="s">
         <v>386</v>
       </c>
-      <c r="C142" s="116"/>
-      <c r="D142" s="116"/>
-      <c r="E142" s="116"/>
-      <c r="F142" s="116"/>
-      <c r="G142" s="117"/>
+      <c r="C142" s="117"/>
+      <c r="D142" s="117"/>
+      <c r="E142" s="117"/>
+      <c r="F142" s="117"/>
+      <c r="G142" s="118"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="28"/>
@@ -5828,14 +5864,14 @@
       <c r="A147" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B147" s="113" t="s">
+      <c r="B147" s="116" t="s">
         <v>389</v>
       </c>
-      <c r="C147" s="116"/>
-      <c r="D147" s="116"/>
-      <c r="E147" s="116"/>
-      <c r="F147" s="116"/>
-      <c r="G147" s="117"/>
+      <c r="C147" s="117"/>
+      <c r="D147" s="117"/>
+      <c r="E147" s="117"/>
+      <c r="F147" s="117"/>
+      <c r="G147" s="118"/>
     </row>
     <row r="148" spans="1:8" ht="13.5" customHeight="1">
       <c r="A148" s="28"/>
@@ -5909,14 +5945,14 @@
       <c r="A152" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B152" s="113" t="s">
+      <c r="B152" s="116" t="s">
         <v>389</v>
       </c>
-      <c r="C152" s="116"/>
-      <c r="D152" s="116"/>
-      <c r="E152" s="116"/>
-      <c r="F152" s="116"/>
-      <c r="G152" s="117"/>
+      <c r="C152" s="117"/>
+      <c r="D152" s="117"/>
+      <c r="E152" s="117"/>
+      <c r="F152" s="117"/>
+      <c r="G152" s="118"/>
     </row>
     <row r="153" spans="1:8" ht="13.5" customHeight="1">
       <c r="A153" s="28"/>
@@ -5928,7 +5964,7 @@
       <c r="G153" s="28"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="130" t="s">
+      <c r="A154" s="97" t="s">
         <v>560</v>
       </c>
       <c r="B154" s="49"/>
@@ -5978,7 +6014,7 @@
       <c r="F156" s="64" t="s">
         <v>566</v>
       </c>
-      <c r="G156" s="131" t="s">
+      <c r="G156" s="98" t="s">
         <v>567</v>
       </c>
     </row>
@@ -6013,29 +6049,29 @@
       <c r="G158" s="82"/>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="132" t="s">
+      <c r="A159" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="B159" s="113" t="s">
+      <c r="B159" s="116" t="s">
         <v>572</v>
       </c>
-      <c r="C159" s="114"/>
-      <c r="D159" s="114"/>
-      <c r="E159" s="114"/>
-      <c r="F159" s="114"/>
-      <c r="G159" s="115"/>
+      <c r="C159" s="125"/>
+      <c r="D159" s="125"/>
+      <c r="E159" s="125"/>
+      <c r="F159" s="125"/>
+      <c r="G159" s="126"/>
       <c r="H159" s="93"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="28"/>
-      <c r="B160" s="113" t="s">
+      <c r="B160" s="116" t="s">
         <v>573</v>
       </c>
-      <c r="C160" s="114"/>
-      <c r="D160" s="114"/>
-      <c r="E160" s="114"/>
-      <c r="F160" s="114"/>
-      <c r="G160" s="115"/>
+      <c r="C160" s="125"/>
+      <c r="D160" s="125"/>
+      <c r="E160" s="125"/>
+      <c r="F160" s="125"/>
+      <c r="G160" s="126"/>
       <c r="H160" s="93"/>
     </row>
     <row r="161" spans="1:7">
@@ -6309,14 +6345,14 @@
       <c r="A175" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B175" s="124" t="s">
+      <c r="B175" s="119" t="s">
         <v>467</v>
       </c>
-      <c r="C175" s="125"/>
-      <c r="D175" s="125"/>
-      <c r="E175" s="125"/>
-      <c r="F175" s="125"/>
-      <c r="G175" s="126"/>
+      <c r="C175" s="120"/>
+      <c r="D175" s="120"/>
+      <c r="E175" s="120"/>
+      <c r="F175" s="120"/>
+      <c r="G175" s="121"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="30"/>
@@ -6511,14 +6547,14 @@
       <c r="A186" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B186" s="113" t="s">
+      <c r="B186" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="C186" s="116"/>
-      <c r="D186" s="116"/>
-      <c r="E186" s="116"/>
-      <c r="F186" s="116"/>
-      <c r="G186" s="117"/>
+      <c r="C186" s="117"/>
+      <c r="D186" s="117"/>
+      <c r="E186" s="117"/>
+      <c r="F186" s="117"/>
+      <c r="G186" s="118"/>
     </row>
     <row r="187" spans="1:7" s="84" customFormat="1">
       <c r="A187" s="64"/>
@@ -6702,14 +6738,14 @@
       <c r="A197" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B197" s="124" t="s">
+      <c r="B197" s="119" t="s">
         <v>465</v>
       </c>
-      <c r="C197" s="125"/>
-      <c r="D197" s="125"/>
-      <c r="E197" s="125"/>
-      <c r="F197" s="125"/>
-      <c r="G197" s="126"/>
+      <c r="C197" s="120"/>
+      <c r="D197" s="120"/>
+      <c r="E197" s="120"/>
+      <c r="F197" s="120"/>
+      <c r="G197" s="121"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="30"/>
@@ -6846,14 +6882,14 @@
       <c r="A205" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B205" s="124" t="s">
+      <c r="B205" s="119" t="s">
         <v>447</v>
       </c>
-      <c r="C205" s="125"/>
-      <c r="D205" s="125"/>
-      <c r="E205" s="125"/>
-      <c r="F205" s="125"/>
-      <c r="G205" s="126"/>
+      <c r="C205" s="120"/>
+      <c r="D205" s="120"/>
+      <c r="E205" s="120"/>
+      <c r="F205" s="120"/>
+      <c r="G205" s="121"/>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="30"/>
@@ -6971,14 +7007,14 @@
       <c r="A212" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B212" s="113" t="s">
+      <c r="B212" s="116" t="s">
         <v>526</v>
       </c>
-      <c r="C212" s="116"/>
-      <c r="D212" s="116"/>
-      <c r="E212" s="116"/>
-      <c r="F212" s="116"/>
-      <c r="G212" s="117"/>
+      <c r="C212" s="117"/>
+      <c r="D212" s="117"/>
+      <c r="E212" s="117"/>
+      <c r="F212" s="117"/>
+      <c r="G212" s="118"/>
     </row>
     <row r="213" spans="1:7" ht="13.5" customHeight="1">
       <c r="A213" s="83"/>
@@ -7042,14 +7078,14 @@
       <c r="A217" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B217" s="124" t="s">
+      <c r="B217" s="119" t="s">
         <v>489</v>
       </c>
-      <c r="C217" s="125"/>
-      <c r="D217" s="125"/>
-      <c r="E217" s="125"/>
-      <c r="F217" s="125"/>
-      <c r="G217" s="126"/>
+      <c r="C217" s="120"/>
+      <c r="D217" s="120"/>
+      <c r="E217" s="120"/>
+      <c r="F217" s="120"/>
+      <c r="G217" s="121"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="68"/>
@@ -7244,14 +7280,14 @@
       <c r="A228" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B228" s="113" t="s">
+      <c r="B228" s="116" t="s">
         <v>455</v>
       </c>
-      <c r="C228" s="116"/>
-      <c r="D228" s="116"/>
-      <c r="E228" s="116"/>
-      <c r="F228" s="116"/>
-      <c r="G228" s="117"/>
+      <c r="C228" s="117"/>
+      <c r="D228" s="117"/>
+      <c r="E228" s="117"/>
+      <c r="F228" s="117"/>
+      <c r="G228" s="118"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="30"/>
@@ -7380,14 +7416,14 @@
       <c r="A236" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B236" s="113" t="s">
+      <c r="B236" s="116" t="s">
         <v>544</v>
       </c>
-      <c r="C236" s="116"/>
-      <c r="D236" s="116"/>
-      <c r="E236" s="116"/>
-      <c r="F236" s="116"/>
-      <c r="G236" s="117"/>
+      <c r="C236" s="117"/>
+      <c r="D236" s="117"/>
+      <c r="E236" s="117"/>
+      <c r="F236" s="117"/>
+      <c r="G236" s="118"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="30"/>
@@ -7505,14 +7541,14 @@
       <c r="A243" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B243" s="113" t="s">
+      <c r="B243" s="116" t="s">
         <v>524</v>
       </c>
-      <c r="C243" s="116"/>
-      <c r="D243" s="116"/>
-      <c r="E243" s="116"/>
-      <c r="F243" s="116"/>
-      <c r="G243" s="117"/>
+      <c r="C243" s="117"/>
+      <c r="D243" s="117"/>
+      <c r="E243" s="117"/>
+      <c r="F243" s="117"/>
+      <c r="G243" s="118"/>
     </row>
     <row r="244" spans="1:8" ht="13.5" customHeight="1">
       <c r="A244" s="83"/>
@@ -7562,14 +7598,14 @@
       <c r="A247" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B247" s="113" t="s">
+      <c r="B247" s="116" t="s">
         <v>457</v>
       </c>
-      <c r="C247" s="116"/>
-      <c r="D247" s="116"/>
-      <c r="E247" s="116"/>
-      <c r="F247" s="116"/>
-      <c r="G247" s="117"/>
+      <c r="C247" s="117"/>
+      <c r="D247" s="117"/>
+      <c r="E247" s="117"/>
+      <c r="F247" s="117"/>
+      <c r="G247" s="118"/>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="30"/>
@@ -7650,14 +7686,14 @@
       <c r="A253" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B253" s="113" t="s">
+      <c r="B253" s="116" t="s">
         <v>485</v>
       </c>
-      <c r="C253" s="116"/>
-      <c r="D253" s="116"/>
-      <c r="E253" s="116"/>
-      <c r="F253" s="116"/>
-      <c r="G253" s="117"/>
+      <c r="C253" s="117"/>
+      <c r="D253" s="117"/>
+      <c r="E253" s="117"/>
+      <c r="F253" s="117"/>
+      <c r="G253" s="118"/>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="30"/>
@@ -7731,14 +7767,14 @@
       <c r="A258" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B258" s="113" t="s">
+      <c r="B258" s="116" t="s">
         <v>458</v>
       </c>
-      <c r="C258" s="116"/>
-      <c r="D258" s="116"/>
-      <c r="E258" s="116"/>
-      <c r="F258" s="116"/>
-      <c r="G258" s="117"/>
+      <c r="C258" s="117"/>
+      <c r="D258" s="117"/>
+      <c r="E258" s="117"/>
+      <c r="F258" s="117"/>
+      <c r="G258" s="118"/>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="30"/>
@@ -7814,26 +7850,36 @@
       <c r="A263" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B263" s="113" t="s">
+      <c r="B263" s="116" t="s">
         <v>460</v>
       </c>
-      <c r="C263" s="116"/>
-      <c r="D263" s="116"/>
-      <c r="E263" s="116"/>
-      <c r="F263" s="116"/>
-      <c r="G263" s="117"/>
+      <c r="C263" s="117"/>
+      <c r="D263" s="117"/>
+      <c r="E263" s="117"/>
+      <c r="F263" s="117"/>
+      <c r="G263" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B247:G247"/>
-    <mergeCell ref="B253:G253"/>
-    <mergeCell ref="B258:G258"/>
-    <mergeCell ref="B263:G263"/>
-    <mergeCell ref="B197:G197"/>
-    <mergeCell ref="B205:G205"/>
-    <mergeCell ref="B243:G243"/>
-    <mergeCell ref="B212:G212"/>
-    <mergeCell ref="B236:G236"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B152:G152"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B142:G142"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="B159:G159"/>
+    <mergeCell ref="B160:G160"/>
     <mergeCell ref="B186:G186"/>
     <mergeCell ref="B228:G228"/>
     <mergeCell ref="B217:G217"/>
@@ -7850,25 +7896,15 @@
     <mergeCell ref="B72:G72"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B247:G247"/>
+    <mergeCell ref="B253:G253"/>
+    <mergeCell ref="B258:G258"/>
+    <mergeCell ref="B263:G263"/>
+    <mergeCell ref="B197:G197"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="B243:G243"/>
+    <mergeCell ref="B212:G212"/>
+    <mergeCell ref="B236:G236"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7879,10 +7915,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD89A094-B856-4791-AA7C-3560703CFD26}">
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7891,192 +7927,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="133" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="134" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="134" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="134" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="134" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="134" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="134" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="134" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="134" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="134" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="134" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="134" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="134" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="134" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="134" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="134" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="134" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="134" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="134" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="134" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="134" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="134" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="134" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="134" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="134" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="134" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="134" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="134" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="30" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="134" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="30" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="134" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="30" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="134" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="30" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="134" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="30" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="134" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="30" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="134" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="30" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="134" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="30" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="134" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="30" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="134" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="30" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="135" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="30" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="30" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8477,24 +8523,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF3AC9B3629813499A0ACD8A875243EF" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="922d0740f907dd86cb660748b16b5452">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2611df27-1940-46be-a00f-4132d3fec05a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbb66662760600521b39f06a97f3e4fa" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8683,10 +8711,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A1C1A-9E5E-4F54-8085-06E04E5030EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE8E031-5F32-4C4F-89D7-DA1D52DF419D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="2611df27-1940-46be-a00f-4132d3fec05a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8710,20 +8767,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE8E031-5F32-4C4F-89D7-DA1D52DF419D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A1C1A-9E5E-4F54-8085-06E04E5030EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="2611df27-1940-46be-a00f-4132d3fec05a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/format-specifications/ansi-x12/4010/810/Pagero-ANSI-X12-4010-810-invoice-description-outbound.xlsx
+++ b/format-specifications/ansi-x12/4010/810/Pagero-ANSI-X12-4010-810-invoice-description-outbound.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\format\integration-resources\format-specifications\ansi-x12\4010\810\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EA0FBE-8B7B-413B-92D1-16A733BC1B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA45C7F-5DEB-4897-8CFB-D5E8CA3C8983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="579">
   <si>
     <t>Responsible</t>
   </si>
@@ -1779,6 +1779,21 @@
   </si>
   <si>
     <t>MSG*Free text data information~</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Added support for DTM*069 (Promised for Delivery)</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '069' as fixed value (Promised for Delivery)</t>
+  </si>
+  <si>
+    <t>DTM*069*20211103~</t>
   </si>
 </sst>
 </file>
@@ -2398,6 +2413,18 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2450,6 +2477,12 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -2458,6 +2491,24 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2477,46 +2528,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20 % - Dekorfärg3" xfId="1" builtinId="38"/>
-    <cellStyle name="Dålig" xfId="4" builtinId="27"/>
+    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Grey divider" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normaali 4" xfId="5" xr:uid="{F5AD1FA9-46B0-445B-98D9-9A36F7F32110}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2600,9 +2615,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2640,9 +2655,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2675,26 +2690,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2727,26 +2725,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2923,7 +2904,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D19"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3005,90 +2986,90 @@
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="102"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="109" t="s">
         <v>494</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="114"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="114"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="114"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="111"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="114"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="111"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="114"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="111"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="114"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
@@ -3100,18 +3081,18 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2"/>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
@@ -3129,9 +3110,15 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="B24" s="31">
+        <v>45173</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>575</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5">
@@ -3235,11 +3222,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H263"/>
+  <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A154" sqref="A154:XFD160"/>
+      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3673,14 +3660,14 @@
       <c r="A20" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B20" s="122" t="s">
+      <c r="B20" s="133" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="135"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="35"/>
@@ -3892,14 +3879,14 @@
       <c r="A31" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="119" t="s">
         <v>336</v>
       </c>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="126"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="121"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="28"/>
@@ -3975,14 +3962,14 @@
       <c r="A36" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B36" s="116" t="s">
+      <c r="B36" s="119" t="s">
         <v>340</v>
       </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="125"/>
-      <c r="E36" s="125"/>
-      <c r="F36" s="125"/>
-      <c r="G36" s="126"/>
+      <c r="C36" s="120"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="120"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="121"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="28"/>
@@ -4227,25 +4214,25 @@
       <c r="A49" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="119" t="s">
         <v>351</v>
       </c>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="126"/>
+      <c r="C49" s="120"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="121"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="28"/>
-      <c r="B50" s="116" t="s">
+      <c r="B50" s="119" t="s">
         <v>399</v>
       </c>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="126"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="121"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="28"/>
@@ -4447,13 +4434,13 @@
       <c r="A61" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B61" s="131" t="s">
+      <c r="B61" s="128" t="s">
         <v>553</v>
       </c>
-      <c r="C61" s="132"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="132"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
       <c r="G61" s="96" t="s">
         <v>554</v>
       </c>
@@ -4462,14 +4449,14 @@
       <c r="A62" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="B62" s="130" t="s">
+      <c r="B62" s="127" t="s">
         <v>511</v>
       </c>
-      <c r="C62" s="125"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="126"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="121"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="77"/>
@@ -4541,14 +4528,14 @@
       <c r="A67" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B67" s="116" t="s">
+      <c r="B67" s="119" t="s">
         <v>355</v>
       </c>
-      <c r="C67" s="125"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="126"/>
+      <c r="C67" s="120"/>
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="120"/>
+      <c r="G67" s="121"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="51"/>
@@ -4620,14 +4607,14 @@
       <c r="A72" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B72" s="116" t="s">
+      <c r="B72" s="119" t="s">
         <v>357</v>
       </c>
-      <c r="C72" s="125"/>
-      <c r="D72" s="125"/>
-      <c r="E72" s="125"/>
-      <c r="F72" s="125"/>
-      <c r="G72" s="126"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="120"/>
+      <c r="E72" s="120"/>
+      <c r="F72" s="120"/>
+      <c r="G72" s="121"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="51"/>
@@ -4699,14 +4686,14 @@
       <c r="A77" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B77" s="116" t="s">
+      <c r="B77" s="119" t="s">
         <v>359</v>
       </c>
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
-      <c r="E77" s="125"/>
-      <c r="F77" s="125"/>
-      <c r="G77" s="126"/>
+      <c r="C77" s="120"/>
+      <c r="D77" s="120"/>
+      <c r="E77" s="120"/>
+      <c r="F77" s="120"/>
+      <c r="G77" s="121"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="40"/>
@@ -4778,14 +4765,14 @@
       <c r="A82" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B82" s="116" t="s">
+      <c r="B82" s="119" t="s">
         <v>432</v>
       </c>
-      <c r="C82" s="125"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="125"/>
-      <c r="F82" s="125"/>
-      <c r="G82" s="126"/>
+      <c r="C82" s="120"/>
+      <c r="D82" s="120"/>
+      <c r="E82" s="120"/>
+      <c r="F82" s="120"/>
+      <c r="G82" s="121"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="35"/>
@@ -4947,25 +4934,25 @@
       <c r="A91" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B91" s="116" t="s">
+      <c r="B91" s="119" t="s">
         <v>421</v>
       </c>
-      <c r="C91" s="117"/>
-      <c r="D91" s="117"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="117"/>
-      <c r="G91" s="118"/>
+      <c r="C91" s="122"/>
+      <c r="D91" s="122"/>
+      <c r="E91" s="122"/>
+      <c r="F91" s="122"/>
+      <c r="G91" s="123"/>
     </row>
     <row r="92" spans="1:7" ht="12.75" customHeight="1">
       <c r="A92" s="28"/>
-      <c r="B92" s="116" t="s">
+      <c r="B92" s="119" t="s">
         <v>422</v>
       </c>
-      <c r="C92" s="117"/>
-      <c r="D92" s="117"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="117"/>
-      <c r="G92" s="118"/>
+      <c r="C92" s="122"/>
+      <c r="D92" s="122"/>
+      <c r="E92" s="122"/>
+      <c r="F92" s="122"/>
+      <c r="G92" s="123"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="28"/>
@@ -5286,135 +5273,135 @@
       <c r="A110" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B110" s="127" t="s">
+      <c r="B110" s="124" t="s">
         <v>365</v>
       </c>
-      <c r="C110" s="128"/>
-      <c r="D110" s="128"/>
-      <c r="E110" s="128"/>
-      <c r="F110" s="128"/>
-      <c r="G110" s="129"/>
+      <c r="C110" s="125"/>
+      <c r="D110" s="125"/>
+      <c r="E110" s="125"/>
+      <c r="F110" s="125"/>
+      <c r="G110" s="126"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="40"/>
-      <c r="B111" s="127" t="s">
+      <c r="B111" s="124" t="s">
         <v>376</v>
       </c>
-      <c r="C111" s="128"/>
-      <c r="D111" s="128"/>
-      <c r="E111" s="128"/>
-      <c r="F111" s="128"/>
-      <c r="G111" s="129"/>
+      <c r="C111" s="125"/>
+      <c r="D111" s="125"/>
+      <c r="E111" s="125"/>
+      <c r="F111" s="125"/>
+      <c r="G111" s="126"/>
     </row>
     <row r="112" spans="1:7" ht="12.75" customHeight="1">
       <c r="A112" s="40"/>
-      <c r="B112" s="127" t="s">
+      <c r="B112" s="124" t="s">
         <v>377</v>
       </c>
-      <c r="C112" s="128"/>
-      <c r="D112" s="128"/>
-      <c r="E112" s="128"/>
-      <c r="F112" s="128"/>
-      <c r="G112" s="129"/>
+      <c r="C112" s="125"/>
+      <c r="D112" s="125"/>
+      <c r="E112" s="125"/>
+      <c r="F112" s="125"/>
+      <c r="G112" s="126"/>
     </row>
     <row r="113" spans="1:7" ht="12.75" customHeight="1">
       <c r="A113" s="40"/>
-      <c r="B113" s="127" t="s">
+      <c r="B113" s="124" t="s">
         <v>482</v>
       </c>
-      <c r="C113" s="128"/>
-      <c r="D113" s="128"/>
-      <c r="E113" s="128"/>
-      <c r="F113" s="128"/>
-      <c r="G113" s="129"/>
+      <c r="C113" s="125"/>
+      <c r="D113" s="125"/>
+      <c r="E113" s="125"/>
+      <c r="F113" s="125"/>
+      <c r="G113" s="126"/>
     </row>
     <row r="114" spans="1:7" ht="12.75" customHeight="1">
       <c r="A114" s="40"/>
-      <c r="B114" s="127" t="s">
+      <c r="B114" s="124" t="s">
         <v>366</v>
       </c>
-      <c r="C114" s="128"/>
-      <c r="D114" s="128"/>
-      <c r="E114" s="128"/>
-      <c r="F114" s="128"/>
-      <c r="G114" s="129"/>
+      <c r="C114" s="125"/>
+      <c r="D114" s="125"/>
+      <c r="E114" s="125"/>
+      <c r="F114" s="125"/>
+      <c r="G114" s="126"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="40"/>
-      <c r="B115" s="127" t="s">
+      <c r="B115" s="124" t="s">
         <v>376</v>
       </c>
-      <c r="C115" s="128"/>
-      <c r="D115" s="128"/>
-      <c r="E115" s="128"/>
-      <c r="F115" s="128"/>
-      <c r="G115" s="129"/>
+      <c r="C115" s="125"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="125"/>
+      <c r="G115" s="126"/>
     </row>
     <row r="116" spans="1:7" ht="12.75" customHeight="1">
       <c r="A116" s="40"/>
-      <c r="B116" s="127" t="s">
+      <c r="B116" s="124" t="s">
         <v>378</v>
       </c>
-      <c r="C116" s="128"/>
-      <c r="D116" s="128"/>
-      <c r="E116" s="128"/>
-      <c r="F116" s="128"/>
-      <c r="G116" s="129"/>
+      <c r="C116" s="125"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
+      <c r="F116" s="125"/>
+      <c r="G116" s="126"/>
     </row>
     <row r="117" spans="1:7" ht="12.75" customHeight="1">
       <c r="A117" s="40"/>
-      <c r="B117" s="127" t="s">
+      <c r="B117" s="124" t="s">
         <v>483</v>
       </c>
-      <c r="C117" s="128"/>
-      <c r="D117" s="128"/>
-      <c r="E117" s="128"/>
-      <c r="F117" s="128"/>
-      <c r="G117" s="129"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="125"/>
+      <c r="F117" s="125"/>
+      <c r="G117" s="126"/>
     </row>
     <row r="118" spans="1:7" ht="12.75" customHeight="1">
       <c r="A118" s="40"/>
-      <c r="B118" s="127" t="s">
+      <c r="B118" s="124" t="s">
         <v>367</v>
       </c>
-      <c r="C118" s="128"/>
-      <c r="D118" s="128"/>
-      <c r="E118" s="128"/>
-      <c r="F118" s="128"/>
-      <c r="G118" s="129"/>
+      <c r="C118" s="125"/>
+      <c r="D118" s="125"/>
+      <c r="E118" s="125"/>
+      <c r="F118" s="125"/>
+      <c r="G118" s="126"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="28"/>
-      <c r="B119" s="116" t="s">
+      <c r="B119" s="119" t="s">
         <v>376</v>
       </c>
-      <c r="C119" s="117"/>
-      <c r="D119" s="117"/>
-      <c r="E119" s="117"/>
-      <c r="F119" s="117"/>
-      <c r="G119" s="118"/>
+      <c r="C119" s="122"/>
+      <c r="D119" s="122"/>
+      <c r="E119" s="122"/>
+      <c r="F119" s="122"/>
+      <c r="G119" s="123"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="28"/>
-      <c r="B120" s="116" t="s">
+      <c r="B120" s="119" t="s">
         <v>379</v>
       </c>
-      <c r="C120" s="117"/>
-      <c r="D120" s="117"/>
-      <c r="E120" s="117"/>
-      <c r="F120" s="117"/>
-      <c r="G120" s="118"/>
+      <c r="C120" s="122"/>
+      <c r="D120" s="122"/>
+      <c r="E120" s="122"/>
+      <c r="F120" s="122"/>
+      <c r="G120" s="123"/>
     </row>
     <row r="121" spans="1:7" ht="12.75" customHeight="1">
       <c r="A121" s="28"/>
-      <c r="B121" s="116" t="s">
+      <c r="B121" s="119" t="s">
         <v>484</v>
       </c>
-      <c r="C121" s="117"/>
-      <c r="D121" s="117"/>
-      <c r="E121" s="117"/>
-      <c r="F121" s="117"/>
-      <c r="G121" s="118"/>
+      <c r="C121" s="122"/>
+      <c r="D121" s="122"/>
+      <c r="E121" s="122"/>
+      <c r="F121" s="122"/>
+      <c r="G121" s="123"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="28"/>
@@ -5693,14 +5680,14 @@
       <c r="A136" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B136" s="116" t="s">
+      <c r="B136" s="119" t="s">
         <v>380</v>
       </c>
-      <c r="C136" s="117"/>
-      <c r="D136" s="117"/>
-      <c r="E136" s="117"/>
-      <c r="F136" s="117"/>
-      <c r="G136" s="118"/>
+      <c r="C136" s="122"/>
+      <c r="D136" s="122"/>
+      <c r="E136" s="122"/>
+      <c r="F136" s="122"/>
+      <c r="G136" s="123"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="28"/>
@@ -5712,370 +5699,388 @@
       <c r="G137" s="28"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="28"/>
-      <c r="B138" s="32"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="34"/>
-      <c r="G138" s="28"/>
+      <c r="A138" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B138" s="48"/>
+      <c r="C138" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D138" s="48"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="48"/>
+      <c r="G138" s="48"/>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="B139" s="48"/>
-      <c r="C139" s="50" t="s">
+      <c r="A139" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B139" s="32">
+        <v>374</v>
+      </c>
+      <c r="C139" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D139" s="48"/>
-      <c r="E139" s="48"/>
-      <c r="F139" s="48"/>
-      <c r="G139" s="48"/>
+      <c r="D139" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="E139" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F139" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="G139" s="28" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="28" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B140" s="32">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C140" s="33" t="s">
         <v>115</v>
       </c>
       <c r="D140" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F140" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="G140" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="B141" s="119" t="s">
+        <v>578</v>
+      </c>
+      <c r="C141" s="122"/>
+      <c r="D141" s="122"/>
+      <c r="E141" s="122"/>
+      <c r="F141" s="122"/>
+      <c r="G141" s="123"/>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="28"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="34"/>
+      <c r="F142" s="34"/>
+      <c r="G142" s="28"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B143" s="48"/>
+      <c r="C143" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D143" s="48"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="48"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B144" s="32">
+        <v>374</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D144" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E140" s="34" t="s">
+      <c r="E144" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F140" s="34" t="s">
+      <c r="F144" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="G140" s="28" t="s">
+      <c r="G144" s="28" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="28" t="s">
+    <row r="145" spans="1:7">
+      <c r="A145" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B141" s="32">
+      <c r="B145" s="32">
         <v>373</v>
-      </c>
-      <c r="C141" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D141" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E141" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F141" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="G141" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="B142" s="116" t="s">
-        <v>386</v>
-      </c>
-      <c r="C142" s="117"/>
-      <c r="D142" s="117"/>
-      <c r="E142" s="117"/>
-      <c r="F142" s="117"/>
-      <c r="G142" s="118"/>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="28"/>
-      <c r="B143" s="32"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="34"/>
-      <c r="F143" s="34"/>
-      <c r="G143" s="28"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="B144" s="48"/>
-      <c r="C144" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D144" s="48"/>
-      <c r="E144" s="48"/>
-      <c r="F144" s="48"/>
-      <c r="G144" s="48"/>
-    </row>
-    <row r="145" spans="1:8" ht="25.5">
-      <c r="A145" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="B145" s="32">
-        <v>374</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>115</v>
       </c>
       <c r="D145" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F145" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="G145" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="B146" s="119" t="s">
+        <v>386</v>
+      </c>
+      <c r="C146" s="122"/>
+      <c r="D146" s="122"/>
+      <c r="E146" s="122"/>
+      <c r="F146" s="122"/>
+      <c r="G146" s="123"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="28"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="34"/>
+      <c r="F147" s="34"/>
+      <c r="G147" s="28"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B148" s="48"/>
+      <c r="C148" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D148" s="48"/>
+      <c r="E148" s="48"/>
+      <c r="F148" s="48"/>
+      <c r="G148" s="48"/>
+    </row>
+    <row r="149" spans="1:7" ht="25.5">
+      <c r="A149" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B149" s="32">
+        <v>374</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D149" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E145" s="34" t="s">
+      <c r="E149" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F145" s="34" t="s">
+      <c r="F149" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="G145" s="28" t="s">
+      <c r="G149" s="28" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="28" t="s">
+    <row r="150" spans="1:7">
+      <c r="A150" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B146" s="32">
+      <c r="B150" s="32">
         <v>373</v>
-      </c>
-      <c r="C146" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D146" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F146" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="G146" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
-      <c r="A147" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="B147" s="116" t="s">
-        <v>389</v>
-      </c>
-      <c r="C147" s="117"/>
-      <c r="D147" s="117"/>
-      <c r="E147" s="117"/>
-      <c r="F147" s="117"/>
-      <c r="G147" s="118"/>
-    </row>
-    <row r="148" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A148" s="28"/>
-      <c r="B148" s="32"/>
-      <c r="C148" s="33"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="34"/>
-      <c r="F148" s="34"/>
-      <c r="G148" s="28"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="48" t="s">
-        <v>248</v>
-      </c>
-      <c r="B149" s="48"/>
-      <c r="C149" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D149" s="48"/>
-      <c r="E149" s="48"/>
-      <c r="F149" s="48"/>
-      <c r="G149" s="48"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="B150" s="32">
-        <v>374</v>
       </c>
       <c r="C150" s="33" t="s">
         <v>115</v>
       </c>
       <c r="D150" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F150" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="G150" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="B151" s="119" t="s">
+        <v>389</v>
+      </c>
+      <c r="C151" s="122"/>
+      <c r="D151" s="122"/>
+      <c r="E151" s="122"/>
+      <c r="F151" s="122"/>
+      <c r="G151" s="123"/>
+    </row>
+    <row r="152" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A152" s="28"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="33"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="34"/>
+      <c r="F152" s="34"/>
+      <c r="G152" s="28"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B153" s="48"/>
+      <c r="C153" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D153" s="48"/>
+      <c r="E153" s="48"/>
+      <c r="F153" s="48"/>
+      <c r="G153" s="48"/>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B154" s="32">
+        <v>374</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D154" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="E150" s="34" t="s">
+      <c r="E154" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F150" s="34" t="s">
+      <c r="F154" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="G150" s="28" t="s">
+      <c r="G154" s="28" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="28" t="s">
+    <row r="155" spans="1:7">
+      <c r="A155" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="B151" s="32">
+      <c r="B155" s="32">
         <v>373</v>
       </c>
-      <c r="C151" s="33" t="s">
+      <c r="C155" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="D151" s="28" t="s">
+      <c r="D155" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E151" s="34" t="s">
+      <c r="E155" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F151" s="34" t="s">
+      <c r="F155" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="G151" s="28" t="s">
+      <c r="G155" s="28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="35" t="s">
+    <row r="156" spans="1:7">
+      <c r="A156" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="B152" s="116" t="s">
+      <c r="B156" s="119" t="s">
         <v>389</v>
       </c>
-      <c r="C152" s="117"/>
-      <c r="D152" s="117"/>
-      <c r="E152" s="117"/>
-      <c r="F152" s="117"/>
-      <c r="G152" s="118"/>
-    </row>
-    <row r="153" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A153" s="28"/>
-      <c r="B153" s="32"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="34"/>
-      <c r="G153" s="28"/>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" s="97" t="s">
-        <v>560</v>
-      </c>
-      <c r="B154" s="49"/>
-      <c r="C154" s="49"/>
-      <c r="D154" s="49" t="s">
-        <v>353</v>
-      </c>
-      <c r="E154" s="49"/>
-      <c r="F154" s="49"/>
-      <c r="G154" s="49"/>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="A155" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="B155" s="32">
-        <v>128</v>
-      </c>
-      <c r="C155" s="33"/>
-      <c r="D155" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="E155" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F155" s="64" t="s">
-        <v>563</v>
-      </c>
-      <c r="G155" s="82" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="38.25">
-      <c r="A156" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="B156" s="32">
-        <v>127</v>
-      </c>
-      <c r="C156" s="33"/>
-      <c r="D156" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="E156" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F156" s="64" t="s">
-        <v>566</v>
-      </c>
-      <c r="G156" s="98" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" s="35" t="s">
-        <v>568</v>
-      </c>
+      <c r="C156" s="122"/>
+      <c r="D156" s="122"/>
+      <c r="E156" s="122"/>
+      <c r="F156" s="122"/>
+      <c r="G156" s="123"/>
+    </row>
+    <row r="157" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A157" s="28"/>
       <c r="B157" s="32"/>
       <c r="C157" s="33"/>
       <c r="D157" s="28"/>
       <c r="E157" s="34"/>
-      <c r="F157" s="64"/>
-      <c r="G157" s="82"/>
-    </row>
-    <row r="158" spans="1:8" ht="25.5">
-      <c r="A158" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="B158" s="32">
-        <v>933</v>
-      </c>
-      <c r="C158" s="33"/>
-      <c r="D158" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="E158" s="34" t="s">
-        <v>571</v>
-      </c>
-      <c r="F158" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="G158" s="82"/>
-    </row>
-    <row r="159" spans="1:8">
-      <c r="A159" s="99" t="s">
-        <v>315</v>
-      </c>
-      <c r="B159" s="116" t="s">
-        <v>572</v>
-      </c>
-      <c r="C159" s="125"/>
-      <c r="D159" s="125"/>
-      <c r="E159" s="125"/>
-      <c r="F159" s="125"/>
-      <c r="G159" s="126"/>
-      <c r="H159" s="93"/>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" s="28"/>
-      <c r="B160" s="116" t="s">
-        <v>573</v>
-      </c>
-      <c r="C160" s="125"/>
-      <c r="D160" s="125"/>
-      <c r="E160" s="125"/>
-      <c r="F160" s="125"/>
-      <c r="G160" s="126"/>
-      <c r="H160" s="93"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="28"/>
+      <c r="F157" s="34"/>
+      <c r="G157" s="28"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="97" t="s">
+        <v>560</v>
+      </c>
+      <c r="B158" s="49"/>
+      <c r="C158" s="49"/>
+      <c r="D158" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="E158" s="49"/>
+      <c r="F158" s="49"/>
+      <c r="G158" s="49"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="B159" s="32">
+        <v>128</v>
+      </c>
+      <c r="C159" s="33"/>
+      <c r="D159" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="E159" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F159" s="64" t="s">
+        <v>563</v>
+      </c>
+      <c r="G159" s="82" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="38.25">
+      <c r="A160" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="B160" s="32">
+        <v>127</v>
+      </c>
+      <c r="C160" s="33"/>
+      <c r="D160" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="E160" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F160" s="64" t="s">
+        <v>566</v>
+      </c>
+      <c r="G160" s="98" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161" s="35" t="s">
+        <v>568</v>
+      </c>
       <c r="B161" s="32"/>
       <c r="C161" s="33"/>
       <c r="D161" s="28"/>
@@ -6083,233 +6088,204 @@
       <c r="F161" s="64"/>
       <c r="G161" s="82"/>
     </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="44" t="s">
+    <row r="162" spans="1:8" ht="25.5">
+      <c r="A162" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="B162" s="32">
+        <v>933</v>
+      </c>
+      <c r="C162" s="33"/>
+      <c r="D162" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="E162" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="F162" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="G162" s="82"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="99" t="s">
+        <v>315</v>
+      </c>
+      <c r="B163" s="119" t="s">
+        <v>572</v>
+      </c>
+      <c r="C163" s="120"/>
+      <c r="D163" s="120"/>
+      <c r="E163" s="120"/>
+      <c r="F163" s="120"/>
+      <c r="G163" s="121"/>
+      <c r="H163" s="93"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="28"/>
+      <c r="B164" s="119" t="s">
+        <v>573</v>
+      </c>
+      <c r="C164" s="120"/>
+      <c r="D164" s="120"/>
+      <c r="E164" s="120"/>
+      <c r="F164" s="120"/>
+      <c r="G164" s="121"/>
+      <c r="H164" s="93"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="28"/>
+      <c r="B165" s="32"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="34"/>
+      <c r="F165" s="64"/>
+      <c r="G165" s="82"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B162" s="45"/>
-      <c r="C162" s="46"/>
-      <c r="D162" s="44"/>
-      <c r="E162" s="47"/>
-      <c r="F162" s="47"/>
-      <c r="G162" s="44"/>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" s="48" t="s">
+      <c r="B166" s="45"/>
+      <c r="C166" s="46"/>
+      <c r="D166" s="44"/>
+      <c r="E166" s="47"/>
+      <c r="F166" s="47"/>
+      <c r="G166" s="44"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="B163" s="50"/>
-      <c r="C163" s="50" t="s">
+      <c r="B167" s="50"/>
+      <c r="C167" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D163" s="48"/>
-      <c r="E163" s="50"/>
-      <c r="F163" s="50"/>
-      <c r="G163" s="48"/>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" s="30" t="s">
+      <c r="D167" s="48"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="50"/>
+      <c r="G167" s="48"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="B164" s="32">
+      <c r="B168" s="32">
         <v>350</v>
-      </c>
-      <c r="C164" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D164" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E164" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F164" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="G164" s="30"/>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B165" s="41">
-        <v>358</v>
-      </c>
-      <c r="C165" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="E165" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="F165" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="G165" s="40" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="B166" s="54">
-        <v>355</v>
-      </c>
-      <c r="C166" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="E166" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="F166" s="55" t="s">
-        <v>428</v>
-      </c>
-      <c r="G166" s="56" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="B167" s="52">
-        <v>212</v>
-      </c>
-      <c r="C167" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="E167" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="F167" s="52" t="s">
-        <v>466</v>
-      </c>
-      <c r="G167" s="51" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="B168" s="32">
-        <v>639</v>
       </c>
       <c r="C168" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D168" s="30" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="E168" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F168" s="34"/>
-      <c r="G168" s="30" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="F168" s="34" t="s">
+        <v>429</v>
+      </c>
+      <c r="G168" s="30"/>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="30" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B169" s="41">
-        <v>235</v>
+        <v>358</v>
       </c>
       <c r="C169" s="41" t="s">
         <v>25</v>
       </c>
       <c r="D169" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E169" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="E169" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F169" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="G169" s="40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B170" s="54">
+        <v>355</v>
+      </c>
+      <c r="C170" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="E170" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="G169" s="53" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="B170" s="41">
-        <v>234</v>
-      </c>
-      <c r="C170" s="41" t="s">
+      <c r="F170" s="55" t="s">
+        <v>428</v>
+      </c>
+      <c r="G170" s="56" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B171" s="52">
+        <v>212</v>
+      </c>
+      <c r="C171" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D170" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="E170" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F170" s="41">
-        <v>6008189</v>
-      </c>
-      <c r="G170" s="40" t="s">
+      <c r="D171" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E171" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F171" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="G171" s="51" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="B171" s="41">
-        <v>235</v>
-      </c>
-      <c r="C171" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D171" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E171" s="41" t="s">
+    <row r="172" spans="1:8">
+      <c r="A172" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B172" s="32">
+        <v>639</v>
+      </c>
+      <c r="C172" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E172" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G171" s="53" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="B172" s="41">
-        <v>234</v>
-      </c>
-      <c r="C172" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D172" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="E172" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F172" s="41">
-        <v>85899</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="F172" s="34"/>
+      <c r="G172" s="30" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="30" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="B173" s="41">
         <v>235</v>
       </c>
       <c r="C173" s="41" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="D173" s="40" t="s">
         <v>187</v>
@@ -6318,18 +6294,18 @@
         <v>29</v>
       </c>
       <c r="G173" s="53" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="30" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="B174" s="41">
         <v>234</v>
       </c>
       <c r="C174" s="41" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="D174" s="40" t="s">
         <v>154</v>
@@ -6338,336 +6314,343 @@
         <v>155</v>
       </c>
       <c r="F174" s="41">
+        <v>6008189</v>
+      </c>
+      <c r="G174" s="40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B175" s="41">
+        <v>235</v>
+      </c>
+      <c r="C175" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D175" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E175" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G175" s="53" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B176" s="41">
+        <v>234</v>
+      </c>
+      <c r="C176" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D176" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E176" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F176" s="41">
+        <v>85899</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B177" s="41">
+        <v>235</v>
+      </c>
+      <c r="C177" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D177" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E177" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G177" s="53" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B178" s="41">
+        <v>234</v>
+      </c>
+      <c r="C178" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D178" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E178" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F178" s="41">
         <v>12234</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" s="83" t="s">
+    <row r="179" spans="1:7">
+      <c r="A179" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B175" s="119" t="s">
+      <c r="B179" s="130" t="s">
         <v>467</v>
       </c>
-      <c r="C175" s="120"/>
-      <c r="D175" s="120"/>
-      <c r="E175" s="120"/>
-      <c r="F175" s="120"/>
-      <c r="G175" s="121"/>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" s="30"/>
-      <c r="B176" s="41"/>
-      <c r="C176" s="41"/>
-      <c r="D176" s="40"/>
-      <c r="E176" s="41"/>
-      <c r="F176" s="41"/>
-      <c r="G176" s="40"/>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" s="48" t="s">
+      <c r="C179" s="131"/>
+      <c r="D179" s="131"/>
+      <c r="E179" s="131"/>
+      <c r="F179" s="131"/>
+      <c r="G179" s="132"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="30"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="41"/>
+      <c r="D180" s="40"/>
+      <c r="E180" s="41"/>
+      <c r="F180" s="41"/>
+      <c r="G180" s="40"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="B177" s="48"/>
-      <c r="C177" s="50" t="s">
+      <c r="B181" s="48"/>
+      <c r="C181" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D177" s="48"/>
-      <c r="E177" s="48"/>
-      <c r="F177" s="48"/>
-      <c r="G177" s="48"/>
-    </row>
-    <row r="178" spans="1:7" s="84" customFormat="1" ht="89.25">
-      <c r="A178" s="64" t="s">
+      <c r="D181" s="48"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
+    </row>
+    <row r="182" spans="1:7" s="84" customFormat="1" ht="89.25">
+      <c r="A182" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="B178" s="32" t="s">
+      <c r="B182" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="C178" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D178" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="E178" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="F178" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="G178" s="64" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" s="84" customFormat="1">
-      <c r="A179" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="B179" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="C179" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D179" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="E179" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="F179" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="G179" s="64" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" s="84" customFormat="1">
-      <c r="A180" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="B180" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C180" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D180" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="E180" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="F180" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="G180" s="64" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" s="84" customFormat="1">
-      <c r="A181" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="B181" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="C181" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D181" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="E181" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="F181" s="34"/>
-    </row>
-    <row r="182" spans="1:7" s="84" customFormat="1">
-      <c r="A182" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="B182" s="32" t="s">
-        <v>306</v>
       </c>
       <c r="C182" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D182" s="64" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E182" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="F182" s="34"/>
-      <c r="G182" s="64"/>
+        <v>29</v>
+      </c>
+      <c r="F182" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="G182" s="64" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="183" spans="1:7" s="84" customFormat="1">
       <c r="A183" s="64" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B183" s="32" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C183" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D183" s="64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E183" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="F183" s="34"/>
-      <c r="G183" s="64"/>
+        <v>302</v>
+      </c>
+      <c r="F183" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="G183" s="64" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="184" spans="1:7" s="84" customFormat="1">
       <c r="A184" s="64" t="s">
-        <v>450</v>
-      </c>
-      <c r="B184" s="32">
-        <v>662</v>
+        <v>291</v>
+      </c>
+      <c r="B184" s="32" t="s">
+        <v>299</v>
       </c>
       <c r="C184" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D184" s="64" t="s">
-        <v>454</v>
+        <v>297</v>
       </c>
       <c r="E184" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="F184" s="34"/>
-      <c r="G184" s="64"/>
+        <v>157</v>
+      </c>
+      <c r="F184" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="G184" s="64" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="185" spans="1:7" s="84" customFormat="1">
       <c r="A185" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="B185" s="32">
-        <v>828</v>
+        <v>292</v>
+      </c>
+      <c r="B185" s="32" t="s">
+        <v>304</v>
       </c>
       <c r="C185" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D185" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="E185" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F185" s="34"/>
+    </row>
+    <row r="186" spans="1:7" s="84" customFormat="1">
+      <c r="A186" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="B186" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="C186" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D186" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="E186" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F186" s="34"/>
+      <c r="G186" s="64"/>
+    </row>
+    <row r="187" spans="1:7" s="84" customFormat="1">
+      <c r="A187" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="B187" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C187" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D187" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="E187" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F187" s="34"/>
+      <c r="G187" s="64"/>
+    </row>
+    <row r="188" spans="1:7" s="84" customFormat="1">
+      <c r="A188" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="B188" s="32">
+        <v>662</v>
+      </c>
+      <c r="C188" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D188" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="E188" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F188" s="34"/>
+      <c r="G188" s="64"/>
+    </row>
+    <row r="189" spans="1:7" s="84" customFormat="1">
+      <c r="A189" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="B189" s="32">
+        <v>828</v>
+      </c>
+      <c r="C189" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D189" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="E185" s="64" t="s">
+      <c r="E189" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="F185" s="34" t="s">
+      <c r="F189" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="G185" s="64" t="s">
+      <c r="G189" s="64" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="186" spans="1:7" s="84" customFormat="1">
-      <c r="A186" s="83" t="s">
+    <row r="190" spans="1:7" s="84" customFormat="1">
+      <c r="A190" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B186" s="116" t="s">
+      <c r="B190" s="119" t="s">
         <v>455</v>
       </c>
-      <c r="C186" s="117"/>
-      <c r="D186" s="117"/>
-      <c r="E186" s="117"/>
-      <c r="F186" s="117"/>
-      <c r="G186" s="118"/>
-    </row>
-    <row r="187" spans="1:7" s="84" customFormat="1">
-      <c r="A187" s="64"/>
-      <c r="B187" s="32"/>
-      <c r="C187" s="64"/>
-      <c r="D187" s="64"/>
-      <c r="E187" s="64"/>
-      <c r="F187" s="64"/>
-      <c r="G187" s="64"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="48" t="s">
+      <c r="C190" s="122"/>
+      <c r="D190" s="122"/>
+      <c r="E190" s="122"/>
+      <c r="F190" s="122"/>
+      <c r="G190" s="123"/>
+    </row>
+    <row r="191" spans="1:7" s="84" customFormat="1">
+      <c r="A191" s="64"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="64"/>
+      <c r="D191" s="64"/>
+      <c r="E191" s="64"/>
+      <c r="F191" s="64"/>
+      <c r="G191" s="64"/>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="B188" s="48"/>
-      <c r="C188" s="50" t="s">
+      <c r="B192" s="48"/>
+      <c r="C192" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D188" s="48"/>
-      <c r="E188" s="48"/>
-      <c r="F188" s="48"/>
-      <c r="G188" s="48"/>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="B189" s="41">
-        <v>687</v>
-      </c>
-      <c r="C189" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D189" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="E189" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="F189" s="57"/>
-      <c r="G189" s="40"/>
-    </row>
-    <row r="190" spans="1:7">
-      <c r="A190" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="B190" s="41">
-        <v>236</v>
-      </c>
-      <c r="C190" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D190" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="E190" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F190" s="57"/>
-      <c r="G190" s="40"/>
-    </row>
-    <row r="191" spans="1:7">
-      <c r="A191" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="B191" s="41">
-        <v>212</v>
-      </c>
-      <c r="C191" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D191" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E191" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="F191" s="57"/>
-      <c r="G191" s="40"/>
-    </row>
-    <row r="192" spans="1:7">
-      <c r="A192" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="B192" s="41">
-        <v>380</v>
-      </c>
-      <c r="C192" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D192" s="40" t="s">
-        <v>439</v>
-      </c>
-      <c r="E192" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="F192" s="57"/>
-      <c r="G192" s="40"/>
+      <c r="D192" s="48"/>
+      <c r="E192" s="48"/>
+      <c r="F192" s="48"/>
+      <c r="G192" s="48"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="30" t="s">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="B193" s="41">
-        <v>355</v>
+        <v>687</v>
       </c>
       <c r="C193" s="41" t="s">
         <v>115</v>
       </c>
       <c r="D193" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="E193" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="E193" s="42" t="s">
         <v>29</v>
       </c>
       <c r="F193" s="57"/>
@@ -6675,16 +6658,16 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="30" t="s">
-        <v>441</v>
+        <v>282</v>
       </c>
       <c r="B194" s="41">
-        <v>648</v>
+        <v>236</v>
       </c>
       <c r="C194" s="41" t="s">
         <v>115</v>
       </c>
       <c r="D194" s="40" t="s">
-        <v>442</v>
+        <v>283</v>
       </c>
       <c r="E194" s="63" t="s">
         <v>109</v>
@@ -6694,1195 +6677,1261 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195" s="30" t="s">
-        <v>443</v>
+        <v>284</v>
       </c>
       <c r="B195" s="41">
-        <v>649</v>
+        <v>212</v>
       </c>
       <c r="C195" s="41" t="s">
         <v>115</v>
       </c>
       <c r="D195" s="40" t="s">
-        <v>444</v>
+        <v>152</v>
       </c>
       <c r="E195" s="42" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F195" s="57"/>
       <c r="G195" s="40"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="30" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B196" s="41">
-        <v>782</v>
+        <v>380</v>
       </c>
       <c r="C196" s="41" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="D196" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="E196" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="F196" s="41" t="s">
-        <v>464</v>
-      </c>
-      <c r="G196" s="40" t="s">
-        <v>446</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="E196" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F196" s="57"/>
+      <c r="G196" s="40"/>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="B197" s="119" t="s">
-        <v>465</v>
-      </c>
-      <c r="C197" s="120"/>
-      <c r="D197" s="120"/>
-      <c r="E197" s="120"/>
-      <c r="F197" s="120"/>
-      <c r="G197" s="121"/>
+      <c r="A197" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B197" s="41">
+        <v>355</v>
+      </c>
+      <c r="C197" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D197" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E197" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F197" s="57"/>
+      <c r="G197" s="40"/>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="30"/>
-      <c r="B198" s="41"/>
-      <c r="C198" s="41"/>
-      <c r="D198" s="40"/>
-      <c r="E198" s="41"/>
-      <c r="F198" s="41"/>
+      <c r="A198" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="B198" s="41">
+        <v>648</v>
+      </c>
+      <c r="C198" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D198" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="E198" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="F198" s="57"/>
       <c r="G198" s="40"/>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="B199" s="49"/>
-      <c r="C199" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D199" s="48"/>
-      <c r="E199" s="50"/>
-      <c r="F199" s="50"/>
-      <c r="G199" s="48"/>
+      <c r="A199" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B199" s="41">
+        <v>649</v>
+      </c>
+      <c r="C199" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D199" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="E199" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F199" s="57"/>
+      <c r="G199" s="40"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B200" s="32">
-        <v>349</v>
-      </c>
-      <c r="C200" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="B200" s="41">
+        <v>782</v>
+      </c>
+      <c r="C200" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D200" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E200" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F200" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="G200" s="30" t="s">
-        <v>262</v>
+      <c r="D200" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="E200" s="63" t="s">
+        <v>302</v>
+      </c>
+      <c r="F200" s="41" t="s">
+        <v>464</v>
+      </c>
+      <c r="G200" s="40" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B201" s="32">
-        <v>750</v>
-      </c>
-      <c r="C201" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D201" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E201" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="F201" s="34"/>
-      <c r="G201" s="30" t="s">
-        <v>188</v>
-      </c>
+      <c r="A201" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="B201" s="130" t="s">
+        <v>465</v>
+      </c>
+      <c r="C201" s="131"/>
+      <c r="D201" s="131"/>
+      <c r="E201" s="131"/>
+      <c r="F201" s="131"/>
+      <c r="G201" s="132"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B202" s="32">
-        <v>559</v>
-      </c>
-      <c r="C202" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D202" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="E202" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F202" s="34"/>
-      <c r="G202" s="30" t="s">
-        <v>188</v>
-      </c>
+      <c r="A202" s="30"/>
+      <c r="B202" s="41"/>
+      <c r="C202" s="41"/>
+      <c r="D202" s="40"/>
+      <c r="E202" s="41"/>
+      <c r="F202" s="41"/>
+      <c r="G202" s="40"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B203" s="32">
-        <v>751</v>
-      </c>
-      <c r="C203" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D203" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E203" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F203" s="34"/>
-      <c r="G203" s="30" t="s">
-        <v>188</v>
-      </c>
+      <c r="A203" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B203" s="49"/>
+      <c r="C203" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D203" s="48"/>
+      <c r="E203" s="50"/>
+      <c r="F203" s="50"/>
+      <c r="G203" s="48"/>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="30" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B204" s="32">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C204" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D204" s="30" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="E204" s="34" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="F204" s="34" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G204" s="30" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A205" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="B205" s="119" t="s">
-        <v>447</v>
-      </c>
-      <c r="C205" s="120"/>
-      <c r="D205" s="120"/>
-      <c r="E205" s="120"/>
-      <c r="F205" s="120"/>
-      <c r="G205" s="121"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B205" s="32">
+        <v>750</v>
+      </c>
+      <c r="C205" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D205" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E205" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F205" s="34"/>
+      <c r="G205" s="30" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="30"/>
-      <c r="B206" s="32"/>
-      <c r="C206" s="37"/>
-      <c r="D206" s="30"/>
-      <c r="E206" s="34"/>
+      <c r="A206" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B206" s="32">
+        <v>559</v>
+      </c>
+      <c r="C206" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D206" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E206" s="34" t="s">
+        <v>29</v>
+      </c>
       <c r="F206" s="34"/>
-      <c r="G206" s="30"/>
-    </row>
-    <row r="207" spans="1:7" ht="38.25">
-      <c r="A207" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="B207" s="49"/>
-      <c r="C207" s="50" t="s">
+      <c r="G206" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B207" s="32">
+        <v>751</v>
+      </c>
+      <c r="C207" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D207" s="48"/>
-      <c r="E207" s="50"/>
-      <c r="F207" s="65"/>
-      <c r="G207" s="48" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="13.5" customHeight="1">
+      <c r="D207" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E207" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F207" s="34"/>
+      <c r="G207" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="30" t="s">
-        <v>514</v>
+        <v>167</v>
       </c>
       <c r="B208" s="32">
-        <v>248</v>
+        <v>352</v>
       </c>
       <c r="C208" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D208" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E208" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F208" s="34" t="s">
+        <v>486</v>
+      </c>
+      <c r="G208" s="30" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A209" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="B209" s="130" t="s">
+        <v>447</v>
+      </c>
+      <c r="C209" s="131"/>
+      <c r="D209" s="131"/>
+      <c r="E209" s="131"/>
+      <c r="F209" s="131"/>
+      <c r="G209" s="132"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="30"/>
+      <c r="B210" s="32"/>
+      <c r="C210" s="37"/>
+      <c r="D210" s="30"/>
+      <c r="E210" s="34"/>
+      <c r="F210" s="34"/>
+      <c r="G210" s="30"/>
+    </row>
+    <row r="211" spans="1:7" ht="38.25">
+      <c r="A211" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="B211" s="49"/>
+      <c r="C211" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D211" s="48"/>
+      <c r="E211" s="50"/>
+      <c r="F211" s="65"/>
+      <c r="G211" s="48" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A212" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="B212" s="32">
+        <v>248</v>
+      </c>
+      <c r="C212" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D212" s="30" t="s">
         <v>515</v>
       </c>
-      <c r="E208" s="34" t="s">
+      <c r="E212" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F208" s="34" t="s">
+      <c r="F212" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="G208" s="30" t="s">
+      <c r="G212" s="30" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A209" s="30" t="s">
+    <row r="213" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A213" s="30" t="s">
         <v>517</v>
       </c>
-      <c r="B209" s="32">
+      <c r="B213" s="32">
         <v>1300</v>
       </c>
-      <c r="C209" s="37" t="s">
+      <c r="C213" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D209" s="30" t="s">
+      <c r="D213" s="30" t="s">
         <v>518</v>
       </c>
-      <c r="E209" s="34" t="s">
+      <c r="E213" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F209" s="34" t="s">
+      <c r="F213" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="G209" s="30" t="s">
+      <c r="G213" s="30" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A210" s="30" t="s">
+    <row r="214" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A214" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="B210" s="32">
+      <c r="B214" s="32">
         <v>610</v>
       </c>
-      <c r="C210" s="37" t="s">
+      <c r="C214" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D210" s="30" t="s">
+      <c r="D214" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="E210" s="34" t="s">
+      <c r="E214" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F210" s="41">
+      <c r="F214" s="41">
         <v>0</v>
       </c>
-      <c r="G210" s="30"/>
-    </row>
-    <row r="211" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A211" s="30" t="s">
+      <c r="G214" s="30"/>
+    </row>
+    <row r="215" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A215" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="B211" s="32">
+      <c r="B215" s="32">
         <v>352</v>
       </c>
-      <c r="C211" s="37" t="s">
+      <c r="C215" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D211" s="30" t="s">
+      <c r="D215" s="30" t="s">
         <v>522</v>
       </c>
-      <c r="E211" s="34" t="s">
+      <c r="E215" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F211" s="41" t="s">
+      <c r="F215" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="G211" s="30"/>
-    </row>
-    <row r="212" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A212" s="83" t="s">
+      <c r="G215" s="30"/>
+    </row>
+    <row r="216" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A216" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B212" s="116" t="s">
+      <c r="B216" s="119" t="s">
         <v>526</v>
       </c>
-      <c r="C212" s="117"/>
-      <c r="D212" s="117"/>
-      <c r="E212" s="117"/>
-      <c r="F212" s="117"/>
-      <c r="G212" s="118"/>
-    </row>
-    <row r="213" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A213" s="83"/>
-      <c r="B213" s="74"/>
-      <c r="C213" s="85"/>
-      <c r="D213" s="85"/>
-      <c r="E213" s="85"/>
-      <c r="F213" s="85"/>
-      <c r="G213" s="86"/>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="A214" s="44" t="s">
+      <c r="C216" s="122"/>
+      <c r="D216" s="122"/>
+      <c r="E216" s="122"/>
+      <c r="F216" s="122"/>
+      <c r="G216" s="123"/>
+    </row>
+    <row r="217" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A217" s="83"/>
+      <c r="B217" s="74"/>
+      <c r="C217" s="85"/>
+      <c r="D217" s="85"/>
+      <c r="E217" s="85"/>
+      <c r="F217" s="85"/>
+      <c r="G217" s="86"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B214" s="45"/>
-      <c r="C214" s="46"/>
-      <c r="D214" s="44"/>
-      <c r="E214" s="47"/>
-      <c r="F214" s="47"/>
-      <c r="G214" s="44"/>
-    </row>
-    <row r="215" spans="1:7" ht="25.5">
-      <c r="A215" s="48" t="s">
+      <c r="B218" s="45"/>
+      <c r="C218" s="46"/>
+      <c r="D218" s="44"/>
+      <c r="E218" s="47"/>
+      <c r="F218" s="47"/>
+      <c r="G218" s="44"/>
+    </row>
+    <row r="219" spans="1:7" ht="25.5">
+      <c r="A219" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="B215" s="49"/>
-      <c r="C215" s="50" t="s">
+      <c r="B219" s="49"/>
+      <c r="C219" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D215" s="48"/>
-      <c r="E215" s="50"/>
-      <c r="F215" s="50"/>
-      <c r="G215" s="48" t="s">
+      <c r="D219" s="48"/>
+      <c r="E219" s="50"/>
+      <c r="F219" s="50"/>
+      <c r="G219" s="48" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="25.5">
-      <c r="A216" s="30" t="s">
+    <row r="220" spans="1:7" ht="25.5">
+      <c r="A220" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="B216" s="32">
+      <c r="B220" s="32">
         <v>610</v>
       </c>
-      <c r="C216" s="37" t="s">
+      <c r="C220" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D216" s="30" t="s">
+      <c r="D220" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="E216" s="34" t="s">
+      <c r="E220" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F216" s="34" t="s">
+      <c r="F220" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="G216" s="30" t="s">
+      <c r="G220" s="30" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
-      <c r="A217" s="83" t="s">
+    <row r="221" spans="1:7">
+      <c r="A221" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B217" s="119" t="s">
+      <c r="B221" s="130" t="s">
         <v>489</v>
       </c>
-      <c r="C217" s="120"/>
-      <c r="D217" s="120"/>
-      <c r="E217" s="120"/>
-      <c r="F217" s="120"/>
-      <c r="G217" s="121"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="68"/>
-      <c r="B218" s="66"/>
-      <c r="C218" s="67"/>
-      <c r="D218" s="68"/>
-      <c r="E218" s="69"/>
-      <c r="F218" s="69"/>
-      <c r="G218" s="68"/>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="48" t="s">
+      <c r="C221" s="131"/>
+      <c r="D221" s="131"/>
+      <c r="E221" s="131"/>
+      <c r="F221" s="131"/>
+      <c r="G221" s="132"/>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="68"/>
+      <c r="B222" s="66"/>
+      <c r="C222" s="67"/>
+      <c r="D222" s="68"/>
+      <c r="E222" s="69"/>
+      <c r="F222" s="69"/>
+      <c r="G222" s="68"/>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="48" t="s">
         <v>456</v>
       </c>
-      <c r="B219" s="48"/>
-      <c r="C219" s="50" t="s">
+      <c r="B223" s="48"/>
+      <c r="C223" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D219" s="48"/>
-      <c r="E219" s="48"/>
-      <c r="F219" s="48"/>
-      <c r="G219" s="48"/>
-    </row>
-    <row r="220" spans="1:7" s="84" customFormat="1" ht="89.25">
-      <c r="A220" s="64" t="s">
+      <c r="D223" s="48"/>
+      <c r="E223" s="48"/>
+      <c r="F223" s="48"/>
+      <c r="G223" s="48"/>
+    </row>
+    <row r="224" spans="1:7" s="84" customFormat="1" ht="89.25">
+      <c r="A224" s="64" t="s">
         <v>289</v>
       </c>
-      <c r="B220" s="32" t="s">
+      <c r="B224" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="C220" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D220" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="E220" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="F220" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="G220" s="64" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" s="84" customFormat="1">
-      <c r="A221" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="B221" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="C221" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D221" s="64" t="s">
-        <v>296</v>
-      </c>
-      <c r="E221" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="F221" s="34" t="s">
-        <v>462</v>
-      </c>
-      <c r="G221" s="64" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" s="84" customFormat="1">
-      <c r="A222" s="64" t="s">
-        <v>291</v>
-      </c>
-      <c r="B222" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C222" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D222" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="E222" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="F222" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="G222" s="64" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" s="84" customFormat="1">
-      <c r="A223" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="B223" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="C223" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D223" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="E223" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="F223" s="34"/>
-    </row>
-    <row r="224" spans="1:7" s="84" customFormat="1">
-      <c r="A224" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="B224" s="32" t="s">
-        <v>306</v>
       </c>
       <c r="C224" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D224" s="64" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E224" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="F224" s="34"/>
-      <c r="G224" s="64"/>
+        <v>29</v>
+      </c>
+      <c r="F224" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="G224" s="64" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="225" spans="1:7" s="84" customFormat="1">
       <c r="A225" s="64" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B225" s="32" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C225" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D225" s="64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E225" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="F225" s="34"/>
-      <c r="G225" s="64"/>
+        <v>302</v>
+      </c>
+      <c r="F225" s="34" t="s">
+        <v>462</v>
+      </c>
+      <c r="G225" s="64" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="226" spans="1:7" s="84" customFormat="1">
       <c r="A226" s="64" t="s">
-        <v>450</v>
-      </c>
-      <c r="B226" s="32">
-        <v>662</v>
+        <v>291</v>
+      </c>
+      <c r="B226" s="32" t="s">
+        <v>299</v>
       </c>
       <c r="C226" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D226" s="64" t="s">
-        <v>454</v>
+        <v>297</v>
       </c>
       <c r="E226" s="64" t="s">
-        <v>64</v>
-      </c>
-      <c r="F226" s="34"/>
-      <c r="G226" s="64"/>
+        <v>157</v>
+      </c>
+      <c r="F226" s="34" t="s">
+        <v>463</v>
+      </c>
+      <c r="G226" s="64" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="227" spans="1:7" s="84" customFormat="1">
       <c r="A227" s="64" t="s">
-        <v>451</v>
-      </c>
-      <c r="B227" s="32">
-        <v>828</v>
+        <v>292</v>
+      </c>
+      <c r="B227" s="32" t="s">
+        <v>304</v>
       </c>
       <c r="C227" s="34" t="s">
         <v>115</v>
       </c>
       <c r="D227" s="64" t="s">
+        <v>303</v>
+      </c>
+      <c r="E227" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F227" s="34"/>
+    </row>
+    <row r="228" spans="1:7" s="84" customFormat="1">
+      <c r="A228" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="B228" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="C228" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D228" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="E228" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F228" s="34"/>
+      <c r="G228" s="64"/>
+    </row>
+    <row r="229" spans="1:7" s="84" customFormat="1">
+      <c r="A229" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="B229" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="C229" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D229" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="E229" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F229" s="34"/>
+      <c r="G229" s="64"/>
+    </row>
+    <row r="230" spans="1:7" s="84" customFormat="1">
+      <c r="A230" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="B230" s="32">
+        <v>662</v>
+      </c>
+      <c r="C230" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D230" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="E230" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="F230" s="34"/>
+      <c r="G230" s="64"/>
+    </row>
+    <row r="231" spans="1:7" s="84" customFormat="1">
+      <c r="A231" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="B231" s="32">
+        <v>828</v>
+      </c>
+      <c r="C231" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D231" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="E227" s="64" t="s">
+      <c r="E231" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="F227" s="34" t="s">
+      <c r="F231" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="G227" s="64" t="s">
+      <c r="G231" s="64" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="84" customFormat="1">
-      <c r="A228" s="83" t="s">
+    <row r="232" spans="1:7" s="84" customFormat="1">
+      <c r="A232" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B228" s="116" t="s">
+      <c r="B232" s="119" t="s">
         <v>455</v>
       </c>
-      <c r="C228" s="117"/>
-      <c r="D228" s="117"/>
-      <c r="E228" s="117"/>
-      <c r="F228" s="117"/>
-      <c r="G228" s="118"/>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229" s="30"/>
-      <c r="B229" s="32"/>
-      <c r="C229" s="37"/>
-      <c r="D229" s="30"/>
-      <c r="E229" s="34"/>
-      <c r="F229" s="34"/>
-      <c r="G229" s="30"/>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230" s="48" t="s">
-        <v>529</v>
-      </c>
-      <c r="B230" s="48"/>
-      <c r="C230" s="48"/>
-      <c r="D230" s="48"/>
-      <c r="E230" s="48"/>
-      <c r="F230" s="48"/>
-      <c r="G230" s="48"/>
-    </row>
-    <row r="231" spans="1:7" ht="38.25">
-      <c r="A231" s="30" t="s">
-        <v>530</v>
-      </c>
-      <c r="B231" s="32">
-        <v>91</v>
-      </c>
-      <c r="C231" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D231" s="30" t="s">
-        <v>531</v>
-      </c>
-      <c r="E231" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="F231" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G231" s="95" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="30" t="s">
-        <v>532</v>
-      </c>
-      <c r="B232" s="38">
-        <v>206</v>
-      </c>
-      <c r="C232" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D232" s="30" t="s">
-        <v>533</v>
-      </c>
-      <c r="E232" s="58" t="s">
-        <v>534</v>
-      </c>
-      <c r="F232" s="34"/>
-      <c r="G232" s="30"/>
+      <c r="C232" s="122"/>
+      <c r="D232" s="122"/>
+      <c r="E232" s="122"/>
+      <c r="F232" s="122"/>
+      <c r="G232" s="123"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="B233" s="32">
-        <v>207</v>
-      </c>
-      <c r="C233" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D233" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="E233" s="58" t="s">
-        <v>157</v>
-      </c>
+      <c r="A233" s="30"/>
+      <c r="B233" s="32"/>
+      <c r="C233" s="37"/>
+      <c r="D233" s="30"/>
+      <c r="E233" s="34"/>
       <c r="F233" s="34"/>
       <c r="G233" s="30"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="B234" s="32">
-        <v>140</v>
-      </c>
-      <c r="C234" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="D234" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="E234" s="58" t="s">
-        <v>539</v>
-      </c>
-      <c r="F234" s="34"/>
-      <c r="G234" s="30"/>
-    </row>
-    <row r="235" spans="1:7">
+      <c r="A234" s="48" t="s">
+        <v>529</v>
+      </c>
+      <c r="B234" s="48"/>
+      <c r="C234" s="48"/>
+      <c r="D234" s="48"/>
+      <c r="E234" s="48"/>
+      <c r="F234" s="48"/>
+      <c r="G234" s="48"/>
+    </row>
+    <row r="235" spans="1:7" ht="38.25">
       <c r="A235" s="30" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B235" s="32">
-        <v>387</v>
+        <v>91</v>
       </c>
       <c r="C235" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D235" s="30" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="E235" s="58" t="s">
-        <v>542</v>
+        <v>101</v>
       </c>
       <c r="F235" s="34" t="s">
-        <v>545</v>
-      </c>
-      <c r="G235" s="30" t="s">
-        <v>546</v>
+        <v>25</v>
+      </c>
+      <c r="G235" s="95" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="B236" s="116" t="s">
-        <v>544</v>
-      </c>
-      <c r="C236" s="117"/>
-      <c r="D236" s="117"/>
-      <c r="E236" s="117"/>
-      <c r="F236" s="117"/>
-      <c r="G236" s="118"/>
+      <c r="A236" s="30" t="s">
+        <v>532</v>
+      </c>
+      <c r="B236" s="38">
+        <v>206</v>
+      </c>
+      <c r="C236" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D236" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="E236" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="F236" s="34"/>
+      <c r="G236" s="30"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="30"/>
-      <c r="B237" s="32"/>
-      <c r="C237" s="37"/>
-      <c r="D237" s="30"/>
-      <c r="E237" s="58"/>
-      <c r="F237" s="64"/>
+      <c r="A237" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="B237" s="32">
+        <v>207</v>
+      </c>
+      <c r="C237" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D237" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="E237" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="F237" s="34"/>
       <c r="G237" s="30"/>
     </row>
-    <row r="238" spans="1:7" ht="38.25">
-      <c r="A238" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="B238" s="49"/>
-      <c r="C238" s="50" t="s">
+    <row r="238" spans="1:7">
+      <c r="A238" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B238" s="32">
+        <v>140</v>
+      </c>
+      <c r="C238" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D238" s="48"/>
-      <c r="E238" s="50"/>
-      <c r="F238" s="65"/>
-      <c r="G238" s="48" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="13.5" customHeight="1">
+      <c r="D238" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="E238" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="F238" s="34"/>
+      <c r="G238" s="30"/>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" s="30" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="B239" s="32">
-        <v>248</v>
+        <v>387</v>
       </c>
       <c r="C239" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D239" s="30" t="s">
+        <v>541</v>
+      </c>
+      <c r="E239" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="F239" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="G239" s="30" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="B240" s="119" t="s">
+        <v>544</v>
+      </c>
+      <c r="C240" s="122"/>
+      <c r="D240" s="122"/>
+      <c r="E240" s="122"/>
+      <c r="F240" s="122"/>
+      <c r="G240" s="123"/>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="30"/>
+      <c r="B241" s="32"/>
+      <c r="C241" s="37"/>
+      <c r="D241" s="30"/>
+      <c r="E241" s="58"/>
+      <c r="F241" s="64"/>
+      <c r="G241" s="30"/>
+    </row>
+    <row r="242" spans="1:8" ht="38.25">
+      <c r="A242" s="48" t="s">
+        <v>512</v>
+      </c>
+      <c r="B242" s="49"/>
+      <c r="C242" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D242" s="48"/>
+      <c r="E242" s="50"/>
+      <c r="F242" s="65"/>
+      <c r="G242" s="48" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A243" s="30" t="s">
+        <v>514</v>
+      </c>
+      <c r="B243" s="32">
+        <v>248</v>
+      </c>
+      <c r="C243" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243" s="30" t="s">
         <v>515</v>
       </c>
-      <c r="E239" s="34" t="s">
+      <c r="E243" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="F239" s="34" t="s">
+      <c r="F243" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="G239" s="30" t="s">
+      <c r="G243" s="30" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A240" s="30" t="s">
+    <row r="244" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A244" s="30" t="s">
         <v>517</v>
       </c>
-      <c r="B240" s="32">
+      <c r="B244" s="32">
         <v>1300</v>
       </c>
-      <c r="C240" s="37" t="s">
+      <c r="C244" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D240" s="30" t="s">
+      <c r="D244" s="30" t="s">
         <v>518</v>
       </c>
-      <c r="E240" s="34" t="s">
+      <c r="E244" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="F240" s="34" t="s">
+      <c r="F244" s="34" t="s">
         <v>523</v>
       </c>
-      <c r="G240" s="30" t="s">
+      <c r="G244" s="30" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A241" s="30" t="s">
+    <row r="245" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A245" s="30" t="s">
         <v>520</v>
       </c>
-      <c r="B241" s="32">
+      <c r="B245" s="32">
         <v>610</v>
       </c>
-      <c r="C241" s="37" t="s">
+      <c r="C245" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="30" t="s">
+      <c r="D245" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="E241" s="34" t="s">
+      <c r="E245" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="F241" s="41">
+      <c r="F245" s="41">
         <v>1000</v>
       </c>
-      <c r="G241" s="30"/>
-    </row>
-    <row r="242" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A242" s="30" t="s">
+      <c r="G245" s="30"/>
+    </row>
+    <row r="246" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A246" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="B242" s="32">
+      <c r="B246" s="32">
         <v>352</v>
-      </c>
-      <c r="C242" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D242" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="E242" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F242" s="41" t="s">
-        <v>525</v>
-      </c>
-      <c r="G242" s="30"/>
-    </row>
-    <row r="243" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A243" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="B243" s="116" t="s">
-        <v>524</v>
-      </c>
-      <c r="C243" s="117"/>
-      <c r="D243" s="117"/>
-      <c r="E243" s="117"/>
-      <c r="F243" s="117"/>
-      <c r="G243" s="118"/>
-    </row>
-    <row r="244" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A244" s="83"/>
-      <c r="B244" s="74"/>
-      <c r="C244" s="85"/>
-      <c r="D244" s="85"/>
-      <c r="E244" s="85"/>
-      <c r="F244" s="85"/>
-      <c r="G244" s="86"/>
-      <c r="H244" s="93"/>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="48" t="s">
-        <v>267</v>
-      </c>
-      <c r="B245" s="48"/>
-      <c r="C245" s="48"/>
-      <c r="D245" s="48"/>
-      <c r="E245" s="48"/>
-      <c r="F245" s="48"/>
-      <c r="G245" s="48"/>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B246" s="32">
-        <v>354</v>
       </c>
       <c r="C246" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D246" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="E246" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="F246" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="G246" s="30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>522</v>
+      </c>
+      <c r="E246" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F246" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="G246" s="30"/>
+    </row>
+    <row r="247" spans="1:8" ht="13.5" customHeight="1">
       <c r="A247" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B247" s="116" t="s">
+      <c r="B247" s="119" t="s">
+        <v>524</v>
+      </c>
+      <c r="C247" s="122"/>
+      <c r="D247" s="122"/>
+      <c r="E247" s="122"/>
+      <c r="F247" s="122"/>
+      <c r="G247" s="123"/>
+    </row>
+    <row r="248" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A248" s="83"/>
+      <c r="B248" s="74"/>
+      <c r="C248" s="85"/>
+      <c r="D248" s="85"/>
+      <c r="E248" s="85"/>
+      <c r="F248" s="85"/>
+      <c r="G248" s="86"/>
+      <c r="H248" s="93"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="B249" s="48"/>
+      <c r="C249" s="48"/>
+      <c r="D249" s="48"/>
+      <c r="E249" s="48"/>
+      <c r="F249" s="48"/>
+      <c r="G249" s="48"/>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B250" s="32">
+        <v>354</v>
+      </c>
+      <c r="C250" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D250" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E250" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="F250" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="G250" s="30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="B251" s="119" t="s">
         <v>457</v>
       </c>
-      <c r="C247" s="117"/>
-      <c r="D247" s="117"/>
-      <c r="E247" s="117"/>
-      <c r="F247" s="117"/>
-      <c r="G247" s="118"/>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" s="30"/>
-      <c r="B248" s="32"/>
-      <c r="C248" s="37"/>
-      <c r="D248" s="30"/>
-      <c r="E248" s="58"/>
-      <c r="F248" s="58"/>
-      <c r="G248" s="30"/>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="30"/>
-      <c r="B249" s="32"/>
-      <c r="C249" s="37"/>
-      <c r="D249" s="30"/>
-      <c r="E249" s="34"/>
-      <c r="F249" s="34"/>
-      <c r="G249" s="30"/>
-    </row>
-    <row r="250" spans="1:8" ht="25.5">
-      <c r="A250" s="48" t="s">
+      <c r="C251" s="122"/>
+      <c r="D251" s="122"/>
+      <c r="E251" s="122"/>
+      <c r="F251" s="122"/>
+      <c r="G251" s="123"/>
+    </row>
+    <row r="252" spans="1:8">
+      <c r="A252" s="30"/>
+      <c r="B252" s="32"/>
+      <c r="C252" s="37"/>
+      <c r="D252" s="30"/>
+      <c r="E252" s="58"/>
+      <c r="F252" s="58"/>
+      <c r="G252" s="30"/>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="30"/>
+      <c r="B253" s="32"/>
+      <c r="C253" s="37"/>
+      <c r="D253" s="30"/>
+      <c r="E253" s="34"/>
+      <c r="F253" s="34"/>
+      <c r="G253" s="30"/>
+    </row>
+    <row r="254" spans="1:8" ht="25.5">
+      <c r="A254" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="B250" s="49"/>
-      <c r="C250" s="50" t="s">
+      <c r="B254" s="49"/>
+      <c r="C254" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D250" s="48" t="s">
+      <c r="D254" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="E250" s="50"/>
-      <c r="F250" s="50"/>
-      <c r="G250" s="48"/>
-    </row>
-    <row r="251" spans="1:8" ht="25.5">
-      <c r="A251" s="30" t="s">
+      <c r="E254" s="50"/>
+      <c r="F254" s="50"/>
+      <c r="G254" s="48"/>
+    </row>
+    <row r="255" spans="1:8" ht="25.5">
+      <c r="A255" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="B251" s="32">
+      <c r="B255" s="32">
         <v>96</v>
       </c>
-      <c r="C251" s="37" t="s">
+      <c r="C255" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D251" s="30" t="s">
+      <c r="D255" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="E251" s="34" t="s">
+      <c r="E255" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="F251" s="34"/>
-      <c r="G251" s="30"/>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="A252" s="30" t="s">
+      <c r="F255" s="34"/>
+      <c r="G255" s="30"/>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B252" s="32">
+      <c r="B256" s="32">
         <v>329</v>
-      </c>
-      <c r="C252" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D252" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="E252" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="F252" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="G252" s="28" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="B253" s="116" t="s">
-        <v>485</v>
-      </c>
-      <c r="C253" s="117"/>
-      <c r="D253" s="117"/>
-      <c r="E253" s="117"/>
-      <c r="F253" s="117"/>
-      <c r="G253" s="118"/>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" s="30"/>
-      <c r="B254" s="32"/>
-      <c r="C254" s="37"/>
-      <c r="D254" s="30"/>
-      <c r="E254" s="34"/>
-      <c r="F254" s="34"/>
-      <c r="G254" s="28"/>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="A255" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="B255" s="49"/>
-      <c r="C255" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D255" s="48"/>
-      <c r="E255" s="50"/>
-      <c r="F255" s="50"/>
-      <c r="G255" s="48"/>
-    </row>
-    <row r="256" spans="1:8" ht="25.5">
-      <c r="A256" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B256" s="32">
-        <v>97</v>
       </c>
       <c r="C256" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D256" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E256" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F256" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G256" s="28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="B257" s="119" t="s">
+        <v>485</v>
+      </c>
+      <c r="C257" s="122"/>
+      <c r="D257" s="122"/>
+      <c r="E257" s="122"/>
+      <c r="F257" s="122"/>
+      <c r="G257" s="123"/>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="30"/>
+      <c r="B258" s="32"/>
+      <c r="C258" s="37"/>
+      <c r="D258" s="30"/>
+      <c r="E258" s="34"/>
+      <c r="F258" s="34"/>
+      <c r="G258" s="28"/>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B259" s="49"/>
+      <c r="C259" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D259" s="48"/>
+      <c r="E259" s="50"/>
+      <c r="F259" s="50"/>
+      <c r="G259" s="48"/>
+    </row>
+    <row r="260" spans="1:7" ht="25.5">
+      <c r="A260" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B260" s="32">
+        <v>97</v>
+      </c>
+      <c r="C260" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D260" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="E256" s="34" t="s">
+      <c r="E260" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F256" s="34" t="s">
+      <c r="F260" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="G256" s="30" t="s">
+      <c r="G260" s="30" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
-      <c r="A257" s="30" t="s">
+    <row r="261" spans="1:7">
+      <c r="A261" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="B257" s="32">
+      <c r="B261" s="32">
         <v>28</v>
-      </c>
-      <c r="C257" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D257" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="E257" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F257" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="G257" s="28" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
-      <c r="A258" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="B258" s="116" t="s">
-        <v>458</v>
-      </c>
-      <c r="C258" s="117"/>
-      <c r="D258" s="117"/>
-      <c r="E258" s="117"/>
-      <c r="F258" s="117"/>
-      <c r="G258" s="118"/>
-    </row>
-    <row r="259" spans="1:7">
-      <c r="A259" s="30"/>
-      <c r="B259" s="32"/>
-      <c r="C259" s="37"/>
-      <c r="D259" s="30"/>
-      <c r="E259" s="34"/>
-      <c r="F259" s="34"/>
-      <c r="G259" s="28"/>
-    </row>
-    <row r="260" spans="1:7" ht="25.5">
-      <c r="A260" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="B260" s="49"/>
-      <c r="C260" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D260" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="E260" s="50"/>
-      <c r="F260" s="50"/>
-      <c r="G260" s="48"/>
-    </row>
-    <row r="261" spans="1:7" ht="25.5">
-      <c r="A261" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B261" s="32">
-        <v>479</v>
       </c>
       <c r="C261" s="37" t="s">
         <v>25</v>
       </c>
       <c r="D261" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E261" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F261" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G261" s="28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="B262" s="119" t="s">
+        <v>458</v>
+      </c>
+      <c r="C262" s="122"/>
+      <c r="D262" s="122"/>
+      <c r="E262" s="122"/>
+      <c r="F262" s="122"/>
+      <c r="G262" s="123"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="30"/>
+      <c r="B263" s="32"/>
+      <c r="C263" s="37"/>
+      <c r="D263" s="30"/>
+      <c r="E263" s="34"/>
+      <c r="F263" s="34"/>
+      <c r="G263" s="28"/>
+    </row>
+    <row r="264" spans="1:7" ht="25.5">
+      <c r="A264" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B264" s="49"/>
+      <c r="C264" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D264" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E264" s="50"/>
+      <c r="F264" s="50"/>
+      <c r="G264" s="48"/>
+    </row>
+    <row r="265" spans="1:7" ht="25.5">
+      <c r="A265" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B265" s="32">
+        <v>479</v>
+      </c>
+      <c r="C265" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D265" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="E261" s="34" t="s">
+      <c r="E265" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="F261" s="34" t="s">
+      <c r="F265" s="34" t="s">
         <v>429</v>
       </c>
-      <c r="G261" s="30" t="s">
+      <c r="G265" s="30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="30" t="s">
+    <row r="266" spans="1:7">
+      <c r="A266" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B262" s="32">
+      <c r="B266" s="32">
         <v>142</v>
       </c>
-      <c r="C262" s="37" t="s">
+      <c r="C266" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D262" s="30" t="s">
+      <c r="D266" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="E262" s="34" t="s">
+      <c r="E266" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F262" s="34" t="s">
+      <c r="F266" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="G262" s="28" t="s">
+      <c r="G266" s="28" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="83" t="s">
+    <row r="267" spans="1:7">
+      <c r="A267" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="B263" s="116" t="s">
+      <c r="B267" s="119" t="s">
         <v>460</v>
       </c>
-      <c r="C263" s="117"/>
-      <c r="D263" s="117"/>
-      <c r="E263" s="117"/>
-      <c r="F263" s="117"/>
-      <c r="G263" s="118"/>
+      <c r="C267" s="122"/>
+      <c r="D267" s="122"/>
+      <c r="E267" s="122"/>
+      <c r="F267" s="122"/>
+      <c r="G267" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B152:G152"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="B159:G159"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B186:G186"/>
-    <mergeCell ref="B228:G228"/>
-    <mergeCell ref="B217:G217"/>
+  <mergeCells count="45">
+    <mergeCell ref="B251:G251"/>
+    <mergeCell ref="B257:G257"/>
+    <mergeCell ref="B262:G262"/>
+    <mergeCell ref="B267:G267"/>
+    <mergeCell ref="B201:G201"/>
+    <mergeCell ref="B209:G209"/>
+    <mergeCell ref="B247:G247"/>
+    <mergeCell ref="B216:G216"/>
+    <mergeCell ref="B240:G240"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="B232:G232"/>
+    <mergeCell ref="B221:G221"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B36:G36"/>
@@ -7896,15 +7945,26 @@
     <mergeCell ref="B72:G72"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B247:G247"/>
-    <mergeCell ref="B253:G253"/>
-    <mergeCell ref="B258:G258"/>
-    <mergeCell ref="B263:G263"/>
-    <mergeCell ref="B197:G197"/>
-    <mergeCell ref="B205:G205"/>
-    <mergeCell ref="B243:G243"/>
-    <mergeCell ref="B212:G212"/>
-    <mergeCell ref="B236:G236"/>
+    <mergeCell ref="B179:G179"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B156:G156"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B146:G146"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B164:G164"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B61:F61"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7917,7 +7977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD89A094-B856-4791-AA7C-3560703CFD26}">
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -7927,192 +7987,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="100" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="101" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="101" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="101" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="101" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="101" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="101" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="101" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="101" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="101" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="101" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="101" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="101" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="101" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="101" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="101" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="101" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="101" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="101" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="101" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="101" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="134" t="s">
+      <c r="A22" s="101" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="101" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="101" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="101" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="101" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="101" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="134" t="s">
+      <c r="A28" s="101" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="101" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="134" t="s">
+      <c r="A30" s="101" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="101" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="134" t="s">
+      <c r="A32" s="101" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="101" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="134" t="s">
+      <c r="A34" s="101" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="134" t="s">
+      <c r="A35" s="101" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="134" t="s">
+      <c r="A36" s="101" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="101" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="135" t="s">
+      <c r="A38" s="102" t="s">
         <v>485</v>
       </c>
     </row>
@@ -8523,6 +8583,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF3AC9B3629813499A0ACD8A875243EF" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="922d0740f907dd86cb660748b16b5452">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2611df27-1940-46be-a00f-4132d3fec05a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbb66662760600521b39f06a97f3e4fa" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8711,39 +8789,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE8E031-5F32-4C4F-89D7-DA1D52DF419D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A1C1A-9E5E-4F54-8085-06E04E5030EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="2611df27-1940-46be-a00f-4132d3fec05a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8767,9 +8816,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{008A1C1A-9E5E-4F54-8085-06E04E5030EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE8E031-5F32-4C4F-89D7-DA1D52DF419D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="2611df27-1940-46be-a00f-4132d3fec05a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>